--- a/masks/code/TKIDModule_spreadsheet_20200602_AW_special.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200602_AW_special.xlsx
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>GP_Island_280umlegs_R</t>
-  </si>
-  <si>
-    <t>GP_edge_opening</t>
   </si>
   <si>
     <t>Ground_Plane_cap_cutout_elongated</t>
@@ -631,6 +628,9 @@
   </si>
   <si>
     <t>CIF_ILD</t>
+  </si>
+  <si>
+    <t>GP_edge_opening</t>
   </si>
   <si>
     <t>ILD_cap_cutout_elongated</t>
@@ -3786,41 +3786,41 @@
         <v>50</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-3.45</v>
+        <v>-7.55</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-9.625</v>
+        <v>-2.619</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>9.9</v>
+        <v>1.2</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-8.4</v>
+        <v>-8.15</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>1.5</v>
+        <v>-6.95</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>-8.975</v>
+        <v>-1.019</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>-10.275</v>
+        <v>-4.219</v>
       </c>
       <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>-3.45</v>
+        <v>-7.55</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>-9.625</v>
+        <v>-2.606</v>
       </c>
       <c r="Q44" s="1" t="n"/>
       <c r="R44" s="1" t="n"/>
@@ -3828,26 +3828,28 @@
         <v>32</v>
       </c>
       <c r="T44" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U44" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="X44" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y44" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="U44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V44" s="1" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="W44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="1" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y44" s="1" t="n">
-        <v>71.29000000000001</v>
       </c>
       <c r="Z44" s="1" t="n"/>
       <c r="AA44" s="1" t="n"/>
-      <c r="AB44" s="1" t="s"/>
+      <c r="AB44" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1" t="s">
@@ -3855,44 +3857,44 @@
       </c>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-7.55</v>
+        <v>8.5</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-2.619</v>
+        <v>-2.25</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>-8.15</v>
+        <v>8.15</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>-6.95</v>
+        <v>8.85</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>-1.019</v>
+        <v>-1.95</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>-4.219</v>
+        <v>-2.55</v>
       </c>
       <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n">
-        <v>0</v>
+        <v>-2.701</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>-0.013</v>
+        <v>-3.986</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>-7.55</v>
+        <v>11.201</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>-2.606</v>
+        <v>1.736</v>
       </c>
       <c r="Q45" s="1" t="n"/>
       <c r="R45" s="1" t="n"/>
@@ -3900,28 +3902,26 @@
         <v>32</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0</v>
+        <v>-29.4</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>-0.328</v>
+        <v>-4.542</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>4</v>
+        <v>16.8</v>
       </c>
       <c r="Z45" s="1" t="n"/>
       <c r="AA45" s="1" t="n"/>
-      <c r="AB45" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AB45" s="1" t="s"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>8.5</v>
@@ -3957,16 +3957,16 @@
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
-        <v>-2.701</v>
+        <v>2.705</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>-3.986</v>
+        <v>3.988</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>11.201</v>
+        <v>5.795</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>1.736</v>
+        <v>-6.238</v>
       </c>
       <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="n"/>
@@ -3980,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>-29.4</v>
+        <v>29.4</v>
       </c>
       <c r="W46" s="1" t="n">
         <v>-4.542</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>8.5</v>
@@ -4029,16 +4029,16 @@
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
-        <v>2.705</v>
+        <v>0</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>3.988</v>
+        <v>0</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>5.795</v>
+        <v>8.5</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>-6.238</v>
+        <v>-2.25</v>
       </c>
       <c r="Q47" s="1" t="n"/>
       <c r="R47" s="1" t="n"/>
@@ -4049,19 +4049,19 @@
         <v>1</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>29.4</v>
+        <v>23.705</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>-4.542</v>
+        <v>-33.728</v>
       </c>
       <c r="X47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1" t="n"/>
       <c r="AA47" s="1" t="n"/>
@@ -4076,28 +4076,28 @@
         <v>53</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>8.5</v>
+        <v>4.83</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-2.25</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.7</v>
+        <v>1.44</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.6</v>
+        <v>1.44</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>8.15</v>
+        <v>4.11</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>8.85</v>
+        <v>5.55</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>-1.95</v>
+        <v>-7.500000000000001</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>-2.55</v>
+        <v>-8.940000000000001</v>
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
@@ -4107,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>8.5</v>
+        <v>4.83</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>-2.25</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
@@ -4118,22 +4118,22 @@
         <v>32</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>23.705</v>
+        <v>0</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>-33.728</v>
+        <v>6.103</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0</v>
+        <v>50.4725</v>
       </c>
       <c r="Z48" s="1" t="n"/>
       <c r="AA48" s="1" t="n"/>
@@ -4148,28 +4148,28 @@
         <v>54</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>4.83</v>
+        <v>-6.4</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-8.220000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>4.11</v>
+        <v>-6.9</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>5.55</v>
+        <v>-5.9</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>-7.500000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>-8.940000000000001</v>
+        <v>3</v>
       </c>
       <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n">
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>4.83</v>
+        <v>-6.4</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>-8.220000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="Q49" s="1" t="n"/>
       <c r="R49" s="1" t="n"/>
@@ -4190,22 +4190,22 @@
         <v>32</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0</v>
+        <v>-36.32</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>6.103</v>
+        <v>-2.808</v>
       </c>
       <c r="X49" s="1" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1" t="n">
-        <v>50.4725</v>
+        <v>1.995</v>
       </c>
       <c r="Z49" s="1" t="n"/>
       <c r="AA49" s="1" t="n"/>
@@ -4220,41 +4220,41 @@
         <v>55</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>-6.4</v>
+        <v>4.54</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>4.2</v>
+        <v>-2.986</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>-6.9</v>
+        <v>0.2300000000000004</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>-5.9</v>
+        <v>8.85</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>5.4</v>
+        <v>-2.6</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>3</v>
+        <v>-3.4</v>
       </c>
       <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>0</v>
+        <v>-3.943</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>-6.4</v>
+        <v>4.54</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>4.2</v>
+        <v>0.9569999999999999</v>
       </c>
       <c r="Q50" s="1" t="n"/>
       <c r="R50" s="1" t="n"/>
@@ -4262,22 +4262,22 @@
         <v>32</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>-36.32</v>
+        <v>4.2</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>-2.808</v>
+        <v>-0.342</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>1.995</v>
+        <v>8.4</v>
       </c>
       <c r="Z50" s="1" t="n"/>
       <c r="AA50" s="1" t="n"/>
@@ -4295,7 +4295,7 @@
         <v>4.54</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>-2.986</v>
+        <v>-6.1</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>8.619999999999999</v>
@@ -4310,23 +4310,23 @@
         <v>8.85</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>-2.6</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>-3.4</v>
+        <v>-6.5</v>
       </c>
       <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>-3.943</v>
+        <v>3.916</v>
       </c>
       <c r="O51" s="1" t="n">
         <v>4.54</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>0.9569999999999999</v>
+        <v>-10.016</v>
       </c>
       <c r="Q51" s="1" t="n"/>
       <c r="R51" s="1" t="n"/>
@@ -4340,7 +4340,7 @@
         <v>8</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W51" s="1" t="n">
         <v>-0.342</v>
@@ -4364,41 +4364,41 @@
         <v>57</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>4.54</v>
+        <v>-6.62</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>-6.1</v>
+        <v>1.475</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>8.619999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.8</v>
+        <v>2.95</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.2300000000000004</v>
+        <v>-7.34</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>8.85</v>
+        <v>-5.9</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>-5.699999999999999</v>
+        <v>2.95</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1" t="n"/>
       <c r="M52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>4.54</v>
+        <v>-6.62</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>-10.016</v>
+        <v>1.475</v>
       </c>
       <c r="Q52" s="1" t="n"/>
       <c r="R52" s="1" t="n"/>
@@ -4406,22 +4406,22 @@
         <v>32</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>-0.342</v>
+        <v>-18.378</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>16.8</v>
+        <v>71</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1" t="n"/>
       <c r="AA52" s="1" t="n"/>
@@ -4436,25 +4436,25 @@
         <v>58</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-6.62</v>
+        <v>6.9</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>1.475</v>
+        <v>3.9</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1.44</v>
+        <v>7.8</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>2.95</v>
+        <v>7.8</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>-7.34</v>
+        <v>3</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>-5.9</v>
+        <v>10.8</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>2.95</v>
+        <v>7.8</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>-6.62</v>
+        <v>6.9</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>1.475</v>
+        <v>3.9</v>
       </c>
       <c r="Q53" s="1" t="n"/>
       <c r="R53" s="1" t="n"/>
@@ -4478,22 +4478,22 @@
         <v>32</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>-18.378</v>
+        <v>-0.342</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>71</v>
+        <v>8.4</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z53" s="1" t="n"/>
       <c r="AA53" s="1" t="n"/>
@@ -4508,28 +4508,28 @@
         <v>59</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>6.9</v>
+        <v>-4.858</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>3.9</v>
+        <v>-0.761</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>7.8</v>
+        <v>1.012</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>7.8</v>
+        <v>1.089</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>3</v>
+        <v>-5.364</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>10.8</v>
+        <v>-4.351999999999999</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>7.8</v>
+        <v>-0.217</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0</v>
+        <v>-1.306</v>
       </c>
       <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n">
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>6.9</v>
+        <v>-4.858</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>3.9</v>
+        <v>-0.761</v>
       </c>
       <c r="Q54" s="1" t="n"/>
       <c r="R54" s="1" t="n"/>
@@ -4550,22 +4550,22 @@
         <v>32</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U54" s="1" t="n">
         <v>8</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0</v>
+        <v>-34.659</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.135</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z54" s="1" t="n"/>
       <c r="AA54" s="1" t="n"/>
@@ -4573,35 +4573,35 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>-4.858</v>
+        <v>-7.89</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>-0.761</v>
+        <v>5.2</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1.012</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1.089</v>
+        <v>10.4</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>-5.364</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>-4.351999999999999</v>
+        <v>-7.39</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>-0.217</v>
+        <v>10.4</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>-1.306</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1" t="n"/>
       <c r="M55" s="1" t="n">
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>-4.858</v>
+        <v>-7.89</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>-0.761</v>
+        <v>5.2</v>
       </c>
       <c r="Q55" s="1" t="n"/>
       <c r="R55" s="1" t="n"/>
@@ -4622,22 +4622,22 @@
         <v>32</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>-34.659</v>
+        <v>-0.001</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>-0.135</v>
+        <v>2.217</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z55" s="1" t="n"/>
       <c r="AA55" s="1" t="n"/>
@@ -4645,48 +4645,48 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>-7.89</v>
+        <v>-2.25</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>5.2</v>
+        <v>-4.7</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>10.4</v>
+        <v>0.6</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-8.390000000000001</v>
+        <v>-4.45</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-7.39</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>10.4</v>
+        <v>-4.4</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L56" s="1" t="n"/>
       <c r="M56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>-7.89</v>
+        <v>-2.25</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>5.2</v>
+        <v>-0.7840000000000003</v>
       </c>
       <c r="Q56" s="1" t="n"/>
       <c r="R56" s="1" t="n"/>
@@ -4694,22 +4694,22 @@
         <v>32</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>-0.001</v>
+        <v>4.2</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>2.217</v>
+        <v>-0.342</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>72.8</v>
+        <v>16.8</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Z56" s="1" t="n"/>
       <c r="AA56" s="1" t="n"/>
@@ -4717,14 +4717,14 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>-2.25</v>
+        <v>2.2</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>-4.7</v>
@@ -4736,10 +4736,10 @@
         <v>0.6</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>-4.45</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>4.4</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>-4.4</v>
@@ -4752,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>-2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>-0.7840000000000003</v>
+        <v>-8.616</v>
       </c>
       <c r="Q57" s="1" t="n"/>
       <c r="R57" s="1" t="n"/>
@@ -4772,7 +4772,7 @@
         <v>8</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W57" s="1" t="n">
         <v>-0.342</v>
@@ -4789,48 +4789,48 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>-4.7</v>
+        <v>-10.5</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>4.4</v>
+        <v>15.4</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>0</v>
+        <v>-5.25</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>4.4</v>
+        <v>10.15</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>-4.4</v>
+        <v>-10.3</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>-5</v>
+        <v>-10.7</v>
       </c>
       <c r="L58" s="1" t="n"/>
       <c r="M58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>-8.616</v>
+        <v>-10.5</v>
       </c>
       <c r="Q58" s="1" t="n"/>
       <c r="R58" s="1" t="n"/>
@@ -4838,22 +4838,22 @@
         <v>32</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>-4.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.342</v>
+        <v>0</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>8.4</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="Z58" s="1" t="n"/>
       <c r="AA58" s="1" t="n"/>
@@ -4861,35 +4861,35 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>2.45</v>
+        <v>-10.59</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>-10.5</v>
+        <v>-3.075</v>
       </c>
       <c r="F59" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G59" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="G59" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H59" s="1" t="n">
-        <v>-5.25</v>
+        <v>-10.79</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>10.15</v>
+        <v>-10.39</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>-10.3</v>
+        <v>4.625</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>-10.7</v>
+        <v>-10.775</v>
       </c>
       <c r="L59" s="1" t="n"/>
       <c r="M59" s="1" t="n">
@@ -4899,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>2.45</v>
+        <v>-10.59</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>-10.5</v>
+        <v>-3.075</v>
       </c>
       <c r="Q59" s="1" t="n"/>
       <c r="R59" s="1" t="n"/>
@@ -4910,22 +4910,22 @@
         <v>32</v>
       </c>
       <c r="T59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="U59" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="V59" s="1" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X59" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="Y59" s="1" t="n">
         <v>15</v>
-      </c>
-      <c r="Y59" s="1" t="n">
-        <v>72.68000000000001</v>
       </c>
       <c r="Z59" s="1" t="n"/>
       <c r="AA59" s="1" t="n"/>
@@ -4933,35 +4933,35 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>-10.59</v>
+        <v>-9.975</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>-3.075</v>
+        <v>-7.975</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>15.4</v>
+        <v>2.8</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>-10.79</v>
+        <v>-10.475</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>-10.39</v>
+        <v>-9.475</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>4.625</v>
+        <v>-6.574999999999999</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>-10.775</v>
+        <v>-9.375</v>
       </c>
       <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n">
@@ -4971,33 +4971,33 @@
         <v>0</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>-10.59</v>
+        <v>-9.975</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>-3.075</v>
+        <v>-7.975</v>
       </c>
       <c r="Q60" s="1" t="n"/>
       <c r="R60" s="1" t="n"/>
       <c r="S60" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0</v>
+        <v>-25.2</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>-1</v>
+        <v>-27.114</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1" t="n"/>
       <c r="AA60" s="1" t="n"/>
@@ -5005,14 +5005,14 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>-7.975</v>
@@ -5024,10 +5024,10 @@
         <v>2.8</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.425000000000001</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>-9.475</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="P61" s="1" t="n">
         <v>-7.975</v>
@@ -5051,7 +5051,7 @@
       <c r="Q61" s="1" t="n"/>
       <c r="R61" s="1" t="n"/>
       <c r="S61" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T61" s="1" t="n">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>-25.2</v>
+        <v>-16.8</v>
       </c>
       <c r="W61" s="1" t="n">
         <v>-27.114</v>
@@ -5077,14 +5077,14 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>-7.975</v>
@@ -5096,10 +5096,10 @@
         <v>2.8</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.375</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-7.375</v>
       </c>
       <c r="J62" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>-7.975</v>
@@ -5123,7 +5123,7 @@
       <c r="Q62" s="1" t="n"/>
       <c r="R62" s="1" t="n"/>
       <c r="S62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T62" s="1" t="n">
         <v>1</v>
@@ -5132,10 +5132,10 @@
         <v>1</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>-16.8</v>
+        <v>-25.2</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>-27.114</v>
+        <v>-32.368</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>0</v>
@@ -5149,14 +5149,14 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>-7.975</v>
@@ -5168,10 +5168,10 @@
         <v>2.8</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.325</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-7.375</v>
+        <v>-6.325</v>
       </c>
       <c r="J63" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>-7.975</v>
@@ -5195,7 +5195,7 @@
       <c r="Q63" s="1" t="n"/>
       <c r="R63" s="1" t="n"/>
       <c r="S63" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T63" s="1" t="n">
         <v>1</v>
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>-25.2</v>
+        <v>-16.8</v>
       </c>
       <c r="W63" s="1" t="n">
         <v>-32.368</v>
@@ -5221,14 +5221,14 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>-7.975</v>
@@ -5240,10 +5240,10 @@
         <v>2.8</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.275</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>-6.325</v>
+        <v>-5.275</v>
       </c>
       <c r="J64" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="P64" s="1" t="n">
         <v>-7.975</v>
@@ -5267,7 +5267,7 @@
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
       <c r="S64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T64" s="1" t="n">
         <v>1</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>-16.8</v>
+        <v>-8.4</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>-32.368</v>
+        <v>-27.114</v>
       </c>
       <c r="X64" s="1" t="n">
         <v>0</v>
@@ -5293,14 +5293,14 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>-7.975</v>
@@ -5312,10 +5312,10 @@
         <v>2.8</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.225</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>-5.275</v>
+        <v>-4.225</v>
       </c>
       <c r="J65" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="P65" s="1" t="n">
         <v>-7.975</v>
@@ -5339,7 +5339,7 @@
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
       <c r="S65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T65" s="1" t="n">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="W65" s="1" t="n">
         <v>-27.114</v>
@@ -5365,14 +5365,14 @@
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>-7.975</v>
@@ -5384,10 +5384,10 @@
         <v>2.8</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.175</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>-4.225</v>
+        <v>-3.175</v>
       </c>
       <c r="J66" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="P66" s="1" t="n">
         <v>-7.975</v>
@@ -5411,7 +5411,7 @@
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
       <c r="S66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T66" s="1" t="n">
         <v>1</v>
@@ -5420,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>-27.114</v>
+        <v>-32.368</v>
       </c>
       <c r="X66" s="1" t="n">
         <v>0</v>
@@ -5437,14 +5437,14 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>-7.975</v>
@@ -5456,10 +5456,10 @@
         <v>2.8</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.125</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>-3.175</v>
+        <v>-2.125</v>
       </c>
       <c r="J67" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>-7.975</v>
@@ -5483,7 +5483,7 @@
       <c r="Q67" s="1" t="n"/>
       <c r="R67" s="1" t="n"/>
       <c r="S67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T67" s="1" t="n">
         <v>1</v>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="1" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="W67" s="1" t="n">
         <v>-32.368</v>
@@ -5509,14 +5509,14 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>-7.975</v>
@@ -5528,10 +5528,10 @@
         <v>2.8</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.075</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>-2.125</v>
+        <v>-1.075</v>
       </c>
       <c r="J68" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>-7.975</v>
@@ -5555,7 +5555,7 @@
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
       <c r="S68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T68" s="1" t="n">
         <v>1</v>
@@ -5564,10 +5564,10 @@
         <v>1</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>-32.368</v>
+        <v>-27.114</v>
       </c>
       <c r="X68" s="1" t="n">
         <v>0</v>
@@ -5581,14 +5581,14 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>-7.975</v>
@@ -5600,10 +5600,10 @@
         <v>2.8</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.025</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>-1.075</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="J69" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>-7.975</v>
@@ -5627,7 +5627,7 @@
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
       <c r="S69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T69" s="1" t="n">
         <v>1</v>
@@ -5636,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="V69" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="W69" s="1" t="n">
         <v>-27.114</v>
@@ -5653,14 +5653,14 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>-7.975</v>
@@ -5672,10 +5672,10 @@
         <v>2.8</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>-1.025</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>1.025</v>
       </c>
       <c r="J70" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="P70" s="1" t="n">
         <v>-7.975</v>
@@ -5699,7 +5699,7 @@
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
       <c r="S70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T70" s="1" t="n">
         <v>1</v>
@@ -5708,10 +5708,10 @@
         <v>1</v>
       </c>
       <c r="V70" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>-27.114</v>
+        <v>-32.368</v>
       </c>
       <c r="X70" s="1" t="n">
         <v>0</v>
@@ -5725,14 +5725,14 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>-7.975</v>
@@ -5744,10 +5744,10 @@
         <v>2.8</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>1.075</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>1.025</v>
+        <v>2.075</v>
       </c>
       <c r="J71" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>-7.975</v>
@@ -5771,7 +5771,7 @@
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
       <c r="S71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T71" s="1" t="n">
         <v>1</v>
@@ -5780,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="W71" s="1" t="n">
         <v>-32.368</v>
@@ -5797,14 +5797,14 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>-7.975</v>
@@ -5816,10 +5816,10 @@
         <v>2.8</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1.075</v>
+        <v>2.125</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>2.075</v>
+        <v>3.125</v>
       </c>
       <c r="J72" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>-7.975</v>
@@ -5843,7 +5843,7 @@
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
       <c r="S72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T72" s="1" t="n">
         <v>1</v>
@@ -5852,10 +5852,10 @@
         <v>1</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>-32.368</v>
+        <v>-27.114</v>
       </c>
       <c r="X72" s="1" t="n">
         <v>0</v>
@@ -5869,14 +5869,14 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>-7.975</v>
@@ -5888,10 +5888,10 @@
         <v>2.8</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>2.125</v>
+        <v>3.175</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>3.125</v>
+        <v>4.175</v>
       </c>
       <c r="J73" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="P73" s="1" t="n">
         <v>-7.975</v>
@@ -5915,7 +5915,7 @@
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
       <c r="S73" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T73" s="1" t="n">
         <v>1</v>
@@ -5924,10 +5924,10 @@
         <v>1</v>
       </c>
       <c r="V73" s="1" t="n">
-        <v>25.2</v>
+        <v>33.6</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>-27.114</v>
+        <v>-18.714</v>
       </c>
       <c r="X73" s="1" t="n">
         <v>0</v>
@@ -5941,14 +5941,14 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>-7.975</v>
@@ -5960,10 +5960,10 @@
         <v>2.8</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>3.175</v>
+        <v>4.225</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>4.175</v>
+        <v>5.225</v>
       </c>
       <c r="J74" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="P74" s="1" t="n">
         <v>-7.975</v>
@@ -5987,7 +5987,7 @@
       <c r="Q74" s="1" t="n"/>
       <c r="R74" s="1" t="n"/>
       <c r="S74" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T74" s="1" t="n">
         <v>1</v>
@@ -5996,10 +5996,10 @@
         <v>1</v>
       </c>
       <c r="V74" s="1" t="n">
-        <v>33.6</v>
+        <v>25.2</v>
       </c>
       <c r="W74" s="1" t="n">
-        <v>-18.714</v>
+        <v>-32.368</v>
       </c>
       <c r="X74" s="1" t="n">
         <v>0</v>
@@ -6013,14 +6013,14 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>-7.975</v>
@@ -6032,10 +6032,10 @@
         <v>2.8</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>4.225</v>
+        <v>5.275</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>5.225</v>
+        <v>6.275</v>
       </c>
       <c r="J75" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="P75" s="1" t="n">
         <v>-7.975</v>
@@ -6059,7 +6059,7 @@
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
       <c r="S75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T75" s="1" t="n">
         <v>1</v>
@@ -6068,10 +6068,10 @@
         <v>1</v>
       </c>
       <c r="V75" s="1" t="n">
-        <v>25.2</v>
+        <v>33.6</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>-32.368</v>
+        <v>-23.968</v>
       </c>
       <c r="X75" s="1" t="n">
         <v>0</v>
@@ -6085,14 +6085,14 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>-7.975</v>
@@ -6104,10 +6104,10 @@
         <v>2.8</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>5.275</v>
+        <v>6.325</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>6.275</v>
+        <v>7.325</v>
       </c>
       <c r="J76" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="P76" s="1" t="n">
         <v>-7.975</v>
@@ -6131,7 +6131,7 @@
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
       <c r="S76" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T76" s="1" t="n">
         <v>1</v>
@@ -6140,10 +6140,10 @@
         <v>1</v>
       </c>
       <c r="V76" s="1" t="n">
-        <v>33.6</v>
+        <v>25.2</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>-23.968</v>
+        <v>-18.714</v>
       </c>
       <c r="X76" s="1" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>-7.975</v>
@@ -6176,10 +6176,10 @@
         <v>2.8</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>6.325</v>
+        <v>7.375</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>7.325</v>
+        <v>8.375</v>
       </c>
       <c r="J77" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="P77" s="1" t="n">
         <v>-7.975</v>
@@ -6203,7 +6203,7 @@
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
       <c r="S77" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T77" s="1" t="n">
         <v>1</v>
@@ -6212,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="V77" s="1" t="n">
-        <v>25.2</v>
+        <v>16.8</v>
       </c>
       <c r="W77" s="1" t="n">
         <v>-18.714</v>
@@ -6229,14 +6229,14 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>-7.975</v>
@@ -6248,10 +6248,10 @@
         <v>2.8</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>7.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>8.375</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="J78" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>-7.975</v>
@@ -6275,7 +6275,7 @@
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
       <c r="S78" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T78" s="1" t="n">
         <v>1</v>
@@ -6284,10 +6284,10 @@
         <v>1</v>
       </c>
       <c r="V78" s="1" t="n">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="W78" s="1" t="n">
-        <v>-18.714</v>
+        <v>-23.968</v>
       </c>
       <c r="X78" s="1" t="n">
         <v>0</v>
@@ -6301,14 +6301,14 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>-7.975</v>
@@ -6320,10 +6320,10 @@
         <v>2.8</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>9.475</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>10.475</v>
       </c>
       <c r="J79" s="1" t="n">
         <v>-6.574999999999999</v>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="P79" s="1" t="n">
         <v>-7.975</v>
@@ -6347,7 +6347,7 @@
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
       <c r="S79" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T79" s="1" t="n">
         <v>1</v>
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="V79" s="1" t="n">
-        <v>25.2</v>
+        <v>16.8</v>
       </c>
       <c r="W79" s="1" t="n">
         <v>-23.968</v>
@@ -6373,17 +6373,17 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>-7.975</v>
+        <v>-5.125</v>
       </c>
       <c r="F80" s="1" t="n">
         <v>1</v>
@@ -6392,16 +6392,16 @@
         <v>2.8</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>9.475</v>
+        <v>-10.475</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>10.475</v>
+        <v>-9.475</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-3.725</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>-9.375</v>
+        <v>-6.525</v>
       </c>
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n">
@@ -6411,15 +6411,15 @@
         <v>0</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>-7.975</v>
+        <v>-5.125</v>
       </c>
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
       <c r="S80" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T80" s="1" t="n">
         <v>1</v>
@@ -6428,10 +6428,10 @@
         <v>1</v>
       </c>
       <c r="V80" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>-23.968</v>
+        <v>-18.714</v>
       </c>
       <c r="X80" s="1" t="n">
         <v>0</v>
@@ -6445,14 +6445,14 @@
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="E81" s="1" t="n">
         <v>-5.125</v>
@@ -6464,10 +6464,10 @@
         <v>2.8</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.425000000000001</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>-9.475</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="J81" s="1" t="n">
         <v>-3.725</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="P81" s="1" t="n">
         <v>-5.125</v>
@@ -6491,7 +6491,7 @@
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
       <c r="S81" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T81" s="1" t="n">
         <v>1</v>
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="V81" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W81" s="1" t="n">
         <v>-18.714</v>
@@ -6517,14 +6517,14 @@
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>-5.125</v>
@@ -6536,10 +6536,10 @@
         <v>2.8</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.375</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-7.375</v>
       </c>
       <c r="J82" s="1" t="n">
         <v>-3.725</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="P82" s="1" t="n">
         <v>-5.125</v>
@@ -6563,7 +6563,7 @@
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
       <c r="S82" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T82" s="1" t="n">
         <v>1</v>
@@ -6572,10 +6572,10 @@
         <v>1</v>
       </c>
       <c r="V82" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>-18.714</v>
+        <v>-23.968</v>
       </c>
       <c r="X82" s="1" t="n">
         <v>0</v>
@@ -6589,14 +6589,14 @@
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>-5.125</v>
@@ -6608,10 +6608,10 @@
         <v>2.8</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.325</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>-7.375</v>
+        <v>-6.325</v>
       </c>
       <c r="J83" s="1" t="n">
         <v>-3.725</v>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="P83" s="1" t="n">
         <v>-5.125</v>
@@ -6635,7 +6635,7 @@
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
       <c r="S83" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T83" s="1" t="n">
         <v>1</v>
@@ -6644,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W83" s="1" t="n">
         <v>-23.968</v>
@@ -6661,14 +6661,14 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="E84" s="1" t="n">
         <v>-5.125</v>
@@ -6680,10 +6680,10 @@
         <v>2.8</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.275</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>-6.325</v>
+        <v>-5.275</v>
       </c>
       <c r="J84" s="1" t="n">
         <v>-3.725</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="P84" s="1" t="n">
         <v>-5.125</v>
@@ -6707,7 +6707,7 @@
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
       <c r="S84" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T84" s="1" t="n">
         <v>1</v>
@@ -6716,10 +6716,10 @@
         <v>1</v>
       </c>
       <c r="V84" s="1" t="n">
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>-23.968</v>
+        <v>-18.714</v>
       </c>
       <c r="X84" s="1" t="n">
         <v>0</v>
@@ -6733,14 +6733,14 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="E85" s="1" t="n">
         <v>-5.125</v>
@@ -6752,10 +6752,10 @@
         <v>2.8</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.225</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>-5.275</v>
+        <v>-4.225</v>
       </c>
       <c r="J85" s="1" t="n">
         <v>-3.725</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="P85" s="1" t="n">
         <v>-5.125</v>
@@ -6779,7 +6779,7 @@
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
       <c r="S85" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T85" s="1" t="n">
         <v>1</v>
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="V85" s="1" t="n">
-        <v>-8.4</v>
+        <v>-16.8</v>
       </c>
       <c r="W85" s="1" t="n">
         <v>-18.714</v>
@@ -6805,14 +6805,14 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>-5.125</v>
@@ -6824,10 +6824,10 @@
         <v>2.8</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.175</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>-4.225</v>
+        <v>-3.175</v>
       </c>
       <c r="J86" s="1" t="n">
         <v>-3.725</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="P86" s="1" t="n">
         <v>-5.125</v>
@@ -6851,7 +6851,7 @@
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
       <c r="S86" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T86" s="1" t="n">
         <v>1</v>
@@ -6860,10 +6860,10 @@
         <v>1</v>
       </c>
       <c r="V86" s="1" t="n">
-        <v>-16.8</v>
+        <v>-8.4</v>
       </c>
       <c r="W86" s="1" t="n">
-        <v>-18.714</v>
+        <v>-23.968</v>
       </c>
       <c r="X86" s="1" t="n">
         <v>0</v>
@@ -6877,14 +6877,14 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="E87" s="1" t="n">
         <v>-5.125</v>
@@ -6896,10 +6896,10 @@
         <v>2.8</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.125</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>-3.175</v>
+        <v>-2.125</v>
       </c>
       <c r="J87" s="1" t="n">
         <v>-3.725</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="P87" s="1" t="n">
         <v>-5.125</v>
@@ -6923,7 +6923,7 @@
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
       <c r="S87" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T87" s="1" t="n">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="V87" s="1" t="n">
-        <v>-8.4</v>
+        <v>-16.8</v>
       </c>
       <c r="W87" s="1" t="n">
         <v>-23.968</v>
@@ -6949,14 +6949,14 @@
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B88" s="1" t="n"/>
       <c r="C88" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="E88" s="1" t="n">
         <v>-5.125</v>
@@ -6968,10 +6968,10 @@
         <v>2.8</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.075</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>-2.125</v>
+        <v>-1.075</v>
       </c>
       <c r="J88" s="1" t="n">
         <v>-3.725</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="P88" s="1" t="n">
         <v>-5.125</v>
@@ -6995,7 +6995,7 @@
       <c r="Q88" s="1" t="n"/>
       <c r="R88" s="1" t="n"/>
       <c r="S88" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T88" s="1" t="n">
         <v>1</v>
@@ -7004,10 +7004,10 @@
         <v>1</v>
       </c>
       <c r="V88" s="1" t="n">
-        <v>-16.8</v>
+        <v>-25.2</v>
       </c>
       <c r="W88" s="1" t="n">
-        <v>-23.968</v>
+        <v>-18.714</v>
       </c>
       <c r="X88" s="1" t="n">
         <v>0</v>
@@ -7021,14 +7021,14 @@
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>-5.125</v>
@@ -7040,10 +7040,10 @@
         <v>2.8</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.025</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>-1.075</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="J89" s="1" t="n">
         <v>-3.725</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="P89" s="1" t="n">
         <v>-5.125</v>
@@ -7067,7 +7067,7 @@
       <c r="Q89" s="1" t="n"/>
       <c r="R89" s="1" t="n"/>
       <c r="S89" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T89" s="1" t="n">
         <v>1</v>
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="V89" s="1" t="n">
-        <v>-25.2</v>
+        <v>-33.6</v>
       </c>
       <c r="W89" s="1" t="n">
         <v>-18.714</v>
@@ -7093,14 +7093,14 @@
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B90" s="1" t="n"/>
       <c r="C90" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>-5.125</v>
@@ -7112,10 +7112,10 @@
         <v>2.8</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>-1.025</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>1.025</v>
       </c>
       <c r="J90" s="1" t="n">
         <v>-3.725</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="P90" s="1" t="n">
         <v>-5.125</v>
@@ -7139,7 +7139,7 @@
       <c r="Q90" s="1" t="n"/>
       <c r="R90" s="1" t="n"/>
       <c r="S90" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T90" s="1" t="n">
         <v>1</v>
@@ -7148,10 +7148,10 @@
         <v>1</v>
       </c>
       <c r="V90" s="1" t="n">
-        <v>-33.6</v>
+        <v>-25.2</v>
       </c>
       <c r="W90" s="1" t="n">
-        <v>-18.714</v>
+        <v>-23.968</v>
       </c>
       <c r="X90" s="1" t="n">
         <v>0</v>
@@ -7165,14 +7165,14 @@
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>-5.125</v>
@@ -7184,10 +7184,10 @@
         <v>2.8</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>1.075</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>1.025</v>
+        <v>2.075</v>
       </c>
       <c r="J91" s="1" t="n">
         <v>-3.725</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="P91" s="1" t="n">
         <v>-5.125</v>
@@ -7211,7 +7211,7 @@
       <c r="Q91" s="1" t="n"/>
       <c r="R91" s="1" t="n"/>
       <c r="S91" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T91" s="1" t="n">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="V91" s="1" t="n">
-        <v>-25.2</v>
+        <v>-33.6</v>
       </c>
       <c r="W91" s="1" t="n">
         <v>-23.968</v>
@@ -7237,14 +7237,14 @@
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B92" s="1" t="n"/>
       <c r="C92" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="E92" s="1" t="n">
         <v>-5.125</v>
@@ -7256,10 +7256,10 @@
         <v>2.8</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1.075</v>
+        <v>2.125</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>2.075</v>
+        <v>3.125</v>
       </c>
       <c r="J92" s="1" t="n">
         <v>-3.725</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="P92" s="1" t="n">
         <v>-5.125</v>
@@ -7283,7 +7283,7 @@
       <c r="Q92" s="1" t="n"/>
       <c r="R92" s="1" t="n"/>
       <c r="S92" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T92" s="1" t="n">
         <v>1</v>
@@ -7295,7 +7295,7 @@
         <v>-33.6</v>
       </c>
       <c r="W92" s="1" t="n">
-        <v>-23.968</v>
+        <v>-10.314</v>
       </c>
       <c r="X92" s="1" t="n">
         <v>0</v>
@@ -7309,14 +7309,14 @@
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93" s="1" t="n"/>
       <c r="C93" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="E93" s="1" t="n">
         <v>-5.125</v>
@@ -7328,10 +7328,10 @@
         <v>2.8</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>2.125</v>
+        <v>3.175</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>3.125</v>
+        <v>4.175</v>
       </c>
       <c r="J93" s="1" t="n">
         <v>-3.725</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="P93" s="1" t="n">
         <v>-5.125</v>
@@ -7355,7 +7355,7 @@
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
       <c r="S93" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T93" s="1" t="n">
         <v>1</v>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="V93" s="1" t="n">
-        <v>-33.6</v>
+        <v>-25.2</v>
       </c>
       <c r="W93" s="1" t="n">
         <v>-10.314</v>
@@ -7381,14 +7381,14 @@
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="1" t="n"/>
       <c r="C94" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="E94" s="1" t="n">
         <v>-5.125</v>
@@ -7400,10 +7400,10 @@
         <v>2.8</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>3.175</v>
+        <v>4.225</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>4.175</v>
+        <v>5.225</v>
       </c>
       <c r="J94" s="1" t="n">
         <v>-3.725</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="P94" s="1" t="n">
         <v>-5.125</v>
@@ -7427,7 +7427,7 @@
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
       <c r="S94" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T94" s="1" t="n">
         <v>1</v>
@@ -7439,7 +7439,7 @@
         <v>-25.2</v>
       </c>
       <c r="W94" s="1" t="n">
-        <v>-10.314</v>
+        <v>-15.568</v>
       </c>
       <c r="X94" s="1" t="n">
         <v>0</v>
@@ -7453,14 +7453,14 @@
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B95" s="1" t="n"/>
       <c r="C95" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>-5.125</v>
@@ -7472,10 +7472,10 @@
         <v>2.8</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>4.225</v>
+        <v>5.275</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>5.225</v>
+        <v>6.275</v>
       </c>
       <c r="J95" s="1" t="n">
         <v>-3.725</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="P95" s="1" t="n">
         <v>-5.125</v>
@@ -7499,7 +7499,7 @@
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
       <c r="S95" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T95" s="1" t="n">
         <v>1</v>
@@ -7508,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="V95" s="1" t="n">
-        <v>-25.2</v>
+        <v>-16.8</v>
       </c>
       <c r="W95" s="1" t="n">
         <v>-15.568</v>
@@ -7525,14 +7525,14 @@
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="E96" s="1" t="n">
         <v>-5.125</v>
@@ -7544,10 +7544,10 @@
         <v>2.8</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>5.275</v>
+        <v>6.325</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>6.275</v>
+        <v>7.325</v>
       </c>
       <c r="J96" s="1" t="n">
         <v>-3.725</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="P96" s="1" t="n">
         <v>-5.125</v>
@@ -7571,7 +7571,7 @@
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
       <c r="S96" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T96" s="1" t="n">
         <v>1</v>
@@ -7583,7 +7583,7 @@
         <v>-16.8</v>
       </c>
       <c r="W96" s="1" t="n">
-        <v>-15.568</v>
+        <v>-10.314</v>
       </c>
       <c r="X96" s="1" t="n">
         <v>0</v>
@@ -7597,14 +7597,14 @@
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B97" s="1" t="n"/>
       <c r="C97" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="E97" s="1" t="n">
         <v>-5.125</v>
@@ -7616,10 +7616,10 @@
         <v>2.8</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>6.325</v>
+        <v>7.375</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>7.325</v>
+        <v>8.375</v>
       </c>
       <c r="J97" s="1" t="n">
         <v>-3.725</v>
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="P97" s="1" t="n">
         <v>-5.125</v>
@@ -7643,7 +7643,7 @@
       <c r="Q97" s="1" t="n"/>
       <c r="R97" s="1" t="n"/>
       <c r="S97" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T97" s="1" t="n">
         <v>1</v>
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="V97" s="1" t="n">
-        <v>-16.8</v>
+        <v>-8.4</v>
       </c>
       <c r="W97" s="1" t="n">
         <v>-10.314</v>
@@ -7669,14 +7669,14 @@
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>-5.125</v>
@@ -7688,10 +7688,10 @@
         <v>2.8</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>7.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>8.375</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="J98" s="1" t="n">
         <v>-3.725</v>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="P98" s="1" t="n">
         <v>-5.125</v>
@@ -7715,7 +7715,7 @@
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
       <c r="S98" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T98" s="1" t="n">
         <v>1</v>
@@ -7727,7 +7727,7 @@
         <v>-8.4</v>
       </c>
       <c r="W98" s="1" t="n">
-        <v>-10.314</v>
+        <v>-15.568</v>
       </c>
       <c r="X98" s="1" t="n">
         <v>0</v>
@@ -7741,14 +7741,14 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B99" s="1" t="n"/>
       <c r="C99" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>-5.125</v>
@@ -7760,10 +7760,10 @@
         <v>2.8</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>9.475</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>10.475</v>
       </c>
       <c r="J99" s="1" t="n">
         <v>-3.725</v>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="P99" s="1" t="n">
         <v>-5.125</v>
@@ -7787,7 +7787,7 @@
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
       <c r="S99" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T99" s="1" t="n">
         <v>1</v>
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="V99" s="1" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="W99" s="1" t="n">
         <v>-15.568</v>
@@ -7813,17 +7813,17 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B100" s="1" t="n"/>
       <c r="C100" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>-5.125</v>
+        <v>-2.275</v>
       </c>
       <c r="F100" s="1" t="n">
         <v>1</v>
@@ -7832,16 +7832,16 @@
         <v>2.8</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>9.475</v>
+        <v>-10.475</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>10.475</v>
+        <v>-9.475</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>-3.725</v>
+        <v>-0.875</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>-6.525</v>
+        <v>-3.675</v>
       </c>
       <c r="L100" s="1" t="n"/>
       <c r="M100" s="1" t="n">
@@ -7851,15 +7851,15 @@
         <v>0</v>
       </c>
       <c r="O100" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>-5.125</v>
+        <v>-2.275</v>
       </c>
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
       <c r="S100" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T100" s="1" t="n">
         <v>1</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="W100" s="1" t="n">
-        <v>-15.568</v>
+        <v>-10.314</v>
       </c>
       <c r="X100" s="1" t="n">
         <v>0</v>
@@ -7885,14 +7885,14 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B101" s="1" t="n"/>
       <c r="C101" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>-2.275</v>
@@ -7904,10 +7904,10 @@
         <v>2.8</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.425000000000001</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>-9.475</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="J101" s="1" t="n">
         <v>-0.875</v>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="P101" s="1" t="n">
         <v>-2.275</v>
@@ -7931,7 +7931,7 @@
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
       <c r="S101" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T101" s="1" t="n">
         <v>1</v>
@@ -7940,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="V101" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="W101" s="1" t="n">
         <v>-10.314</v>
@@ -7957,14 +7957,14 @@
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B102" s="1" t="n"/>
       <c r="C102" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="E102" s="1" t="n">
         <v>-2.275</v>
@@ -7976,10 +7976,10 @@
         <v>2.8</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.375</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-7.375</v>
       </c>
       <c r="J102" s="1" t="n">
         <v>-0.875</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="P102" s="1" t="n">
         <v>-2.275</v>
@@ -8003,7 +8003,7 @@
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
       <c r="S102" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T102" s="1" t="n">
         <v>1</v>
@@ -8015,7 +8015,7 @@
         <v>8.4</v>
       </c>
       <c r="W102" s="1" t="n">
-        <v>-10.314</v>
+        <v>-15.568</v>
       </c>
       <c r="X102" s="1" t="n">
         <v>0</v>
@@ -8029,14 +8029,14 @@
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103" s="1" t="n"/>
       <c r="C103" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="E103" s="1" t="n">
         <v>-2.275</v>
@@ -8048,10 +8048,10 @@
         <v>2.8</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.325</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>-7.375</v>
+        <v>-6.325</v>
       </c>
       <c r="J103" s="1" t="n">
         <v>-0.875</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="P103" s="1" t="n">
         <v>-2.275</v>
@@ -8075,7 +8075,7 @@
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
       <c r="S103" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T103" s="1" t="n">
         <v>1</v>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="V103" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="W103" s="1" t="n">
         <v>-15.568</v>
@@ -8101,14 +8101,14 @@
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B104" s="1" t="n"/>
       <c r="C104" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>-2.275</v>
@@ -8120,10 +8120,10 @@
         <v>2.8</v>
       </c>
       <c r="H104" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.275</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>-6.325</v>
+        <v>-5.275</v>
       </c>
       <c r="J104" s="1" t="n">
         <v>-0.875</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="P104" s="1" t="n">
         <v>-2.275</v>
@@ -8147,7 +8147,7 @@
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
       <c r="S104" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T104" s="1" t="n">
         <v>1</v>
@@ -8159,7 +8159,7 @@
         <v>16.8</v>
       </c>
       <c r="W104" s="1" t="n">
-        <v>-15.568</v>
+        <v>-10.314</v>
       </c>
       <c r="X104" s="1" t="n">
         <v>0</v>
@@ -8173,14 +8173,14 @@
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B105" s="1" t="n"/>
       <c r="C105" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>-2.275</v>
@@ -8192,10 +8192,10 @@
         <v>2.8</v>
       </c>
       <c r="H105" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.225</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>-5.275</v>
+        <v>-4.225</v>
       </c>
       <c r="J105" s="1" t="n">
         <v>-0.875</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="P105" s="1" t="n">
         <v>-2.275</v>
@@ -8219,7 +8219,7 @@
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>
       <c r="S105" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T105" s="1" t="n">
         <v>1</v>
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="V105" s="1" t="n">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="W105" s="1" t="n">
         <v>-10.314</v>
@@ -8245,14 +8245,14 @@
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B106" s="1" t="n"/>
       <c r="C106" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>-2.275</v>
@@ -8264,10 +8264,10 @@
         <v>2.8</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.175</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>-4.225</v>
+        <v>-3.175</v>
       </c>
       <c r="J106" s="1" t="n">
         <v>-0.875</v>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="P106" s="1" t="n">
         <v>-2.275</v>
@@ -8291,7 +8291,7 @@
       <c r="Q106" s="1" t="n"/>
       <c r="R106" s="1" t="n"/>
       <c r="S106" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T106" s="1" t="n">
         <v>1</v>
@@ -8303,7 +8303,7 @@
         <v>25.2</v>
       </c>
       <c r="W106" s="1" t="n">
-        <v>-10.314</v>
+        <v>-15.568</v>
       </c>
       <c r="X106" s="1" t="n">
         <v>0</v>
@@ -8317,14 +8317,14 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>-2.275</v>
@@ -8336,10 +8336,10 @@
         <v>2.8</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.125</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>-3.175</v>
+        <v>-2.125</v>
       </c>
       <c r="J107" s="1" t="n">
         <v>-0.875</v>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="P107" s="1" t="n">
         <v>-2.275</v>
@@ -8363,7 +8363,7 @@
       <c r="Q107" s="1" t="n"/>
       <c r="R107" s="1" t="n"/>
       <c r="S107" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T107" s="1" t="n">
         <v>1</v>
@@ -8372,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="V107" s="1" t="n">
-        <v>25.2</v>
+        <v>33.6</v>
       </c>
       <c r="W107" s="1" t="n">
         <v>-15.568</v>
@@ -8389,14 +8389,14 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B108" s="1" t="n"/>
       <c r="C108" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>-2.275</v>
@@ -8408,10 +8408,10 @@
         <v>2.8</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.075</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>-2.125</v>
+        <v>-1.075</v>
       </c>
       <c r="J108" s="1" t="n">
         <v>-0.875</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="P108" s="1" t="n">
         <v>-2.275</v>
@@ -8435,7 +8435,7 @@
       <c r="Q108" s="1" t="n"/>
       <c r="R108" s="1" t="n"/>
       <c r="S108" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T108" s="1" t="n">
         <v>1</v>
@@ -8447,7 +8447,7 @@
         <v>33.6</v>
       </c>
       <c r="W108" s="1" t="n">
-        <v>-15.568</v>
+        <v>-1.914</v>
       </c>
       <c r="X108" s="1" t="n">
         <v>0</v>
@@ -8461,14 +8461,14 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B109" s="1" t="n"/>
       <c r="C109" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="E109" s="1" t="n">
         <v>-2.275</v>
@@ -8480,10 +8480,10 @@
         <v>2.8</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.025</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>-1.075</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="J109" s="1" t="n">
         <v>-0.875</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="P109" s="1" t="n">
         <v>-2.275</v>
@@ -8507,7 +8507,7 @@
       <c r="Q109" s="1" t="n"/>
       <c r="R109" s="1" t="n"/>
       <c r="S109" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T109" s="1" t="n">
         <v>1</v>
@@ -8516,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="V109" s="1" t="n">
-        <v>33.6</v>
+        <v>25.2</v>
       </c>
       <c r="W109" s="1" t="n">
         <v>-1.914</v>
@@ -8533,14 +8533,14 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B110" s="1" t="n"/>
       <c r="C110" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="E110" s="1" t="n">
         <v>-2.275</v>
@@ -8552,10 +8552,10 @@
         <v>2.8</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>-1.025</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>1.025</v>
       </c>
       <c r="J110" s="1" t="n">
         <v>-0.875</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="P110" s="1" t="n">
         <v>-2.275</v>
@@ -8579,7 +8579,7 @@
       <c r="Q110" s="1" t="n"/>
       <c r="R110" s="1" t="n"/>
       <c r="S110" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T110" s="1" t="n">
         <v>1</v>
@@ -8588,10 +8588,10 @@
         <v>1</v>
       </c>
       <c r="V110" s="1" t="n">
-        <v>25.2</v>
+        <v>33.6</v>
       </c>
       <c r="W110" s="1" t="n">
-        <v>-1.914</v>
+        <v>-7.168</v>
       </c>
       <c r="X110" s="1" t="n">
         <v>0</v>
@@ -8605,14 +8605,14 @@
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B111" s="1" t="n"/>
       <c r="C111" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="E111" s="1" t="n">
         <v>-2.275</v>
@@ -8624,10 +8624,10 @@
         <v>2.8</v>
       </c>
       <c r="H111" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>1.075</v>
       </c>
       <c r="I111" s="1" t="n">
-        <v>1.025</v>
+        <v>2.075</v>
       </c>
       <c r="J111" s="1" t="n">
         <v>-0.875</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="P111" s="1" t="n">
         <v>-2.275</v>
@@ -8651,7 +8651,7 @@
       <c r="Q111" s="1" t="n"/>
       <c r="R111" s="1" t="n"/>
       <c r="S111" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T111" s="1" t="n">
         <v>1</v>
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="V111" s="1" t="n">
-        <v>33.6</v>
+        <v>25.2</v>
       </c>
       <c r="W111" s="1" t="n">
         <v>-7.168</v>
@@ -8677,14 +8677,14 @@
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B112" s="1" t="n"/>
       <c r="C112" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="E112" s="1" t="n">
         <v>-2.275</v>
@@ -8696,10 +8696,10 @@
         <v>2.8</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>1.075</v>
+        <v>2.125</v>
       </c>
       <c r="I112" s="1" t="n">
-        <v>2.075</v>
+        <v>3.125</v>
       </c>
       <c r="J112" s="1" t="n">
         <v>-0.875</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="P112" s="1" t="n">
         <v>-2.275</v>
@@ -8723,7 +8723,7 @@
       <c r="Q112" s="1" t="n"/>
       <c r="R112" s="1" t="n"/>
       <c r="S112" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T112" s="1" t="n">
         <v>1</v>
@@ -8732,10 +8732,10 @@
         <v>1</v>
       </c>
       <c r="V112" s="1" t="n">
-        <v>25.2</v>
+        <v>16.8</v>
       </c>
       <c r="W112" s="1" t="n">
-        <v>-7.168</v>
+        <v>-1.914</v>
       </c>
       <c r="X112" s="1" t="n">
         <v>0</v>
@@ -8749,14 +8749,14 @@
     </row>
     <row r="113" spans="1:28">
       <c r="A113" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B113" s="1" t="n"/>
       <c r="C113" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="E113" s="1" t="n">
         <v>-2.275</v>
@@ -8768,10 +8768,10 @@
         <v>2.8</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>2.125</v>
+        <v>3.175</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>3.125</v>
+        <v>4.175</v>
       </c>
       <c r="J113" s="1" t="n">
         <v>-0.875</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="P113" s="1" t="n">
         <v>-2.275</v>
@@ -8795,7 +8795,7 @@
       <c r="Q113" s="1" t="n"/>
       <c r="R113" s="1" t="n"/>
       <c r="S113" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T113" s="1" t="n">
         <v>1</v>
@@ -8804,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="V113" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="W113" s="1" t="n">
         <v>-1.914</v>
@@ -8821,14 +8821,14 @@
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B114" s="1" t="n"/>
       <c r="C114" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>-2.275</v>
@@ -8840,10 +8840,10 @@
         <v>2.8</v>
       </c>
       <c r="H114" s="1" t="n">
-        <v>3.175</v>
+        <v>4.225</v>
       </c>
       <c r="I114" s="1" t="n">
-        <v>4.175</v>
+        <v>5.225</v>
       </c>
       <c r="J114" s="1" t="n">
         <v>-0.875</v>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="P114" s="1" t="n">
         <v>-2.275</v>
@@ -8867,7 +8867,7 @@
       <c r="Q114" s="1" t="n"/>
       <c r="R114" s="1" t="n"/>
       <c r="S114" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T114" s="1" t="n">
         <v>1</v>
@@ -8876,10 +8876,10 @@
         <v>1</v>
       </c>
       <c r="V114" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="W114" s="1" t="n">
-        <v>-1.914</v>
+        <v>-7.168</v>
       </c>
       <c r="X114" s="1" t="n">
         <v>0</v>
@@ -8893,14 +8893,14 @@
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B115" s="1" t="n"/>
       <c r="C115" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="E115" s="1" t="n">
         <v>-2.275</v>
@@ -8912,10 +8912,10 @@
         <v>2.8</v>
       </c>
       <c r="H115" s="1" t="n">
-        <v>4.225</v>
+        <v>5.275</v>
       </c>
       <c r="I115" s="1" t="n">
-        <v>5.225</v>
+        <v>6.275</v>
       </c>
       <c r="J115" s="1" t="n">
         <v>-0.875</v>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="P115" s="1" t="n">
         <v>-2.275</v>
@@ -8939,7 +8939,7 @@
       <c r="Q115" s="1" t="n"/>
       <c r="R115" s="1" t="n"/>
       <c r="S115" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T115" s="1" t="n">
         <v>1</v>
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
       <c r="V115" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="W115" s="1" t="n">
         <v>-7.168</v>
@@ -8965,14 +8965,14 @@
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B116" s="1" t="n"/>
       <c r="C116" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="E116" s="1" t="n">
         <v>-2.275</v>
@@ -8984,10 +8984,10 @@
         <v>2.8</v>
       </c>
       <c r="H116" s="1" t="n">
-        <v>5.275</v>
+        <v>6.325</v>
       </c>
       <c r="I116" s="1" t="n">
-        <v>6.275</v>
+        <v>7.325</v>
       </c>
       <c r="J116" s="1" t="n">
         <v>-0.875</v>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="P116" s="1" t="n">
         <v>-2.275</v>
@@ -9011,7 +9011,7 @@
       <c r="Q116" s="1" t="n"/>
       <c r="R116" s="1" t="n"/>
       <c r="S116" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T116" s="1" t="n">
         <v>1</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="V116" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W116" s="1" t="n">
-        <v>-7.168</v>
+        <v>-1.914</v>
       </c>
       <c r="X116" s="1" t="n">
         <v>0</v>
@@ -9037,14 +9037,14 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B117" s="1" t="n"/>
       <c r="C117" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="E117" s="1" t="n">
         <v>-2.275</v>
@@ -9056,10 +9056,10 @@
         <v>2.8</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>6.325</v>
+        <v>7.375</v>
       </c>
       <c r="I117" s="1" t="n">
-        <v>7.325</v>
+        <v>8.375</v>
       </c>
       <c r="J117" s="1" t="n">
         <v>-0.875</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="P117" s="1" t="n">
         <v>-2.275</v>
@@ -9083,7 +9083,7 @@
       <c r="Q117" s="1" t="n"/>
       <c r="R117" s="1" t="n"/>
       <c r="S117" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T117" s="1" t="n">
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="V117" s="1" t="n">
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="W117" s="1" t="n">
         <v>-1.914</v>
@@ -9109,14 +9109,14 @@
     </row>
     <row r="118" spans="1:28">
       <c r="A118" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B118" s="1" t="n"/>
       <c r="C118" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="E118" s="1" t="n">
         <v>-2.275</v>
@@ -9128,10 +9128,10 @@
         <v>2.8</v>
       </c>
       <c r="H118" s="1" t="n">
-        <v>7.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="I118" s="1" t="n">
-        <v>8.375</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="J118" s="1" t="n">
         <v>-0.875</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="P118" s="1" t="n">
         <v>-2.275</v>
@@ -9155,7 +9155,7 @@
       <c r="Q118" s="1" t="n"/>
       <c r="R118" s="1" t="n"/>
       <c r="S118" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T118" s="1" t="n">
         <v>1</v>
@@ -9164,10 +9164,10 @@
         <v>1</v>
       </c>
       <c r="V118" s="1" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="W118" s="1" t="n">
-        <v>-1.914</v>
+        <v>-7.168</v>
       </c>
       <c r="X118" s="1" t="n">
         <v>0</v>
@@ -9181,14 +9181,14 @@
     </row>
     <row r="119" spans="1:28">
       <c r="A119" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B119" s="1" t="n"/>
       <c r="C119" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="E119" s="1" t="n">
         <v>-2.275</v>
@@ -9200,10 +9200,10 @@
         <v>2.8</v>
       </c>
       <c r="H119" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>9.475</v>
       </c>
       <c r="I119" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>10.475</v>
       </c>
       <c r="J119" s="1" t="n">
         <v>-0.875</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="P119" s="1" t="n">
         <v>-2.275</v>
@@ -9227,7 +9227,7 @@
       <c r="Q119" s="1" t="n"/>
       <c r="R119" s="1" t="n"/>
       <c r="S119" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T119" s="1" t="n">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="V119" s="1" t="n">
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="W119" s="1" t="n">
         <v>-7.168</v>
@@ -9253,17 +9253,17 @@
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B120" s="1" t="n"/>
       <c r="C120" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>-2.275</v>
+        <v>0.575</v>
       </c>
       <c r="F120" s="1" t="n">
         <v>1</v>
@@ -9272,16 +9272,16 @@
         <v>2.8</v>
       </c>
       <c r="H120" s="1" t="n">
-        <v>9.475</v>
+        <v>-10.475</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>10.475</v>
+        <v>-9.475</v>
       </c>
       <c r="J120" s="1" t="n">
-        <v>-0.875</v>
+        <v>1.975</v>
       </c>
       <c r="K120" s="1" t="n">
-        <v>-3.675</v>
+        <v>-0.825</v>
       </c>
       <c r="L120" s="1" t="n"/>
       <c r="M120" s="1" t="n">
@@ -9291,15 +9291,15 @@
         <v>0</v>
       </c>
       <c r="O120" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="P120" s="1" t="n">
-        <v>-2.275</v>
+        <v>0.575</v>
       </c>
       <c r="Q120" s="1" t="n"/>
       <c r="R120" s="1" t="n"/>
       <c r="S120" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T120" s="1" t="n">
         <v>1</v>
@@ -9308,10 +9308,10 @@
         <v>1</v>
       </c>
       <c r="V120" s="1" t="n">
-        <v>-8.4</v>
+        <v>-16.8</v>
       </c>
       <c r="W120" s="1" t="n">
-        <v>-7.168</v>
+        <v>-1.914</v>
       </c>
       <c r="X120" s="1" t="n">
         <v>0</v>
@@ -9325,14 +9325,14 @@
     </row>
     <row r="121" spans="1:28">
       <c r="A121" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B121" s="1" t="n"/>
       <c r="C121" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="E121" s="1" t="n">
         <v>0.575</v>
@@ -9344,10 +9344,10 @@
         <v>2.8</v>
       </c>
       <c r="H121" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.425000000000001</v>
       </c>
       <c r="I121" s="1" t="n">
-        <v>-9.475</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="J121" s="1" t="n">
         <v>1.975</v>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="P121" s="1" t="n">
         <v>0.575</v>
@@ -9371,7 +9371,7 @@
       <c r="Q121" s="1" t="n"/>
       <c r="R121" s="1" t="n"/>
       <c r="S121" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T121" s="1" t="n">
         <v>1</v>
@@ -9380,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="V121" s="1" t="n">
-        <v>-16.8</v>
+        <v>-25.2</v>
       </c>
       <c r="W121" s="1" t="n">
         <v>-1.914</v>
@@ -9397,14 +9397,14 @@
     </row>
     <row r="122" spans="1:28">
       <c r="A122" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B122" s="1" t="n"/>
       <c r="C122" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="E122" s="1" t="n">
         <v>0.575</v>
@@ -9416,10 +9416,10 @@
         <v>2.8</v>
       </c>
       <c r="H122" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.375</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-7.375</v>
       </c>
       <c r="J122" s="1" t="n">
         <v>1.975</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="P122" s="1" t="n">
         <v>0.575</v>
@@ -9443,7 +9443,7 @@
       <c r="Q122" s="1" t="n"/>
       <c r="R122" s="1" t="n"/>
       <c r="S122" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T122" s="1" t="n">
         <v>1</v>
@@ -9452,10 +9452,10 @@
         <v>1</v>
       </c>
       <c r="V122" s="1" t="n">
-        <v>-25.2</v>
+        <v>-16.8</v>
       </c>
       <c r="W122" s="1" t="n">
-        <v>-1.914</v>
+        <v>-7.168</v>
       </c>
       <c r="X122" s="1" t="n">
         <v>0</v>
@@ -9469,14 +9469,14 @@
     </row>
     <row r="123" spans="1:28">
       <c r="A123" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B123" s="1" t="n"/>
       <c r="C123" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="E123" s="1" t="n">
         <v>0.575</v>
@@ -9488,10 +9488,10 @@
         <v>2.8</v>
       </c>
       <c r="H123" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.325</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>-7.375</v>
+        <v>-6.325</v>
       </c>
       <c r="J123" s="1" t="n">
         <v>1.975</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="P123" s="1" t="n">
         <v>0.575</v>
@@ -9515,7 +9515,7 @@
       <c r="Q123" s="1" t="n"/>
       <c r="R123" s="1" t="n"/>
       <c r="S123" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T123" s="1" t="n">
         <v>1</v>
@@ -9524,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="V123" s="1" t="n">
-        <v>-16.8</v>
+        <v>-25.2</v>
       </c>
       <c r="W123" s="1" t="n">
         <v>-7.168</v>
@@ -9541,14 +9541,14 @@
     </row>
     <row r="124" spans="1:28">
       <c r="A124" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B124" s="1" t="n"/>
       <c r="C124" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="E124" s="1" t="n">
         <v>0.575</v>
@@ -9560,10 +9560,10 @@
         <v>2.8</v>
       </c>
       <c r="H124" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.275</v>
       </c>
       <c r="I124" s="1" t="n">
-        <v>-6.325</v>
+        <v>-5.275</v>
       </c>
       <c r="J124" s="1" t="n">
         <v>1.975</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="P124" s="1" t="n">
         <v>0.575</v>
@@ -9587,7 +9587,7 @@
       <c r="Q124" s="1" t="n"/>
       <c r="R124" s="1" t="n"/>
       <c r="S124" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T124" s="1" t="n">
         <v>1</v>
@@ -9596,10 +9596,10 @@
         <v>1</v>
       </c>
       <c r="V124" s="1" t="n">
-        <v>-25.2</v>
+        <v>-33.6</v>
       </c>
       <c r="W124" s="1" t="n">
-        <v>-7.168</v>
+        <v>-1.914</v>
       </c>
       <c r="X124" s="1" t="n">
         <v>0</v>
@@ -9613,14 +9613,14 @@
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B125" s="1" t="n"/>
       <c r="C125" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="E125" s="1" t="n">
         <v>0.575</v>
@@ -9632,10 +9632,10 @@
         <v>2.8</v>
       </c>
       <c r="H125" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.225</v>
       </c>
       <c r="I125" s="1" t="n">
-        <v>-5.275</v>
+        <v>-4.225</v>
       </c>
       <c r="J125" s="1" t="n">
         <v>1.975</v>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="P125" s="1" t="n">
         <v>0.575</v>
@@ -9659,7 +9659,7 @@
       <c r="Q125" s="1" t="n"/>
       <c r="R125" s="1" t="n"/>
       <c r="S125" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T125" s="1" t="n">
         <v>1</v>
@@ -9671,7 +9671,7 @@
         <v>-33.6</v>
       </c>
       <c r="W125" s="1" t="n">
-        <v>-1.914</v>
+        <v>6.486</v>
       </c>
       <c r="X125" s="1" t="n">
         <v>0</v>
@@ -9685,14 +9685,14 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B126" s="1" t="n"/>
       <c r="C126" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="E126" s="1" t="n">
         <v>0.575</v>
@@ -9704,10 +9704,10 @@
         <v>2.8</v>
       </c>
       <c r="H126" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.175</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>-4.225</v>
+        <v>-3.175</v>
       </c>
       <c r="J126" s="1" t="n">
         <v>1.975</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="P126" s="1" t="n">
         <v>0.575</v>
@@ -9731,7 +9731,7 @@
       <c r="Q126" s="1" t="n"/>
       <c r="R126" s="1" t="n"/>
       <c r="S126" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T126" s="1" t="n">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>-33.6</v>
       </c>
       <c r="W126" s="1" t="n">
-        <v>6.486</v>
+        <v>-7.168</v>
       </c>
       <c r="X126" s="1" t="n">
         <v>0</v>
@@ -9757,14 +9757,14 @@
     </row>
     <row r="127" spans="1:28">
       <c r="A127" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B127" s="1" t="n"/>
       <c r="C127" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="E127" s="1" t="n">
         <v>0.575</v>
@@ -9776,10 +9776,10 @@
         <v>2.8</v>
       </c>
       <c r="H127" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.125</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>-3.175</v>
+        <v>-2.125</v>
       </c>
       <c r="J127" s="1" t="n">
         <v>1.975</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="P127" s="1" t="n">
         <v>0.575</v>
@@ -9803,7 +9803,7 @@
       <c r="Q127" s="1" t="n"/>
       <c r="R127" s="1" t="n"/>
       <c r="S127" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T127" s="1" t="n">
         <v>1</v>
@@ -9812,10 +9812,10 @@
         <v>1</v>
       </c>
       <c r="V127" s="1" t="n">
-        <v>-33.6</v>
+        <v>-25.2</v>
       </c>
       <c r="W127" s="1" t="n">
-        <v>-7.168</v>
+        <v>1.232</v>
       </c>
       <c r="X127" s="1" t="n">
         <v>0</v>
@@ -9829,14 +9829,14 @@
     </row>
     <row r="128" spans="1:28">
       <c r="A128" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B128" s="1" t="n"/>
       <c r="C128" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="E128" s="1" t="n">
         <v>0.575</v>
@@ -9848,10 +9848,10 @@
         <v>2.8</v>
       </c>
       <c r="H128" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.075</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>-2.125</v>
+        <v>-1.075</v>
       </c>
       <c r="J128" s="1" t="n">
         <v>1.975</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="P128" s="1" t="n">
         <v>0.575</v>
@@ -9875,7 +9875,7 @@
       <c r="Q128" s="1" t="n"/>
       <c r="R128" s="1" t="n"/>
       <c r="S128" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T128" s="1" t="n">
         <v>1</v>
@@ -9887,7 +9887,7 @@
         <v>-25.2</v>
       </c>
       <c r="W128" s="1" t="n">
-        <v>1.232</v>
+        <v>6.486</v>
       </c>
       <c r="X128" s="1" t="n">
         <v>0</v>
@@ -9901,14 +9901,14 @@
     </row>
     <row r="129" spans="1:28">
       <c r="A129" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B129" s="1" t="n"/>
       <c r="C129" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="E129" s="1" t="n">
         <v>0.575</v>
@@ -9920,10 +9920,10 @@
         <v>2.8</v>
       </c>
       <c r="H129" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.025</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>-1.075</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="J129" s="1" t="n">
         <v>1.975</v>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="P129" s="1" t="n">
         <v>0.575</v>
@@ -9947,7 +9947,7 @@
       <c r="Q129" s="1" t="n"/>
       <c r="R129" s="1" t="n"/>
       <c r="S129" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T129" s="1" t="n">
         <v>1</v>
@@ -9956,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="V129" s="1" t="n">
-        <v>-25.2</v>
+        <v>-16.8</v>
       </c>
       <c r="W129" s="1" t="n">
         <v>6.486</v>
@@ -9973,14 +9973,14 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B130" s="1" t="n"/>
       <c r="C130" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="E130" s="1" t="n">
         <v>0.575</v>
@@ -9992,10 +9992,10 @@
         <v>2.8</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>-1.025</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>1.025</v>
       </c>
       <c r="J130" s="1" t="n">
         <v>1.975</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="P130" s="1" t="n">
         <v>0.575</v>
@@ -10019,7 +10019,7 @@
       <c r="Q130" s="1" t="n"/>
       <c r="R130" s="1" t="n"/>
       <c r="S130" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T130" s="1" t="n">
         <v>1</v>
@@ -10031,7 +10031,7 @@
         <v>-16.8</v>
       </c>
       <c r="W130" s="1" t="n">
-        <v>6.486</v>
+        <v>1.232</v>
       </c>
       <c r="X130" s="1" t="n">
         <v>0</v>
@@ -10045,14 +10045,14 @@
     </row>
     <row r="131" spans="1:28">
       <c r="A131" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B131" s="1" t="n"/>
       <c r="C131" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="E131" s="1" t="n">
         <v>0.575</v>
@@ -10064,10 +10064,10 @@
         <v>2.8</v>
       </c>
       <c r="H131" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>1.075</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>1.025</v>
+        <v>2.075</v>
       </c>
       <c r="J131" s="1" t="n">
         <v>1.975</v>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="P131" s="1" t="n">
         <v>0.575</v>
@@ -10091,7 +10091,7 @@
       <c r="Q131" s="1" t="n"/>
       <c r="R131" s="1" t="n"/>
       <c r="S131" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T131" s="1" t="n">
         <v>1</v>
@@ -10100,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="V131" s="1" t="n">
-        <v>-16.8</v>
+        <v>-8.4</v>
       </c>
       <c r="W131" s="1" t="n">
         <v>1.232</v>
@@ -10117,14 +10117,14 @@
     </row>
     <row r="132" spans="1:28">
       <c r="A132" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B132" s="1" t="n"/>
       <c r="C132" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="E132" s="1" t="n">
         <v>0.575</v>
@@ -10136,10 +10136,10 @@
         <v>2.8</v>
       </c>
       <c r="H132" s="1" t="n">
-        <v>1.075</v>
+        <v>2.125</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>2.075</v>
+        <v>3.125</v>
       </c>
       <c r="J132" s="1" t="n">
         <v>1.975</v>
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="P132" s="1" t="n">
         <v>0.575</v>
@@ -10163,7 +10163,7 @@
       <c r="Q132" s="1" t="n"/>
       <c r="R132" s="1" t="n"/>
       <c r="S132" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T132" s="1" t="n">
         <v>1</v>
@@ -10175,7 +10175,7 @@
         <v>-8.4</v>
       </c>
       <c r="W132" s="1" t="n">
-        <v>1.232</v>
+        <v>6.486</v>
       </c>
       <c r="X132" s="1" t="n">
         <v>0</v>
@@ -10189,14 +10189,14 @@
     </row>
     <row r="133" spans="1:28">
       <c r="A133" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B133" s="1" t="n"/>
       <c r="C133" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="E133" s="1" t="n">
         <v>0.575</v>
@@ -10208,10 +10208,10 @@
         <v>2.8</v>
       </c>
       <c r="H133" s="1" t="n">
-        <v>2.125</v>
+        <v>3.175</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>3.125</v>
+        <v>4.175</v>
       </c>
       <c r="J133" s="1" t="n">
         <v>1.975</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="P133" s="1" t="n">
         <v>0.575</v>
@@ -10235,7 +10235,7 @@
       <c r="Q133" s="1" t="n"/>
       <c r="R133" s="1" t="n"/>
       <c r="S133" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T133" s="1" t="n">
         <v>1</v>
@@ -10244,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="V133" s="1" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="W133" s="1" t="n">
         <v>6.486</v>
@@ -10261,14 +10261,14 @@
     </row>
     <row r="134" spans="1:28">
       <c r="A134" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="E134" s="1" t="n">
         <v>0.575</v>
@@ -10280,10 +10280,10 @@
         <v>2.8</v>
       </c>
       <c r="H134" s="1" t="n">
-        <v>3.175</v>
+        <v>4.225</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>4.175</v>
+        <v>5.225</v>
       </c>
       <c r="J134" s="1" t="n">
         <v>1.975</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="O134" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="P134" s="1" t="n">
         <v>0.575</v>
@@ -10307,7 +10307,7 @@
       <c r="Q134" s="1" t="n"/>
       <c r="R134" s="1" t="n"/>
       <c r="S134" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T134" s="1" t="n">
         <v>1</v>
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="W134" s="1" t="n">
-        <v>6.486</v>
+        <v>1.232</v>
       </c>
       <c r="X134" s="1" t="n">
         <v>0</v>
@@ -10333,14 +10333,14 @@
     </row>
     <row r="135" spans="1:28">
       <c r="A135" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B135" s="1" t="n"/>
       <c r="C135" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="E135" s="1" t="n">
         <v>0.575</v>
@@ -10352,10 +10352,10 @@
         <v>2.8</v>
       </c>
       <c r="H135" s="1" t="n">
-        <v>4.225</v>
+        <v>5.275</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>5.225</v>
+        <v>6.275</v>
       </c>
       <c r="J135" s="1" t="n">
         <v>1.975</v>
@@ -10371,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="P135" s="1" t="n">
         <v>0.575</v>
@@ -10379,7 +10379,7 @@
       <c r="Q135" s="1" t="n"/>
       <c r="R135" s="1" t="n"/>
       <c r="S135" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T135" s="1" t="n">
         <v>1</v>
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="V135" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="W135" s="1" t="n">
         <v>1.232</v>
@@ -10405,14 +10405,14 @@
     </row>
     <row r="136" spans="1:28">
       <c r="A136" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B136" s="1" t="n"/>
       <c r="C136" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="E136" s="1" t="n">
         <v>0.575</v>
@@ -10424,10 +10424,10 @@
         <v>2.8</v>
       </c>
       <c r="H136" s="1" t="n">
-        <v>5.275</v>
+        <v>6.325</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>6.275</v>
+        <v>7.325</v>
       </c>
       <c r="J136" s="1" t="n">
         <v>1.975</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="P136" s="1" t="n">
         <v>0.575</v>
@@ -10451,7 +10451,7 @@
       <c r="Q136" s="1" t="n"/>
       <c r="R136" s="1" t="n"/>
       <c r="S136" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T136" s="1" t="n">
         <v>1</v>
@@ -10463,7 +10463,7 @@
         <v>8.4</v>
       </c>
       <c r="W136" s="1" t="n">
-        <v>1.232</v>
+        <v>6.486</v>
       </c>
       <c r="X136" s="1" t="n">
         <v>0</v>
@@ -10477,14 +10477,14 @@
     </row>
     <row r="137" spans="1:28">
       <c r="A137" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B137" s="1" t="n"/>
       <c r="C137" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="E137" s="1" t="n">
         <v>0.575</v>
@@ -10496,10 +10496,10 @@
         <v>2.8</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>6.325</v>
+        <v>7.375</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>7.325</v>
+        <v>8.375</v>
       </c>
       <c r="J137" s="1" t="n">
         <v>1.975</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="P137" s="1" t="n">
         <v>0.575</v>
@@ -10523,7 +10523,7 @@
       <c r="Q137" s="1" t="n"/>
       <c r="R137" s="1" t="n"/>
       <c r="S137" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T137" s="1" t="n">
         <v>1</v>
@@ -10532,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="V137" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="W137" s="1" t="n">
         <v>6.486</v>
@@ -10549,14 +10549,14 @@
     </row>
     <row r="138" spans="1:28">
       <c r="A138" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B138" s="1" t="n"/>
       <c r="C138" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="E138" s="1" t="n">
         <v>0.575</v>
@@ -10568,10 +10568,10 @@
         <v>2.8</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>7.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>8.375</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="J138" s="1" t="n">
         <v>1.975</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="P138" s="1" t="n">
         <v>0.575</v>
@@ -10595,7 +10595,7 @@
       <c r="Q138" s="1" t="n"/>
       <c r="R138" s="1" t="n"/>
       <c r="S138" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T138" s="1" t="n">
         <v>1</v>
@@ -10607,7 +10607,7 @@
         <v>16.8</v>
       </c>
       <c r="W138" s="1" t="n">
-        <v>6.486</v>
+        <v>1.232</v>
       </c>
       <c r="X138" s="1" t="n">
         <v>0</v>
@@ -10621,14 +10621,14 @@
     </row>
     <row r="139" spans="1:28">
       <c r="A139" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B139" s="1" t="n"/>
       <c r="C139" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="E139" s="1" t="n">
         <v>0.575</v>
@@ -10640,10 +10640,10 @@
         <v>2.8</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>9.475</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>10.475</v>
       </c>
       <c r="J139" s="1" t="n">
         <v>1.975</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="P139" s="1" t="n">
         <v>0.575</v>
@@ -10667,7 +10667,7 @@
       <c r="Q139" s="1" t="n"/>
       <c r="R139" s="1" t="n"/>
       <c r="S139" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T139" s="1" t="n">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="V139" s="1" t="n">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="W139" s="1" t="n">
         <v>1.232</v>
@@ -10693,17 +10693,17 @@
     </row>
     <row r="140" spans="1:28">
       <c r="A140" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B140" s="1" t="n"/>
       <c r="C140" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>0.575</v>
+        <v>3.425</v>
       </c>
       <c r="F140" s="1" t="n">
         <v>1</v>
@@ -10712,16 +10712,16 @@
         <v>2.8</v>
       </c>
       <c r="H140" s="1" t="n">
-        <v>9.475</v>
+        <v>-10.475</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>10.475</v>
+        <v>-9.475</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>1.975</v>
+        <v>4.824999999999999</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>-0.825</v>
+        <v>2.025</v>
       </c>
       <c r="L140" s="1" t="n"/>
       <c r="M140" s="1" t="n">
@@ -10731,15 +10731,15 @@
         <v>0</v>
       </c>
       <c r="O140" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="P140" s="1" t="n">
-        <v>0.575</v>
+        <v>3.425</v>
       </c>
       <c r="Q140" s="1" t="n"/>
       <c r="R140" s="1" t="n"/>
       <c r="S140" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T140" s="1" t="n">
         <v>1</v>
@@ -10751,7 +10751,7 @@
         <v>25.2</v>
       </c>
       <c r="W140" s="1" t="n">
-        <v>1.232</v>
+        <v>6.486</v>
       </c>
       <c r="X140" s="1" t="n">
         <v>0</v>
@@ -10765,14 +10765,14 @@
     </row>
     <row r="141" spans="1:28">
       <c r="A141" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B141" s="1" t="n"/>
       <c r="C141" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="E141" s="1" t="n">
         <v>3.425</v>
@@ -10784,10 +10784,10 @@
         <v>2.8</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.425000000000001</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>-9.475</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="J141" s="1" t="n">
         <v>4.824999999999999</v>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="P141" s="1" t="n">
         <v>3.425</v>
@@ -10811,7 +10811,7 @@
       <c r="Q141" s="1" t="n"/>
       <c r="R141" s="1" t="n"/>
       <c r="S141" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T141" s="1" t="n">
         <v>1</v>
@@ -10820,10 +10820,10 @@
         <v>1</v>
       </c>
       <c r="V141" s="1" t="n">
-        <v>25.2</v>
+        <v>33.6</v>
       </c>
       <c r="W141" s="1" t="n">
-        <v>6.486</v>
+        <v>14.886</v>
       </c>
       <c r="X141" s="1" t="n">
         <v>0</v>
@@ -10837,14 +10837,14 @@
     </row>
     <row r="142" spans="1:28">
       <c r="A142" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B142" s="1" t="n"/>
       <c r="C142" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="E142" s="1" t="n">
         <v>3.425</v>
@@ -10856,10 +10856,10 @@
         <v>2.8</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.375</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-7.375</v>
       </c>
       <c r="J142" s="1" t="n">
         <v>4.824999999999999</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="P142" s="1" t="n">
         <v>3.425</v>
@@ -10883,7 +10883,7 @@
       <c r="Q142" s="1" t="n"/>
       <c r="R142" s="1" t="n"/>
       <c r="S142" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T142" s="1" t="n">
         <v>1</v>
@@ -10895,7 +10895,7 @@
         <v>33.6</v>
       </c>
       <c r="W142" s="1" t="n">
-        <v>14.886</v>
+        <v>1.232</v>
       </c>
       <c r="X142" s="1" t="n">
         <v>0</v>
@@ -10909,14 +10909,14 @@
     </row>
     <row r="143" spans="1:28">
       <c r="A143" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B143" s="1" t="n"/>
       <c r="C143" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="E143" s="1" t="n">
         <v>3.425</v>
@@ -10928,10 +10928,10 @@
         <v>2.8</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.325</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>-7.375</v>
+        <v>-6.325</v>
       </c>
       <c r="J143" s="1" t="n">
         <v>4.824999999999999</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="P143" s="1" t="n">
         <v>3.425</v>
@@ -10955,7 +10955,7 @@
       <c r="Q143" s="1" t="n"/>
       <c r="R143" s="1" t="n"/>
       <c r="S143" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T143" s="1" t="n">
         <v>1</v>
@@ -10967,7 +10967,7 @@
         <v>33.6</v>
       </c>
       <c r="W143" s="1" t="n">
-        <v>1.232</v>
+        <v>9.632</v>
       </c>
       <c r="X143" s="1" t="n">
         <v>0</v>
@@ -10981,14 +10981,14 @@
     </row>
     <row r="144" spans="1:28">
       <c r="A144" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B144" s="1" t="n"/>
       <c r="C144" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="E144" s="1" t="n">
         <v>3.425</v>
@@ -11000,10 +11000,10 @@
         <v>2.8</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.275</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>-6.325</v>
+        <v>-5.275</v>
       </c>
       <c r="J144" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11019,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="P144" s="1" t="n">
         <v>3.425</v>
@@ -11027,7 +11027,7 @@
       <c r="Q144" s="1" t="n"/>
       <c r="R144" s="1" t="n"/>
       <c r="S144" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T144" s="1" t="n">
         <v>1</v>
@@ -11036,10 +11036,10 @@
         <v>1</v>
       </c>
       <c r="V144" s="1" t="n">
-        <v>33.6</v>
+        <v>25.2</v>
       </c>
       <c r="W144" s="1" t="n">
-        <v>9.632</v>
+        <v>14.886</v>
       </c>
       <c r="X144" s="1" t="n">
         <v>0</v>
@@ -11053,14 +11053,14 @@
     </row>
     <row r="145" spans="1:28">
       <c r="A145" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B145" s="1" t="n"/>
       <c r="C145" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="E145" s="1" t="n">
         <v>3.425</v>
@@ -11072,10 +11072,10 @@
         <v>2.8</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.225</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>-5.275</v>
+        <v>-4.225</v>
       </c>
       <c r="J145" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="O145" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="P145" s="1" t="n">
         <v>3.425</v>
@@ -11099,7 +11099,7 @@
       <c r="Q145" s="1" t="n"/>
       <c r="R145" s="1" t="n"/>
       <c r="S145" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T145" s="1" t="n">
         <v>1</v>
@@ -11108,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="V145" s="1" t="n">
-        <v>25.2</v>
+        <v>16.8</v>
       </c>
       <c r="W145" s="1" t="n">
         <v>14.886</v>
@@ -11125,14 +11125,14 @@
     </row>
     <row r="146" spans="1:28">
       <c r="A146" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B146" s="1" t="n"/>
       <c r="C146" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="E146" s="1" t="n">
         <v>3.425</v>
@@ -11144,10 +11144,10 @@
         <v>2.8</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.175</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>-4.225</v>
+        <v>-3.175</v>
       </c>
       <c r="J146" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="P146" s="1" t="n">
         <v>3.425</v>
@@ -11171,7 +11171,7 @@
       <c r="Q146" s="1" t="n"/>
       <c r="R146" s="1" t="n"/>
       <c r="S146" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T146" s="1" t="n">
         <v>1</v>
@@ -11180,10 +11180,10 @@
         <v>1</v>
       </c>
       <c r="V146" s="1" t="n">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="W146" s="1" t="n">
-        <v>14.886</v>
+        <v>9.632</v>
       </c>
       <c r="X146" s="1" t="n">
         <v>0</v>
@@ -11197,14 +11197,14 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B147" s="1" t="n"/>
       <c r="C147" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="E147" s="1" t="n">
         <v>3.425</v>
@@ -11216,10 +11216,10 @@
         <v>2.8</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.125</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>-3.175</v>
+        <v>-2.125</v>
       </c>
       <c r="J147" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="P147" s="1" t="n">
         <v>3.425</v>
@@ -11243,7 +11243,7 @@
       <c r="Q147" s="1" t="n"/>
       <c r="R147" s="1" t="n"/>
       <c r="S147" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T147" s="1" t="n">
         <v>1</v>
@@ -11252,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="V147" s="1" t="n">
-        <v>25.2</v>
+        <v>16.8</v>
       </c>
       <c r="W147" s="1" t="n">
         <v>9.632</v>
@@ -11269,14 +11269,14 @@
     </row>
     <row r="148" spans="1:28">
       <c r="A148" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B148" s="1" t="n"/>
       <c r="C148" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="E148" s="1" t="n">
         <v>3.425</v>
@@ -11288,10 +11288,10 @@
         <v>2.8</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.075</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>-2.125</v>
+        <v>-1.075</v>
       </c>
       <c r="J148" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11307,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="P148" s="1" t="n">
         <v>3.425</v>
@@ -11315,7 +11315,7 @@
       <c r="Q148" s="1" t="n"/>
       <c r="R148" s="1" t="n"/>
       <c r="S148" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T148" s="1" t="n">
         <v>1</v>
@@ -11324,10 +11324,10 @@
         <v>1</v>
       </c>
       <c r="V148" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="W148" s="1" t="n">
-        <v>9.632</v>
+        <v>14.886</v>
       </c>
       <c r="X148" s="1" t="n">
         <v>0</v>
@@ -11341,14 +11341,14 @@
     </row>
     <row r="149" spans="1:28">
       <c r="A149" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B149" s="1" t="n"/>
       <c r="C149" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="E149" s="1" t="n">
         <v>3.425</v>
@@ -11360,10 +11360,10 @@
         <v>2.8</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.025</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>-1.075</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="J149" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="P149" s="1" t="n">
         <v>3.425</v>
@@ -11387,7 +11387,7 @@
       <c r="Q149" s="1" t="n"/>
       <c r="R149" s="1" t="n"/>
       <c r="S149" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T149" s="1" t="n">
         <v>1</v>
@@ -11396,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="V149" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W149" s="1" t="n">
         <v>14.886</v>
@@ -11413,14 +11413,14 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B150" s="1" t="n"/>
       <c r="C150" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="E150" s="1" t="n">
         <v>3.425</v>
@@ -11432,10 +11432,10 @@
         <v>2.8</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>-1.025</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>1.025</v>
       </c>
       <c r="J150" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="P150" s="1" t="n">
         <v>3.425</v>
@@ -11459,7 +11459,7 @@
       <c r="Q150" s="1" t="n"/>
       <c r="R150" s="1" t="n"/>
       <c r="S150" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T150" s="1" t="n">
         <v>1</v>
@@ -11468,10 +11468,10 @@
         <v>1</v>
       </c>
       <c r="V150" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="W150" s="1" t="n">
-        <v>14.886</v>
+        <v>9.632</v>
       </c>
       <c r="X150" s="1" t="n">
         <v>0</v>
@@ -11485,14 +11485,14 @@
     </row>
     <row r="151" spans="1:28">
       <c r="A151" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B151" s="1" t="n"/>
       <c r="C151" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="E151" s="1" t="n">
         <v>3.425</v>
@@ -11504,10 +11504,10 @@
         <v>2.8</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>1.075</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>1.025</v>
+        <v>2.075</v>
       </c>
       <c r="J151" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="P151" s="1" t="n">
         <v>3.425</v>
@@ -11531,7 +11531,7 @@
       <c r="Q151" s="1" t="n"/>
       <c r="R151" s="1" t="n"/>
       <c r="S151" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T151" s="1" t="n">
         <v>1</v>
@@ -11540,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="V151" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W151" s="1" t="n">
         <v>9.632</v>
@@ -11557,14 +11557,14 @@
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B152" s="1" t="n"/>
       <c r="C152" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="E152" s="1" t="n">
         <v>3.425</v>
@@ -11576,10 +11576,10 @@
         <v>2.8</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>1.075</v>
+        <v>2.125</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>2.075</v>
+        <v>3.125</v>
       </c>
       <c r="J152" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="P152" s="1" t="n">
         <v>3.425</v>
@@ -11603,7 +11603,7 @@
       <c r="Q152" s="1" t="n"/>
       <c r="R152" s="1" t="n"/>
       <c r="S152" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T152" s="1" t="n">
         <v>1</v>
@@ -11612,10 +11612,10 @@
         <v>1</v>
       </c>
       <c r="V152" s="1" t="n">
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="W152" s="1" t="n">
-        <v>9.632</v>
+        <v>14.886</v>
       </c>
       <c r="X152" s="1" t="n">
         <v>0</v>
@@ -11629,14 +11629,14 @@
     </row>
     <row r="153" spans="1:28">
       <c r="A153" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B153" s="1" t="n"/>
       <c r="C153" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="E153" s="1" t="n">
         <v>3.425</v>
@@ -11648,10 +11648,10 @@
         <v>2.8</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>2.125</v>
+        <v>3.175</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>3.125</v>
+        <v>4.175</v>
       </c>
       <c r="J153" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="P153" s="1" t="n">
         <v>3.425</v>
@@ -11675,7 +11675,7 @@
       <c r="Q153" s="1" t="n"/>
       <c r="R153" s="1" t="n"/>
       <c r="S153" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T153" s="1" t="n">
         <v>1</v>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="V153" s="1" t="n">
-        <v>-8.4</v>
+        <v>-16.8</v>
       </c>
       <c r="W153" s="1" t="n">
         <v>14.886</v>
@@ -11701,14 +11701,14 @@
     </row>
     <row r="154" spans="1:28">
       <c r="A154" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B154" s="1" t="n"/>
       <c r="C154" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="E154" s="1" t="n">
         <v>3.425</v>
@@ -11720,10 +11720,10 @@
         <v>2.8</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>3.175</v>
+        <v>4.225</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>4.175</v>
+        <v>5.225</v>
       </c>
       <c r="J154" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="P154" s="1" t="n">
         <v>3.425</v>
@@ -11747,7 +11747,7 @@
       <c r="Q154" s="1" t="n"/>
       <c r="R154" s="1" t="n"/>
       <c r="S154" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T154" s="1" t="n">
         <v>1</v>
@@ -11756,10 +11756,10 @@
         <v>1</v>
       </c>
       <c r="V154" s="1" t="n">
-        <v>-16.8</v>
+        <v>-8.4</v>
       </c>
       <c r="W154" s="1" t="n">
-        <v>14.886</v>
+        <v>9.632</v>
       </c>
       <c r="X154" s="1" t="n">
         <v>0</v>
@@ -11773,14 +11773,14 @@
     </row>
     <row r="155" spans="1:28">
       <c r="A155" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B155" s="1" t="n"/>
       <c r="C155" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="E155" s="1" t="n">
         <v>3.425</v>
@@ -11792,10 +11792,10 @@
         <v>2.8</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>4.225</v>
+        <v>5.275</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>5.225</v>
+        <v>6.275</v>
       </c>
       <c r="J155" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="P155" s="1" t="n">
         <v>3.425</v>
@@ -11819,7 +11819,7 @@
       <c r="Q155" s="1" t="n"/>
       <c r="R155" s="1" t="n"/>
       <c r="S155" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T155" s="1" t="n">
         <v>1</v>
@@ -11828,7 +11828,7 @@
         <v>1</v>
       </c>
       <c r="V155" s="1" t="n">
-        <v>-8.4</v>
+        <v>-16.8</v>
       </c>
       <c r="W155" s="1" t="n">
         <v>9.632</v>
@@ -11845,14 +11845,14 @@
     </row>
     <row r="156" spans="1:28">
       <c r="A156" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B156" s="1" t="n"/>
       <c r="C156" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="E156" s="1" t="n">
         <v>3.425</v>
@@ -11864,10 +11864,10 @@
         <v>2.8</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>5.275</v>
+        <v>6.325</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>6.275</v>
+        <v>7.325</v>
       </c>
       <c r="J156" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="P156" s="1" t="n">
         <v>3.425</v>
@@ -11891,7 +11891,7 @@
       <c r="Q156" s="1" t="n"/>
       <c r="R156" s="1" t="n"/>
       <c r="S156" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T156" s="1" t="n">
         <v>1</v>
@@ -11900,10 +11900,10 @@
         <v>1</v>
       </c>
       <c r="V156" s="1" t="n">
-        <v>-16.8</v>
+        <v>-25.2</v>
       </c>
       <c r="W156" s="1" t="n">
-        <v>9.632</v>
+        <v>14.886</v>
       </c>
       <c r="X156" s="1" t="n">
         <v>0</v>
@@ -11917,14 +11917,14 @@
     </row>
     <row r="157" spans="1:28">
       <c r="A157" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B157" s="1" t="n"/>
       <c r="C157" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="E157" s="1" t="n">
         <v>3.425</v>
@@ -11936,10 +11936,10 @@
         <v>2.8</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>6.325</v>
+        <v>7.375</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>7.325</v>
+        <v>8.375</v>
       </c>
       <c r="J157" s="1" t="n">
         <v>4.824999999999999</v>
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="P157" s="1" t="n">
         <v>3.425</v>
@@ -11963,7 +11963,7 @@
       <c r="Q157" s="1" t="n"/>
       <c r="R157" s="1" t="n"/>
       <c r="S157" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T157" s="1" t="n">
         <v>1</v>
@@ -11972,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="V157" s="1" t="n">
-        <v>-25.2</v>
+        <v>-33.6</v>
       </c>
       <c r="W157" s="1" t="n">
         <v>14.886</v>
@@ -11989,14 +11989,14 @@
     </row>
     <row r="158" spans="1:28">
       <c r="A158" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B158" s="1" t="n"/>
       <c r="C158" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="E158" s="1" t="n">
         <v>3.425</v>
@@ -12008,10 +12008,10 @@
         <v>2.8</v>
       </c>
       <c r="H158" s="1" t="n">
-        <v>7.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="I158" s="1" t="n">
-        <v>8.375</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="J158" s="1" t="n">
         <v>4.824999999999999</v>
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="O158" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="P158" s="1" t="n">
         <v>3.425</v>
@@ -12035,7 +12035,7 @@
       <c r="Q158" s="1" t="n"/>
       <c r="R158" s="1" t="n"/>
       <c r="S158" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T158" s="1" t="n">
         <v>1</v>
@@ -12044,10 +12044,10 @@
         <v>1</v>
       </c>
       <c r="V158" s="1" t="n">
-        <v>-33.6</v>
+        <v>-25.2</v>
       </c>
       <c r="W158" s="1" t="n">
-        <v>14.886</v>
+        <v>9.632</v>
       </c>
       <c r="X158" s="1" t="n">
         <v>0</v>
@@ -12061,14 +12061,14 @@
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B159" s="1" t="n"/>
       <c r="C159" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="E159" s="1" t="n">
         <v>3.425</v>
@@ -12080,10 +12080,10 @@
         <v>2.8</v>
       </c>
       <c r="H159" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>9.475</v>
       </c>
       <c r="I159" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>10.475</v>
       </c>
       <c r="J159" s="1" t="n">
         <v>4.824999999999999</v>
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="O159" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="P159" s="1" t="n">
         <v>3.425</v>
@@ -12107,7 +12107,7 @@
       <c r="Q159" s="1" t="n"/>
       <c r="R159" s="1" t="n"/>
       <c r="S159" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T159" s="1" t="n">
         <v>1</v>
@@ -12116,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="V159" s="1" t="n">
-        <v>-25.2</v>
+        <v>-33.6</v>
       </c>
       <c r="W159" s="1" t="n">
         <v>9.632</v>
@@ -12133,17 +12133,17 @@
     </row>
     <row r="160" spans="1:28">
       <c r="A160" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B160" s="1" t="n"/>
       <c r="C160" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>3.425</v>
+        <v>6.275</v>
       </c>
       <c r="F160" s="1" t="n">
         <v>1</v>
@@ -12152,16 +12152,16 @@
         <v>2.8</v>
       </c>
       <c r="H160" s="1" t="n">
-        <v>9.475</v>
+        <v>-10.475</v>
       </c>
       <c r="I160" s="1" t="n">
-        <v>10.475</v>
+        <v>-9.475</v>
       </c>
       <c r="J160" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>7.675000000000001</v>
       </c>
       <c r="K160" s="1" t="n">
-        <v>2.025</v>
+        <v>4.875</v>
       </c>
       <c r="L160" s="1" t="n"/>
       <c r="M160" s="1" t="n">
@@ -12171,15 +12171,15 @@
         <v>0</v>
       </c>
       <c r="O160" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="P160" s="1" t="n">
-        <v>3.425</v>
+        <v>6.275</v>
       </c>
       <c r="Q160" s="1" t="n"/>
       <c r="R160" s="1" t="n"/>
       <c r="S160" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T160" s="1" t="n">
         <v>1</v>
@@ -12191,7 +12191,7 @@
         <v>-33.6</v>
       </c>
       <c r="W160" s="1" t="n">
-        <v>9.632</v>
+        <v>23.286</v>
       </c>
       <c r="X160" s="1" t="n">
         <v>0</v>
@@ -12205,14 +12205,14 @@
     </row>
     <row r="161" spans="1:28">
       <c r="A161" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B161" s="1" t="n"/>
       <c r="C161" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="E161" s="1" t="n">
         <v>6.275</v>
@@ -12224,10 +12224,10 @@
         <v>2.8</v>
       </c>
       <c r="H161" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.425000000000001</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>-9.475</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="J161" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12243,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="O161" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="P161" s="1" t="n">
         <v>6.275</v>
@@ -12251,7 +12251,7 @@
       <c r="Q161" s="1" t="n"/>
       <c r="R161" s="1" t="n"/>
       <c r="S161" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T161" s="1" t="n">
         <v>1</v>
@@ -12260,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="V161" s="1" t="n">
-        <v>-33.6</v>
+        <v>-25.2</v>
       </c>
       <c r="W161" s="1" t="n">
         <v>23.286</v>
@@ -12277,14 +12277,14 @@
     </row>
     <row r="162" spans="1:28">
       <c r="A162" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B162" s="1" t="n"/>
       <c r="C162" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="E162" s="1" t="n">
         <v>6.275</v>
@@ -12296,10 +12296,10 @@
         <v>2.8</v>
       </c>
       <c r="H162" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.375</v>
       </c>
       <c r="I162" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-7.375</v>
       </c>
       <c r="J162" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="O162" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="P162" s="1" t="n">
         <v>6.275</v>
@@ -12323,7 +12323,7 @@
       <c r="Q162" s="1" t="n"/>
       <c r="R162" s="1" t="n"/>
       <c r="S162" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T162" s="1" t="n">
         <v>1</v>
@@ -12335,7 +12335,7 @@
         <v>-25.2</v>
       </c>
       <c r="W162" s="1" t="n">
-        <v>23.286</v>
+        <v>18.032</v>
       </c>
       <c r="X162" s="1" t="n">
         <v>0</v>
@@ -12349,14 +12349,14 @@
     </row>
     <row r="163" spans="1:28">
       <c r="A163" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B163" s="1" t="n"/>
       <c r="C163" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="E163" s="1" t="n">
         <v>6.275</v>
@@ -12368,10 +12368,10 @@
         <v>2.8</v>
       </c>
       <c r="H163" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.325</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>-7.375</v>
+        <v>-6.325</v>
       </c>
       <c r="J163" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="O163" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="P163" s="1" t="n">
         <v>6.275</v>
@@ -12395,7 +12395,7 @@
       <c r="Q163" s="1" t="n"/>
       <c r="R163" s="1" t="n"/>
       <c r="S163" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T163" s="1" t="n">
         <v>1</v>
@@ -12404,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="V163" s="1" t="n">
-        <v>-25.2</v>
+        <v>-16.8</v>
       </c>
       <c r="W163" s="1" t="n">
         <v>18.032</v>
@@ -12421,14 +12421,14 @@
     </row>
     <row r="164" spans="1:28">
       <c r="A164" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B164" s="1" t="n"/>
       <c r="C164" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="E164" s="1" t="n">
         <v>6.275</v>
@@ -12440,10 +12440,10 @@
         <v>2.8</v>
       </c>
       <c r="H164" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.275</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>-6.325</v>
+        <v>-5.275</v>
       </c>
       <c r="J164" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="O164" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="P164" s="1" t="n">
         <v>6.275</v>
@@ -12467,7 +12467,7 @@
       <c r="Q164" s="1" t="n"/>
       <c r="R164" s="1" t="n"/>
       <c r="S164" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T164" s="1" t="n">
         <v>1</v>
@@ -12479,7 +12479,7 @@
         <v>-16.8</v>
       </c>
       <c r="W164" s="1" t="n">
-        <v>18.032</v>
+        <v>23.286</v>
       </c>
       <c r="X164" s="1" t="n">
         <v>0</v>
@@ -12493,14 +12493,14 @@
     </row>
     <row r="165" spans="1:28">
       <c r="A165" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B165" s="1" t="n"/>
       <c r="C165" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="E165" s="1" t="n">
         <v>6.275</v>
@@ -12512,10 +12512,10 @@
         <v>2.8</v>
       </c>
       <c r="H165" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.225</v>
       </c>
       <c r="I165" s="1" t="n">
-        <v>-5.275</v>
+        <v>-4.225</v>
       </c>
       <c r="J165" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="O165" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="P165" s="1" t="n">
         <v>6.275</v>
@@ -12539,7 +12539,7 @@
       <c r="Q165" s="1" t="n"/>
       <c r="R165" s="1" t="n"/>
       <c r="S165" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T165" s="1" t="n">
         <v>1</v>
@@ -12548,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="V165" s="1" t="n">
-        <v>-16.8</v>
+        <v>-8.4</v>
       </c>
       <c r="W165" s="1" t="n">
         <v>23.286</v>
@@ -12565,14 +12565,14 @@
     </row>
     <row r="166" spans="1:28">
       <c r="A166" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B166" s="1" t="n"/>
       <c r="C166" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="E166" s="1" t="n">
         <v>6.275</v>
@@ -12584,10 +12584,10 @@
         <v>2.8</v>
       </c>
       <c r="H166" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.175</v>
       </c>
       <c r="I166" s="1" t="n">
-        <v>-4.225</v>
+        <v>-3.175</v>
       </c>
       <c r="J166" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="O166" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="P166" s="1" t="n">
         <v>6.275</v>
@@ -12611,7 +12611,7 @@
       <c r="Q166" s="1" t="n"/>
       <c r="R166" s="1" t="n"/>
       <c r="S166" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T166" s="1" t="n">
         <v>1</v>
@@ -12623,7 +12623,7 @@
         <v>-8.4</v>
       </c>
       <c r="W166" s="1" t="n">
-        <v>23.286</v>
+        <v>18.032</v>
       </c>
       <c r="X166" s="1" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     </row>
     <row r="167" spans="1:28">
       <c r="A167" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B167" s="1" t="n"/>
       <c r="C167" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="E167" s="1" t="n">
         <v>6.275</v>
@@ -12656,10 +12656,10 @@
         <v>2.8</v>
       </c>
       <c r="H167" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.125</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>-3.175</v>
+        <v>-2.125</v>
       </c>
       <c r="J167" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="P167" s="1" t="n">
         <v>6.275</v>
@@ -12683,7 +12683,7 @@
       <c r="Q167" s="1" t="n"/>
       <c r="R167" s="1" t="n"/>
       <c r="S167" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T167" s="1" t="n">
         <v>1</v>
@@ -12692,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="V167" s="1" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="W167" s="1" t="n">
         <v>18.032</v>
@@ -12709,14 +12709,14 @@
     </row>
     <row r="168" spans="1:28">
       <c r="A168" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B168" s="1" t="n"/>
       <c r="C168" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="E168" s="1" t="n">
         <v>6.275</v>
@@ -12728,10 +12728,10 @@
         <v>2.8</v>
       </c>
       <c r="H168" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.075</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>-2.125</v>
+        <v>-1.075</v>
       </c>
       <c r="J168" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="O168" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.575</v>
       </c>
       <c r="P168" s="1" t="n">
         <v>6.275</v>
@@ -12755,7 +12755,7 @@
       <c r="Q168" s="1" t="n"/>
       <c r="R168" s="1" t="n"/>
       <c r="S168" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T168" s="1" t="n">
         <v>1</v>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="W168" s="1" t="n">
-        <v>18.032</v>
+        <v>23.286</v>
       </c>
       <c r="X168" s="1" t="n">
         <v>0</v>
@@ -12781,14 +12781,14 @@
     </row>
     <row r="169" spans="1:28">
       <c r="A169" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B169" s="1" t="n"/>
       <c r="C169" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="E169" s="1" t="n">
         <v>6.275</v>
@@ -12800,10 +12800,10 @@
         <v>2.8</v>
       </c>
       <c r="H169" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.025</v>
       </c>
       <c r="I169" s="1" t="n">
-        <v>-1.075</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="J169" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="O169" s="1" t="n">
-        <v>-1.575</v>
+        <v>-0.525</v>
       </c>
       <c r="P169" s="1" t="n">
         <v>6.275</v>
@@ -12827,7 +12827,7 @@
       <c r="Q169" s="1" t="n"/>
       <c r="R169" s="1" t="n"/>
       <c r="S169" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T169" s="1" t="n">
         <v>1</v>
@@ -12836,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="V169" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="W169" s="1" t="n">
         <v>23.286</v>
@@ -12853,14 +12853,14 @@
     </row>
     <row r="170" spans="1:28">
       <c r="A170" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B170" s="1" t="n"/>
       <c r="C170" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="E170" s="1" t="n">
         <v>6.275</v>
@@ -12872,10 +12872,10 @@
         <v>2.8</v>
       </c>
       <c r="H170" s="1" t="n">
-        <v>-1.025</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="I170" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>1.025</v>
       </c>
       <c r="J170" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="O170" s="1" t="n">
-        <v>-0.525</v>
+        <v>0.525</v>
       </c>
       <c r="P170" s="1" t="n">
         <v>6.275</v>
@@ -12899,7 +12899,7 @@
       <c r="Q170" s="1" t="n"/>
       <c r="R170" s="1" t="n"/>
       <c r="S170" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T170" s="1" t="n">
         <v>1</v>
@@ -12911,7 +12911,7 @@
         <v>8.4</v>
       </c>
       <c r="W170" s="1" t="n">
-        <v>23.286</v>
+        <v>18.032</v>
       </c>
       <c r="X170" s="1" t="n">
         <v>0</v>
@@ -12925,14 +12925,14 @@
     </row>
     <row r="171" spans="1:28">
       <c r="A171" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B171" s="1" t="n"/>
       <c r="C171" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="E171" s="1" t="n">
         <v>6.275</v>
@@ -12944,10 +12944,10 @@
         <v>2.8</v>
       </c>
       <c r="H171" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>1.075</v>
       </c>
       <c r="I171" s="1" t="n">
-        <v>1.025</v>
+        <v>2.075</v>
       </c>
       <c r="J171" s="1" t="n">
         <v>7.675000000000001</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="O171" s="1" t="n">
-        <v>0.525</v>
+        <v>1.575</v>
       </c>
       <c r="P171" s="1" t="n">
         <v>6.275</v>
@@ -12971,7 +12971,7 @@
       <c r="Q171" s="1" t="n"/>
       <c r="R171" s="1" t="n"/>
       <c r="S171" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T171" s="1" t="n">
         <v>1</v>
@@ -12980,7 +12980,7 @@
         <v>1</v>
       </c>
       <c r="V171" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="W171" s="1" t="n">
         <v>18.032</v>
@@ -12997,14 +12997,14 @@
     </row>
     <row r="172" spans="1:28">
       <c r="A172" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B172" s="1" t="n"/>
       <c r="C172" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="E172" s="1" t="n">
         <v>6.275</v>
@@ -13016,10 +13016,10 @@
         <v>2.8</v>
       </c>
       <c r="H172" s="1" t="n">
-        <v>1.075</v>
+        <v>2.125</v>
       </c>
       <c r="I172" s="1" t="n">
-        <v>2.075</v>
+        <v>3.125</v>
       </c>
       <c r="J172" s="1" t="n">
         <v>7.675000000000001</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="O172" s="1" t="n">
-        <v>1.575</v>
+        <v>2.625</v>
       </c>
       <c r="P172" s="1" t="n">
         <v>6.275</v>
@@ -13043,7 +13043,7 @@
       <c r="Q172" s="1" t="n"/>
       <c r="R172" s="1" t="n"/>
       <c r="S172" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T172" s="1" t="n">
         <v>1</v>
@@ -13055,7 +13055,7 @@
         <v>16.8</v>
       </c>
       <c r="W172" s="1" t="n">
-        <v>18.032</v>
+        <v>23.286</v>
       </c>
       <c r="X172" s="1" t="n">
         <v>0</v>
@@ -13069,14 +13069,14 @@
     </row>
     <row r="173" spans="1:28">
       <c r="A173" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B173" s="1" t="n"/>
       <c r="C173" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="E173" s="1" t="n">
         <v>6.275</v>
@@ -13088,10 +13088,10 @@
         <v>2.8</v>
       </c>
       <c r="H173" s="1" t="n">
-        <v>2.125</v>
+        <v>3.175</v>
       </c>
       <c r="I173" s="1" t="n">
-        <v>3.125</v>
+        <v>4.175</v>
       </c>
       <c r="J173" s="1" t="n">
         <v>7.675000000000001</v>
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="O173" s="1" t="n">
-        <v>2.625</v>
+        <v>3.675</v>
       </c>
       <c r="P173" s="1" t="n">
         <v>6.275</v>
@@ -13115,7 +13115,7 @@
       <c r="Q173" s="1" t="n"/>
       <c r="R173" s="1" t="n"/>
       <c r="S173" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T173" s="1" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="V173" s="1" t="n">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="W173" s="1" t="n">
         <v>23.286</v>
@@ -13141,14 +13141,14 @@
     </row>
     <row r="174" spans="1:28">
       <c r="A174" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B174" s="1" t="n"/>
       <c r="C174" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="E174" s="1" t="n">
         <v>6.275</v>
@@ -13160,10 +13160,10 @@
         <v>2.8</v>
       </c>
       <c r="H174" s="1" t="n">
-        <v>3.175</v>
+        <v>4.225</v>
       </c>
       <c r="I174" s="1" t="n">
-        <v>4.175</v>
+        <v>5.225</v>
       </c>
       <c r="J174" s="1" t="n">
         <v>7.675000000000001</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="1" t="n">
-        <v>3.675</v>
+        <v>4.725</v>
       </c>
       <c r="P174" s="1" t="n">
         <v>6.275</v>
@@ -13187,7 +13187,7 @@
       <c r="Q174" s="1" t="n"/>
       <c r="R174" s="1" t="n"/>
       <c r="S174" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T174" s="1" t="n">
         <v>1</v>
@@ -13199,7 +13199,7 @@
         <v>25.2</v>
       </c>
       <c r="W174" s="1" t="n">
-        <v>23.286</v>
+        <v>18.032</v>
       </c>
       <c r="X174" s="1" t="n">
         <v>0</v>
@@ -13213,14 +13213,14 @@
     </row>
     <row r="175" spans="1:28">
       <c r="A175" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B175" s="1" t="n"/>
       <c r="C175" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="E175" s="1" t="n">
         <v>6.275</v>
@@ -13232,10 +13232,10 @@
         <v>2.8</v>
       </c>
       <c r="H175" s="1" t="n">
-        <v>4.225</v>
+        <v>5.275</v>
       </c>
       <c r="I175" s="1" t="n">
-        <v>5.225</v>
+        <v>6.275</v>
       </c>
       <c r="J175" s="1" t="n">
         <v>7.675000000000001</v>
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="O175" s="1" t="n">
-        <v>4.725</v>
+        <v>5.775</v>
       </c>
       <c r="P175" s="1" t="n">
         <v>6.275</v>
@@ -13259,7 +13259,7 @@
       <c r="Q175" s="1" t="n"/>
       <c r="R175" s="1" t="n"/>
       <c r="S175" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T175" s="1" t="n">
         <v>1</v>
@@ -13268,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="V175" s="1" t="n">
-        <v>25.2</v>
+        <v>33.6</v>
       </c>
       <c r="W175" s="1" t="n">
         <v>18.032</v>
@@ -13285,14 +13285,14 @@
     </row>
     <row r="176" spans="1:28">
       <c r="A176" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B176" s="1" t="n"/>
       <c r="C176" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="E176" s="1" t="n">
         <v>6.275</v>
@@ -13304,10 +13304,10 @@
         <v>2.8</v>
       </c>
       <c r="H176" s="1" t="n">
-        <v>5.275</v>
+        <v>6.325</v>
       </c>
       <c r="I176" s="1" t="n">
-        <v>6.275</v>
+        <v>7.325</v>
       </c>
       <c r="J176" s="1" t="n">
         <v>7.675000000000001</v>
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="O176" s="1" t="n">
-        <v>5.775</v>
+        <v>6.825</v>
       </c>
       <c r="P176" s="1" t="n">
         <v>6.275</v>
@@ -13331,7 +13331,7 @@
       <c r="Q176" s="1" t="n"/>
       <c r="R176" s="1" t="n"/>
       <c r="S176" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T176" s="1" t="n">
         <v>1</v>
@@ -13340,10 +13340,10 @@
         <v>1</v>
       </c>
       <c r="V176" s="1" t="n">
-        <v>33.6</v>
+        <v>25.2</v>
       </c>
       <c r="W176" s="1" t="n">
-        <v>18.032</v>
+        <v>31.686</v>
       </c>
       <c r="X176" s="1" t="n">
         <v>0</v>
@@ -13357,14 +13357,14 @@
     </row>
     <row r="177" spans="1:28">
       <c r="A177" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B177" s="1" t="n"/>
       <c r="C177" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="E177" s="1" t="n">
         <v>6.275</v>
@@ -13376,10 +13376,10 @@
         <v>2.8</v>
       </c>
       <c r="H177" s="1" t="n">
-        <v>6.325</v>
+        <v>7.375</v>
       </c>
       <c r="I177" s="1" t="n">
-        <v>7.325</v>
+        <v>8.375</v>
       </c>
       <c r="J177" s="1" t="n">
         <v>7.675000000000001</v>
@@ -13395,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="O177" s="1" t="n">
-        <v>6.825</v>
+        <v>7.875</v>
       </c>
       <c r="P177" s="1" t="n">
         <v>6.275</v>
@@ -13403,7 +13403,7 @@
       <c r="Q177" s="1" t="n"/>
       <c r="R177" s="1" t="n"/>
       <c r="S177" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T177" s="1" t="n">
         <v>1</v>
@@ -13412,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="V177" s="1" t="n">
-        <v>25.2</v>
+        <v>16.8</v>
       </c>
       <c r="W177" s="1" t="n">
         <v>31.686</v>
@@ -13429,14 +13429,14 @@
     </row>
     <row r="178" spans="1:28">
       <c r="A178" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B178" s="1" t="n"/>
       <c r="C178" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="E178" s="1" t="n">
         <v>6.275</v>
@@ -13448,10 +13448,10 @@
         <v>2.8</v>
       </c>
       <c r="H178" s="1" t="n">
-        <v>7.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="I178" s="1" t="n">
-        <v>8.375</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="J178" s="1" t="n">
         <v>7.675000000000001</v>
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="1" t="n">
-        <v>7.875</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="P178" s="1" t="n">
         <v>6.275</v>
@@ -13475,7 +13475,7 @@
       <c r="Q178" s="1" t="n"/>
       <c r="R178" s="1" t="n"/>
       <c r="S178" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T178" s="1" t="n">
         <v>1</v>
@@ -13487,7 +13487,7 @@
         <v>16.8</v>
       </c>
       <c r="W178" s="1" t="n">
-        <v>31.686</v>
+        <v>26.432</v>
       </c>
       <c r="X178" s="1" t="n">
         <v>0</v>
@@ -13501,14 +13501,14 @@
     </row>
     <row r="179" spans="1:28">
       <c r="A179" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B179" s="1" t="n"/>
       <c r="C179" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="E179" s="1" t="n">
         <v>6.275</v>
@@ -13520,10 +13520,10 @@
         <v>2.8</v>
       </c>
       <c r="H179" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>9.475</v>
       </c>
       <c r="I179" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>10.475</v>
       </c>
       <c r="J179" s="1" t="n">
         <v>7.675000000000001</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="O179" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>9.975</v>
       </c>
       <c r="P179" s="1" t="n">
         <v>6.275</v>
@@ -13547,7 +13547,7 @@
       <c r="Q179" s="1" t="n"/>
       <c r="R179" s="1" t="n"/>
       <c r="S179" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T179" s="1" t="n">
         <v>1</v>
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="V179" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="W179" s="1" t="n">
         <v>26.432</v>
@@ -13573,17 +13573,17 @@
     </row>
     <row r="180" spans="1:28">
       <c r="A180" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B180" s="1" t="n"/>
       <c r="C180" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="E180" s="1" t="n">
-        <v>6.275</v>
+        <v>9.125</v>
       </c>
       <c r="F180" s="1" t="n">
         <v>1</v>
@@ -13592,16 +13592,16 @@
         <v>2.8</v>
       </c>
       <c r="H180" s="1" t="n">
-        <v>9.475</v>
+        <v>-10.475</v>
       </c>
       <c r="I180" s="1" t="n">
-        <v>10.475</v>
+        <v>-9.475</v>
       </c>
       <c r="J180" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>10.525</v>
       </c>
       <c r="K180" s="1" t="n">
-        <v>4.875</v>
+        <v>7.725</v>
       </c>
       <c r="L180" s="1" t="n"/>
       <c r="M180" s="1" t="n">
@@ -13611,15 +13611,15 @@
         <v>0</v>
       </c>
       <c r="O180" s="1" t="n">
-        <v>9.975</v>
+        <v>-9.975</v>
       </c>
       <c r="P180" s="1" t="n">
-        <v>6.275</v>
+        <v>9.125</v>
       </c>
       <c r="Q180" s="1" t="n"/>
       <c r="R180" s="1" t="n"/>
       <c r="S180" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T180" s="1" t="n">
         <v>1</v>
@@ -13631,7 +13631,7 @@
         <v>8.4</v>
       </c>
       <c r="W180" s="1" t="n">
-        <v>26.432</v>
+        <v>31.686</v>
       </c>
       <c r="X180" s="1" t="n">
         <v>0</v>
@@ -13645,14 +13645,14 @@
     </row>
     <row r="181" spans="1:28">
       <c r="A181" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B181" s="1" t="n"/>
       <c r="C181" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="E181" s="1" t="n">
         <v>9.125</v>
@@ -13664,10 +13664,10 @@
         <v>2.8</v>
       </c>
       <c r="H181" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.425000000000001</v>
       </c>
       <c r="I181" s="1" t="n">
-        <v>-9.475</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="J181" s="1" t="n">
         <v>10.525</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="O181" s="1" t="n">
-        <v>-9.975</v>
+        <v>-8.925000000000001</v>
       </c>
       <c r="P181" s="1" t="n">
         <v>9.125</v>
@@ -13691,7 +13691,7 @@
       <c r="Q181" s="1" t="n"/>
       <c r="R181" s="1" t="n"/>
       <c r="S181" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T181" s="1" t="n">
         <v>1</v>
@@ -13700,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="V181" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W181" s="1" t="n">
         <v>31.686</v>
@@ -13717,14 +13717,14 @@
     </row>
     <row r="182" spans="1:28">
       <c r="A182" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B182" s="1" t="n"/>
       <c r="C182" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="E182" s="1" t="n">
         <v>9.125</v>
@@ -13736,10 +13736,10 @@
         <v>2.8</v>
       </c>
       <c r="H182" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.375</v>
       </c>
       <c r="I182" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-7.375</v>
       </c>
       <c r="J182" s="1" t="n">
         <v>10.525</v>
@@ -13755,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="O182" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-7.875</v>
       </c>
       <c r="P182" s="1" t="n">
         <v>9.125</v>
@@ -13763,7 +13763,7 @@
       <c r="Q182" s="1" t="n"/>
       <c r="R182" s="1" t="n"/>
       <c r="S182" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T182" s="1" t="n">
         <v>1</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="W182" s="1" t="n">
-        <v>31.686</v>
+        <v>26.432</v>
       </c>
       <c r="X182" s="1" t="n">
         <v>0</v>
@@ -13789,14 +13789,14 @@
     </row>
     <row r="183" spans="1:28">
       <c r="A183" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B183" s="1" t="n"/>
       <c r="C183" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="E183" s="1" t="n">
         <v>9.125</v>
@@ -13808,10 +13808,10 @@
         <v>2.8</v>
       </c>
       <c r="H183" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.325</v>
       </c>
       <c r="I183" s="1" t="n">
-        <v>-7.375</v>
+        <v>-6.325</v>
       </c>
       <c r="J183" s="1" t="n">
         <v>10.525</v>
@@ -13827,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="O183" s="1" t="n">
-        <v>-7.875</v>
+        <v>-6.825</v>
       </c>
       <c r="P183" s="1" t="n">
         <v>9.125</v>
@@ -13835,7 +13835,7 @@
       <c r="Q183" s="1" t="n"/>
       <c r="R183" s="1" t="n"/>
       <c r="S183" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T183" s="1" t="n">
         <v>1</v>
@@ -13844,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="V183" s="1" t="n">
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="W183" s="1" t="n">
         <v>26.432</v>
@@ -13861,14 +13861,14 @@
     </row>
     <row r="184" spans="1:28">
       <c r="A184" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B184" s="1" t="n"/>
       <c r="C184" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="E184" s="1" t="n">
         <v>9.125</v>
@@ -13880,10 +13880,10 @@
         <v>2.8</v>
       </c>
       <c r="H184" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.275</v>
       </c>
       <c r="I184" s="1" t="n">
-        <v>-6.325</v>
+        <v>-5.275</v>
       </c>
       <c r="J184" s="1" t="n">
         <v>10.525</v>
@@ -13899,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="O184" s="1" t="n">
-        <v>-6.825</v>
+        <v>-5.775</v>
       </c>
       <c r="P184" s="1" t="n">
         <v>9.125</v>
@@ -13907,7 +13907,7 @@
       <c r="Q184" s="1" t="n"/>
       <c r="R184" s="1" t="n"/>
       <c r="S184" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T184" s="1" t="n">
         <v>1</v>
@@ -13919,7 +13919,7 @@
         <v>-8.4</v>
       </c>
       <c r="W184" s="1" t="n">
-        <v>26.432</v>
+        <v>31.686</v>
       </c>
       <c r="X184" s="1" t="n">
         <v>0</v>
@@ -13933,14 +13933,14 @@
     </row>
     <row r="185" spans="1:28">
       <c r="A185" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B185" s="1" t="n"/>
       <c r="C185" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="E185" s="1" t="n">
         <v>9.125</v>
@@ -13952,10 +13952,10 @@
         <v>2.8</v>
       </c>
       <c r="H185" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.225</v>
       </c>
       <c r="I185" s="1" t="n">
-        <v>-5.275</v>
+        <v>-4.225</v>
       </c>
       <c r="J185" s="1" t="n">
         <v>10.525</v>
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="O185" s="1" t="n">
-        <v>-5.775</v>
+        <v>-4.725</v>
       </c>
       <c r="P185" s="1" t="n">
         <v>9.125</v>
@@ -13979,7 +13979,7 @@
       <c r="Q185" s="1" t="n"/>
       <c r="R185" s="1" t="n"/>
       <c r="S185" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T185" s="1" t="n">
         <v>1</v>
@@ -13988,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="V185" s="1" t="n">
-        <v>-8.4</v>
+        <v>-16.8</v>
       </c>
       <c r="W185" s="1" t="n">
         <v>31.686</v>
@@ -14005,14 +14005,14 @@
     </row>
     <row r="186" spans="1:28">
       <c r="A186" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B186" s="1" t="n"/>
       <c r="C186" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="E186" s="1" t="n">
         <v>9.125</v>
@@ -14024,10 +14024,10 @@
         <v>2.8</v>
       </c>
       <c r="H186" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.175</v>
       </c>
       <c r="I186" s="1" t="n">
-        <v>-4.225</v>
+        <v>-3.175</v>
       </c>
       <c r="J186" s="1" t="n">
         <v>10.525</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="1" t="n">
-        <v>-4.725</v>
+        <v>-3.675</v>
       </c>
       <c r="P186" s="1" t="n">
         <v>9.125</v>
@@ -14051,7 +14051,7 @@
       <c r="Q186" s="1" t="n"/>
       <c r="R186" s="1" t="n"/>
       <c r="S186" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T186" s="1" t="n">
         <v>1</v>
@@ -14063,7 +14063,7 @@
         <v>-16.8</v>
       </c>
       <c r="W186" s="1" t="n">
-        <v>31.686</v>
+        <v>26.432</v>
       </c>
       <c r="X186" s="1" t="n">
         <v>0</v>
@@ -14077,14 +14077,14 @@
     </row>
     <row r="187" spans="1:28">
       <c r="A187" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B187" s="1" t="n"/>
       <c r="C187" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="E187" s="1" t="n">
         <v>9.125</v>
@@ -14096,10 +14096,10 @@
         <v>2.8</v>
       </c>
       <c r="H187" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.125</v>
       </c>
       <c r="I187" s="1" t="n">
-        <v>-3.175</v>
+        <v>-2.125</v>
       </c>
       <c r="J187" s="1" t="n">
         <v>10.525</v>
@@ -14115,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="O187" s="1" t="n">
-        <v>-3.675</v>
+        <v>-2.625</v>
       </c>
       <c r="P187" s="1" t="n">
         <v>9.125</v>
@@ -14123,7 +14123,7 @@
       <c r="Q187" s="1" t="n"/>
       <c r="R187" s="1" t="n"/>
       <c r="S187" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T187" s="1" t="n">
         <v>1</v>
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="V187" s="1" t="n">
-        <v>-16.8</v>
+        <v>-25.2</v>
       </c>
       <c r="W187" s="1" t="n">
         <v>26.432</v>
@@ -14149,71 +14149,71 @@
     </row>
     <row r="188" spans="1:28">
       <c r="A188" s="1" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="B188" s="1" t="n"/>
       <c r="C188" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>-2.625</v>
+        <v>-3.15</v>
       </c>
       <c r="E188" s="1" t="n">
-        <v>9.125</v>
+        <v>-0.96</v>
       </c>
       <c r="F188" s="1" t="n">
-        <v>1</v>
+        <v>1.634</v>
       </c>
       <c r="G188" s="1" t="n">
-        <v>2.8</v>
+        <v>0.62</v>
       </c>
       <c r="H188" s="1" t="n">
-        <v>-3.125</v>
+        <v>-3.967</v>
       </c>
       <c r="I188" s="1" t="n">
-        <v>-2.125</v>
+        <v>-2.333</v>
       </c>
       <c r="J188" s="1" t="n">
-        <v>10.525</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="K188" s="1" t="n">
-        <v>7.725</v>
+        <v>-1.27</v>
       </c>
       <c r="L188" s="1" t="n"/>
       <c r="M188" s="1" t="n">
-        <v>0</v>
+        <v>-1.629</v>
       </c>
       <c r="N188" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O188" s="1" t="n">
-        <v>-2.625</v>
+        <v>-1.521</v>
       </c>
       <c r="P188" s="1" t="n">
-        <v>9.125</v>
+        <v>2.956</v>
       </c>
       <c r="Q188" s="1" t="n"/>
       <c r="R188" s="1" t="n"/>
       <c r="S188" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="T188" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U188" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V188" s="1" t="n">
-        <v>-25.2</v>
+        <v>-29.4</v>
       </c>
       <c r="W188" s="1" t="n">
-        <v>26.432</v>
+        <v>-4.542</v>
       </c>
       <c r="X188" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y188" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z188" s="1" t="n"/>
       <c r="AA188" s="1" t="n"/>
@@ -14221,7 +14221,7 @@
     </row>
     <row r="189" spans="1:28">
       <c r="A189" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B189" s="1" t="n"/>
       <c r="C189" s="1" t="s">
@@ -14231,7 +14231,7 @@
         <v>-3.15</v>
       </c>
       <c r="E189" s="1" t="n">
-        <v>-0.96</v>
+        <v>-1.63</v>
       </c>
       <c r="F189" s="1" t="n">
         <v>1.634</v>
@@ -14246,23 +14246,23 @@
         <v>-2.333</v>
       </c>
       <c r="J189" s="1" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-1.32</v>
       </c>
       <c r="K189" s="1" t="n">
-        <v>-1.27</v>
+        <v>-1.94</v>
       </c>
       <c r="L189" s="1" t="n"/>
       <c r="M189" s="1" t="n">
-        <v>-1.629</v>
+        <v>1.629</v>
       </c>
       <c r="N189" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O189" s="1" t="n">
-        <v>-1.521</v>
+        <v>-4.779</v>
       </c>
       <c r="P189" s="1" t="n">
-        <v>2.956</v>
+        <v>-5.545999999999999</v>
       </c>
       <c r="Q189" s="1" t="n"/>
       <c r="R189" s="1" t="n"/>
@@ -14276,7 +14276,7 @@
         <v>3</v>
       </c>
       <c r="V189" s="1" t="n">
-        <v>-29.4</v>
+        <v>29.4</v>
       </c>
       <c r="W189" s="1" t="n">
         <v>-4.542</v>
@@ -14293,11 +14293,11 @@
     </row>
     <row r="190" spans="1:28">
       <c r="A190" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B190" s="1" t="n"/>
       <c r="C190" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>-3.15</v>
@@ -14325,16 +14325,16 @@
       </c>
       <c r="L190" s="1" t="n"/>
       <c r="M190" s="1" t="n">
-        <v>1.629</v>
+        <v>0</v>
       </c>
       <c r="N190" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O190" s="1" t="n">
-        <v>-4.779</v>
+        <v>-3.15</v>
       </c>
       <c r="P190" s="1" t="n">
-        <v>-5.545999999999999</v>
+        <v>-1.63</v>
       </c>
       <c r="Q190" s="1" t="n"/>
       <c r="R190" s="1" t="n"/>
@@ -14345,19 +14345,19 @@
         <v>1</v>
       </c>
       <c r="U190" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V190" s="1" t="n">
-        <v>29.4</v>
+        <v>22.629</v>
       </c>
       <c r="W190" s="1" t="n">
-        <v>-4.542</v>
+        <v>-33.658</v>
       </c>
       <c r="X190" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y190" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z190" s="1" t="n"/>
       <c r="AA190" s="1" t="n"/>
@@ -14365,48 +14365,48 @@
     </row>
     <row r="191" spans="1:28">
       <c r="A191" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B191" s="1" t="n"/>
       <c r="C191" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>-3.15</v>
+        <v>1.354</v>
       </c>
       <c r="E191" s="1" t="n">
-        <v>-1.63</v>
+        <v>-5.36</v>
       </c>
       <c r="F191" s="1" t="n">
-        <v>1.634</v>
+        <v>4.892</v>
       </c>
       <c r="G191" s="1" t="n">
         <v>0.62</v>
       </c>
       <c r="H191" s="1" t="n">
-        <v>-3.967</v>
+        <v>-1.092</v>
       </c>
       <c r="I191" s="1" t="n">
-        <v>-2.333</v>
+        <v>3.8</v>
       </c>
       <c r="J191" s="1" t="n">
-        <v>-1.32</v>
+        <v>-5.050000000000001</v>
       </c>
       <c r="K191" s="1" t="n">
-        <v>-1.94</v>
+        <v>-5.67</v>
       </c>
       <c r="L191" s="1" t="n"/>
       <c r="M191" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N191" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O191" s="1" t="n">
-        <v>-3.15</v>
+        <v>1.354</v>
       </c>
       <c r="P191" s="1" t="n">
-        <v>-1.63</v>
+        <v>-1.444</v>
       </c>
       <c r="Q191" s="1" t="n"/>
       <c r="R191" s="1" t="n"/>
@@ -14414,22 +14414,22 @@
         <v>32</v>
       </c>
       <c r="T191" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U191" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V191" s="1" t="n">
-        <v>22.629</v>
+        <v>4.2</v>
       </c>
       <c r="W191" s="1" t="n">
-        <v>-33.658</v>
+        <v>-0.342</v>
       </c>
       <c r="X191" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y191" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z191" s="1" t="n"/>
       <c r="AA191" s="1" t="n"/>
@@ -14437,11 +14437,11 @@
     </row>
     <row r="192" spans="1:28">
       <c r="A192" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B192" s="1" t="n"/>
       <c r="C192" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>1.354</v>
@@ -14472,13 +14472,13 @@
         <v>0</v>
       </c>
       <c r="N192" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O192" s="1" t="n">
         <v>1.354</v>
       </c>
       <c r="P192" s="1" t="n">
-        <v>-1.444</v>
+        <v>-9.276</v>
       </c>
       <c r="Q192" s="1" t="n"/>
       <c r="R192" s="1" t="n"/>
@@ -14492,7 +14492,7 @@
         <v>8</v>
       </c>
       <c r="V192" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W192" s="1" t="n">
         <v>-0.342</v>
@@ -14509,48 +14509,48 @@
     </row>
     <row r="193" spans="1:28">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B193" s="1" t="n"/>
       <c r="C193" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>1.354</v>
+        <v>-6.45</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>-5.36</v>
+        <v>7</v>
       </c>
       <c r="F193" s="1" t="n">
-        <v>4.892</v>
+        <v>1.1</v>
       </c>
       <c r="G193" s="1" t="n">
-        <v>0.62</v>
+        <v>3.1</v>
       </c>
       <c r="H193" s="1" t="n">
-        <v>-1.092</v>
+        <v>-7</v>
       </c>
       <c r="I193" s="1" t="n">
-        <v>3.8</v>
+        <v>-5.9</v>
       </c>
       <c r="J193" s="1" t="n">
-        <v>-5.050000000000001</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K193" s="1" t="n">
-        <v>-5.67</v>
+        <v>5.45</v>
       </c>
       <c r="L193" s="1" t="n"/>
       <c r="M193" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N193" s="1" t="n">
-        <v>3.916</v>
+        <v>-0.013</v>
       </c>
       <c r="O193" s="1" t="n">
-        <v>1.354</v>
+        <v>-6.45</v>
       </c>
       <c r="P193" s="1" t="n">
-        <v>-9.276</v>
+        <v>7.013</v>
       </c>
       <c r="Q193" s="1" t="n"/>
       <c r="R193" s="1" t="n"/>
@@ -14558,71 +14558,73 @@
         <v>32</v>
       </c>
       <c r="T193" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U193" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W193" s="1" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="X193" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y193" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="U193" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V193" s="1" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="W193" s="1" t="n">
-        <v>-0.342</v>
-      </c>
-      <c r="X193" s="1" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Y193" s="1" t="n">
-        <v>8.4</v>
       </c>
       <c r="Z193" s="1" t="n"/>
       <c r="AA193" s="1" t="n"/>
-      <c r="AB193" s="1" t="s"/>
+      <c r="AB193" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="194" spans="1:28">
       <c r="A194" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B194" s="1" t="n"/>
       <c r="C194" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>-6.45</v>
+        <v>-1.8</v>
       </c>
       <c r="E194" s="1" t="n">
-        <v>7</v>
+        <v>-9.625</v>
       </c>
       <c r="F194" s="1" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="G194" s="1" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H194" s="1" t="n">
-        <v>-7</v>
+        <v>-5.1</v>
       </c>
       <c r="I194" s="1" t="n">
-        <v>-5.9</v>
+        <v>1.5</v>
       </c>
       <c r="J194" s="1" t="n">
-        <v>8.550000000000001</v>
+        <v>-8.975</v>
       </c>
       <c r="K194" s="1" t="n">
-        <v>5.45</v>
+        <v>-10.275</v>
       </c>
       <c r="L194" s="1" t="n"/>
       <c r="M194" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N194" s="1" t="n">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O194" s="1" t="n">
-        <v>-6.45</v>
+        <v>-1.8</v>
       </c>
       <c r="P194" s="1" t="n">
-        <v>7.013</v>
+        <v>-9.625</v>
       </c>
       <c r="Q194" s="1" t="n"/>
       <c r="R194" s="1" t="n"/>
@@ -14630,32 +14632,30 @@
         <v>32</v>
       </c>
       <c r="T194" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U194" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="V194" s="1" t="n">
-        <v>0</v>
+        <v>-3.85</v>
       </c>
       <c r="W194" s="1" t="n">
-        <v>-0.328</v>
+        <v>0</v>
       </c>
       <c r="X194" s="1" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="Y194" s="1" t="n">
-        <v>4</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="Z194" s="1" t="n"/>
       <c r="AA194" s="1" t="n"/>
-      <c r="AB194" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AB194" s="1" t="s"/>
     </row>
     <row r="195" spans="1:28">
       <c r="A195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B195" s="1" t="n"/>
       <c r="C195" s="1" t="s">
@@ -14724,7 +14724,7 @@
       <c r="Z195" s="1" t="n"/>
       <c r="AA195" s="1" t="n"/>
       <c r="AB195" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -16094,7 +16094,7 @@
       <c r="Z214" s="1" t="n"/>
       <c r="AA214" s="1" t="n"/>
       <c r="AB214" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -16456,7 +16456,7 @@
       <c r="Z219" s="1" t="n"/>
       <c r="AA219" s="1" t="n"/>
       <c r="AB219" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -16530,7 +16530,7 @@
       <c r="Z220" s="1" t="n"/>
       <c r="AA220" s="1" t="n"/>
       <c r="AB220" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -18414,22 +18414,22 @@
         <v>236</v>
       </c>
       <c r="D247" s="1" t="n">
-        <v>5.45</v>
+        <v>3.8</v>
       </c>
       <c r="E247" s="1" t="n">
         <v>10.25</v>
       </c>
       <c r="F247" s="1" t="n">
-        <v>10.1</v>
+        <v>6.8</v>
       </c>
       <c r="G247" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H247" s="1" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="I247" s="1" t="n">
-        <v>10.5</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J247" s="1" t="n">
         <v>11</v>
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="1" t="n">
-        <v>5.45</v>
+        <v>3.8</v>
       </c>
       <c r="P247" s="1" t="n">
         <v>10.25</v>
@@ -21343,7 +21343,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -22081,10 +22081,10 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>9</v>
@@ -22822,7 +22822,7 @@
         <v>205</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>9</v>

--- a/masks/code/TKIDModule_spreadsheet_20200602_AW_special.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200602_AW_special.xlsx
@@ -225,7 +225,7 @@
     <t>Capacitor_400_0MHz</t>
   </si>
   <si>
-    <t>0_TKIDModule_Capacitor_Reticle</t>
+    <t>0_TKIDModule_Capacitor_ReEtch_Reticle</t>
   </si>
   <si>
     <t>Capacitor_402_3MHz</t>
@@ -1235,7 +1235,7 @@
     <col customWidth="1" max="6" min="6" width="7"/>
     <col customWidth="1" max="7" min="7" width="7"/>
     <col customWidth="1" max="8" min="8" width="22"/>
-    <col customWidth="1" max="9" min="9" width="23"/>
+    <col customWidth="1" max="9" min="9" width="22"/>
     <col customWidth="1" max="10" min="10" width="22"/>
     <col customWidth="1" max="11" min="11" width="21"/>
     <col customWidth="1" max="12" min="12" width="6"/>
@@ -1245,7 +1245,7 @@
     <col customWidth="1" max="16" min="16" width="21"/>
     <col customWidth="1" max="17" min="17" width="6"/>
     <col customWidth="1" max="18" min="18" width="6"/>
-    <col customWidth="1" max="19" min="19" width="32"/>
+    <col customWidth="1" max="19" min="19" width="39"/>
     <col customWidth="1" max="20" min="20" width="6"/>
     <col customWidth="1" max="21" min="21" width="6"/>
     <col customWidth="1" max="22" min="22" width="9"/>
@@ -4940,28 +4940,28 @@
         <v>68</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.814</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>-9.475</v>
+        <v>-9.186</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n">
@@ -4971,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q60" s="1" t="n"/>
       <c r="R60" s="1" t="n"/>
@@ -5012,28 +5012,28 @@
         <v>70</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.814</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-8.186</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L61" s="1" t="n"/>
       <c r="M61" s="1" t="n">
@@ -5043,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q61" s="1" t="n"/>
       <c r="R61" s="1" t="n"/>
@@ -5084,28 +5084,28 @@
         <v>71</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.814</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>-7.375</v>
+        <v>-7.186</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L62" s="1" t="n"/>
       <c r="M62" s="1" t="n">
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q62" s="1" t="n"/>
       <c r="R62" s="1" t="n"/>
@@ -5156,28 +5156,28 @@
         <v>72</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.814</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-6.325</v>
+        <v>-6.186</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L63" s="1" t="n"/>
       <c r="M63" s="1" t="n">
@@ -5187,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q63" s="1" t="n"/>
       <c r="R63" s="1" t="n"/>
@@ -5228,28 +5228,28 @@
         <v>73</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.814</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>-5.275</v>
+        <v>-5.186</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L64" s="1" t="n"/>
       <c r="M64" s="1" t="n">
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
@@ -5300,28 +5300,28 @@
         <v>74</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.814</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.186</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L65" s="1" t="n"/>
       <c r="M65" s="1" t="n">
@@ -5331,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
@@ -5372,28 +5372,28 @@
         <v>75</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.814</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>-3.175</v>
+        <v>-3.186</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n">
@@ -5403,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
@@ -5444,28 +5444,28 @@
         <v>76</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.814</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>-2.125</v>
+        <v>-2.186</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L67" s="1" t="n"/>
       <c r="M67" s="1" t="n">
@@ -5475,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q67" s="1" t="n"/>
       <c r="R67" s="1" t="n"/>
@@ -5516,28 +5516,28 @@
         <v>77</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.814</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>-1.075</v>
+        <v>-1.186</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n">
@@ -5547,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
@@ -5588,28 +5588,28 @@
         <v>78</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>-1.025</v>
+        <v>-0.8140000000000001</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.186</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n">
@@ -5619,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
@@ -5660,28 +5660,28 @@
         <v>79</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>1.025</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n">
@@ -5691,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
@@ -5732,28 +5732,28 @@
         <v>80</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1.075</v>
+        <v>1.186</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>2.075</v>
+        <v>1.814</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n">
@@ -5763,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
@@ -5804,28 +5804,28 @@
         <v>81</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>2.125</v>
+        <v>2.186</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>3.125</v>
+        <v>2.814</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L72" s="1" t="n"/>
       <c r="M72" s="1" t="n">
@@ -5835,10 +5835,10 @@
         <v>0</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
@@ -5876,28 +5876,28 @@
         <v>82</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>3.175</v>
+        <v>3.186</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>4.175</v>
+        <v>3.814</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L73" s="1" t="n"/>
       <c r="M73" s="1" t="n">
@@ -5907,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
@@ -5948,28 +5948,28 @@
         <v>83</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>4.225</v>
+        <v>4.186</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>5.225</v>
+        <v>4.814</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n">
@@ -5979,10 +5979,10 @@
         <v>0</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q74" s="1" t="n"/>
       <c r="R74" s="1" t="n"/>
@@ -6020,28 +6020,28 @@
         <v>84</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>5.275</v>
+        <v>5.186</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>6.275</v>
+        <v>5.814</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
@@ -6051,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
@@ -6092,28 +6092,28 @@
         <v>85</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>6.325</v>
+        <v>6.186</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>7.325</v>
+        <v>6.814</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
@@ -6123,10 +6123,10 @@
         <v>0</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
@@ -6164,28 +6164,28 @@
         <v>86</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>7.375</v>
+        <v>7.186</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>8.375</v>
+        <v>7.814</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.589</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
@@ -6195,10 +6195,10 @@
         <v>0</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
@@ -6236,28 +6236,28 @@
         <v>87</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>8.186</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>8.814</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
@@ -6267,10 +6267,10 @@
         <v>0</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
@@ -6308,28 +6308,28 @@
         <v>88</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>9.475</v>
+        <v>9.186</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>10.475</v>
+        <v>9.814</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>-6.574999999999999</v>
+        <v>-6.599</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>-9.375</v>
+        <v>-9.010999999999999</v>
       </c>
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
@@ -6339,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>-7.975</v>
+        <v>-7.8</v>
       </c>
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
@@ -6380,28 +6380,28 @@
         <v>89</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.814</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>-9.475</v>
+        <v>-9.186</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n">
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
@@ -6452,28 +6452,28 @@
         <v>90</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.814</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-8.186</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L81" s="1" t="n"/>
       <c r="M81" s="1" t="n">
@@ -6483,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
@@ -6524,28 +6524,28 @@
         <v>91</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.814</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>-7.375</v>
+        <v>-7.186</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L82" s="1" t="n"/>
       <c r="M82" s="1" t="n">
@@ -6555,10 +6555,10 @@
         <v>0</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
@@ -6596,28 +6596,28 @@
         <v>92</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.814</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>-6.325</v>
+        <v>-6.186</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L83" s="1" t="n"/>
       <c r="M83" s="1" t="n">
@@ -6627,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
@@ -6668,28 +6668,28 @@
         <v>93</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.814</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>-5.275</v>
+        <v>-5.186</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L84" s="1" t="n"/>
       <c r="M84" s="1" t="n">
@@ -6699,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
@@ -6740,28 +6740,28 @@
         <v>94</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.814</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.186</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L85" s="1" t="n"/>
       <c r="M85" s="1" t="n">
@@ -6771,10 +6771,10 @@
         <v>0</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
@@ -6812,28 +6812,28 @@
         <v>95</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.814</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>-3.175</v>
+        <v>-3.186</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L86" s="1" t="n"/>
       <c r="M86" s="1" t="n">
@@ -6843,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
@@ -6884,28 +6884,28 @@
         <v>96</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.814</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>-2.125</v>
+        <v>-2.186</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L87" s="1" t="n"/>
       <c r="M87" s="1" t="n">
@@ -6915,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="O87" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
@@ -6956,28 +6956,28 @@
         <v>97</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.814</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>-1.075</v>
+        <v>-1.186</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L88" s="1" t="n"/>
       <c r="M88" s="1" t="n">
@@ -6987,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="O88" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q88" s="1" t="n"/>
       <c r="R88" s="1" t="n"/>
@@ -7028,28 +7028,28 @@
         <v>98</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>-1.025</v>
+        <v>-0.8140000000000001</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.186</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L89" s="1" t="n"/>
       <c r="M89" s="1" t="n">
@@ -7059,10 +7059,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q89" s="1" t="n"/>
       <c r="R89" s="1" t="n"/>
@@ -7100,28 +7100,28 @@
         <v>99</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>1.025</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L90" s="1" t="n"/>
       <c r="M90" s="1" t="n">
@@ -7131,10 +7131,10 @@
         <v>0</v>
       </c>
       <c r="O90" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q90" s="1" t="n"/>
       <c r="R90" s="1" t="n"/>
@@ -7172,28 +7172,28 @@
         <v>100</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1.075</v>
+        <v>1.186</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>2.075</v>
+        <v>1.814</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L91" s="1" t="n"/>
       <c r="M91" s="1" t="n">
@@ -7203,10 +7203,10 @@
         <v>0</v>
       </c>
       <c r="O91" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q91" s="1" t="n"/>
       <c r="R91" s="1" t="n"/>
@@ -7244,28 +7244,28 @@
         <v>101</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>2.125</v>
+        <v>2.186</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>3.125</v>
+        <v>2.814</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L92" s="1" t="n"/>
       <c r="M92" s="1" t="n">
@@ -7275,10 +7275,10 @@
         <v>0</v>
       </c>
       <c r="O92" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P92" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q92" s="1" t="n"/>
       <c r="R92" s="1" t="n"/>
@@ -7316,28 +7316,28 @@
         <v>102</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>3.175</v>
+        <v>3.186</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>4.175</v>
+        <v>3.814</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K93" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L93" s="1" t="n"/>
       <c r="M93" s="1" t="n">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="O93" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
@@ -7388,28 +7388,28 @@
         <v>103</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>4.225</v>
+        <v>4.186</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>5.225</v>
+        <v>4.814</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L94" s="1" t="n"/>
       <c r="M94" s="1" t="n">
@@ -7419,10 +7419,10 @@
         <v>0</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -7460,28 +7460,28 @@
         <v>104</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>5.275</v>
+        <v>5.186</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>6.275</v>
+        <v>5.814</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L95" s="1" t="n"/>
       <c r="M95" s="1" t="n">
@@ -7491,10 +7491,10 @@
         <v>0</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
@@ -7532,28 +7532,28 @@
         <v>105</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>6.325</v>
+        <v>6.186</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>7.325</v>
+        <v>6.814</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L96" s="1" t="n"/>
       <c r="M96" s="1" t="n">
@@ -7563,10 +7563,10 @@
         <v>0</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
@@ -7604,28 +7604,28 @@
         <v>106</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>7.375</v>
+        <v>7.186</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>8.375</v>
+        <v>7.814</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.789</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.201000000000001</v>
       </c>
       <c r="L97" s="1" t="n"/>
       <c r="M97" s="1" t="n">
@@ -7635,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q97" s="1" t="n"/>
       <c r="R97" s="1" t="n"/>
@@ -7676,28 +7676,28 @@
         <v>107</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>8.186</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>8.814</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L98" s="1" t="n"/>
       <c r="M98" s="1" t="n">
@@ -7707,10 +7707,10 @@
         <v>0</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
@@ -7748,28 +7748,28 @@
         <v>108</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>9.475</v>
+        <v>9.186</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>10.475</v>
+        <v>9.814</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>-3.725</v>
+        <v>-3.799</v>
       </c>
       <c r="K99" s="1" t="n">
-        <v>-6.525</v>
+        <v>-6.211</v>
       </c>
       <c r="L99" s="1" t="n"/>
       <c r="M99" s="1" t="n">
@@ -7779,10 +7779,10 @@
         <v>0</v>
       </c>
       <c r="O99" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5</v>
       </c>
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
@@ -7820,28 +7820,28 @@
         <v>109</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.814</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>-9.475</v>
+        <v>-9.186</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L100" s="1" t="n"/>
       <c r="M100" s="1" t="n">
@@ -7851,10 +7851,10 @@
         <v>0</v>
       </c>
       <c r="O100" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
@@ -7892,28 +7892,28 @@
         <v>110</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.814</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-8.186</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L101" s="1" t="n"/>
       <c r="M101" s="1" t="n">
@@ -7923,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="O101" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
@@ -7964,28 +7964,28 @@
         <v>111</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.814</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>-7.375</v>
+        <v>-7.186</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L102" s="1" t="n"/>
       <c r="M102" s="1" t="n">
@@ -7995,10 +7995,10 @@
         <v>0</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
@@ -8036,28 +8036,28 @@
         <v>112</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.814</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>-6.325</v>
+        <v>-6.186</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
@@ -8108,28 +8108,28 @@
         <v>113</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G104" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H104" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.814</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>-5.275</v>
+        <v>-5.186</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K104" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L104" s="1" t="n"/>
       <c r="M104" s="1" t="n">
@@ -8139,10 +8139,10 @@
         <v>0</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
@@ -8180,28 +8180,28 @@
         <v>114</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F105" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G105" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H105" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.814</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.186</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L105" s="1" t="n"/>
       <c r="M105" s="1" t="n">
@@ -8211,10 +8211,10 @@
         <v>0</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>
@@ -8252,28 +8252,28 @@
         <v>115</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.814</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>-3.175</v>
+        <v>-3.186</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K106" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L106" s="1" t="n"/>
       <c r="M106" s="1" t="n">
@@ -8283,10 +8283,10 @@
         <v>0</v>
       </c>
       <c r="O106" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q106" s="1" t="n"/>
       <c r="R106" s="1" t="n"/>
@@ -8324,28 +8324,28 @@
         <v>116</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.814</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>-2.125</v>
+        <v>-2.186</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K107" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L107" s="1" t="n"/>
       <c r="M107" s="1" t="n">
@@ -8355,10 +8355,10 @@
         <v>0</v>
       </c>
       <c r="O107" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q107" s="1" t="n"/>
       <c r="R107" s="1" t="n"/>
@@ -8396,28 +8396,28 @@
         <v>117</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.814</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>-1.075</v>
+        <v>-1.186</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L108" s="1" t="n"/>
       <c r="M108" s="1" t="n">
@@ -8427,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="O108" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q108" s="1" t="n"/>
       <c r="R108" s="1" t="n"/>
@@ -8468,28 +8468,28 @@
         <v>118</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>-1.025</v>
+        <v>-0.8140000000000001</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.186</v>
       </c>
       <c r="J109" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L109" s="1" t="n"/>
       <c r="M109" s="1" t="n">
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="O109" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q109" s="1" t="n"/>
       <c r="R109" s="1" t="n"/>
@@ -8540,28 +8540,28 @@
         <v>119</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F110" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>1.025</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L110" s="1" t="n"/>
       <c r="M110" s="1" t="n">
@@ -8571,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="O110" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q110" s="1" t="n"/>
       <c r="R110" s="1" t="n"/>
@@ -8612,28 +8612,28 @@
         <v>120</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F111" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G111" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H111" s="1" t="n">
-        <v>1.075</v>
+        <v>1.186</v>
       </c>
       <c r="I111" s="1" t="n">
-        <v>2.075</v>
+        <v>1.814</v>
       </c>
       <c r="J111" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L111" s="1" t="n"/>
       <c r="M111" s="1" t="n">
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="O111" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q111" s="1" t="n"/>
       <c r="R111" s="1" t="n"/>
@@ -8684,28 +8684,28 @@
         <v>121</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F112" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G112" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>2.125</v>
+        <v>2.186</v>
       </c>
       <c r="I112" s="1" t="n">
-        <v>3.125</v>
+        <v>2.814</v>
       </c>
       <c r="J112" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K112" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L112" s="1" t="n"/>
       <c r="M112" s="1" t="n">
@@ -8715,10 +8715,10 @@
         <v>0</v>
       </c>
       <c r="O112" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q112" s="1" t="n"/>
       <c r="R112" s="1" t="n"/>
@@ -8756,28 +8756,28 @@
         <v>122</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F113" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G113" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>3.175</v>
+        <v>3.186</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>4.175</v>
+        <v>3.814</v>
       </c>
       <c r="J113" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L113" s="1" t="n"/>
       <c r="M113" s="1" t="n">
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="O113" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="P113" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q113" s="1" t="n"/>
       <c r="R113" s="1" t="n"/>
@@ -8828,28 +8828,28 @@
         <v>123</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F114" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G114" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H114" s="1" t="n">
-        <v>4.225</v>
+        <v>4.186</v>
       </c>
       <c r="I114" s="1" t="n">
-        <v>5.225</v>
+        <v>4.814</v>
       </c>
       <c r="J114" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K114" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L114" s="1" t="n"/>
       <c r="M114" s="1" t="n">
@@ -8859,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="O114" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="P114" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q114" s="1" t="n"/>
       <c r="R114" s="1" t="n"/>
@@ -8900,28 +8900,28 @@
         <v>124</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F115" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G115" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H115" s="1" t="n">
-        <v>5.275</v>
+        <v>5.186</v>
       </c>
       <c r="I115" s="1" t="n">
-        <v>6.275</v>
+        <v>5.814</v>
       </c>
       <c r="J115" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K115" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L115" s="1" t="n"/>
       <c r="M115" s="1" t="n">
@@ -8931,10 +8931,10 @@
         <v>0</v>
       </c>
       <c r="O115" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="P115" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q115" s="1" t="n"/>
       <c r="R115" s="1" t="n"/>
@@ -8972,28 +8972,28 @@
         <v>125</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F116" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G116" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H116" s="1" t="n">
-        <v>6.325</v>
+        <v>6.186</v>
       </c>
       <c r="I116" s="1" t="n">
-        <v>7.325</v>
+        <v>6.814</v>
       </c>
       <c r="J116" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K116" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L116" s="1" t="n"/>
       <c r="M116" s="1" t="n">
@@ -9003,10 +9003,10 @@
         <v>0</v>
       </c>
       <c r="O116" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q116" s="1" t="n"/>
       <c r="R116" s="1" t="n"/>
@@ -9044,28 +9044,28 @@
         <v>126</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F117" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G117" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>7.375</v>
+        <v>7.186</v>
       </c>
       <c r="I117" s="1" t="n">
-        <v>8.375</v>
+        <v>7.814</v>
       </c>
       <c r="J117" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9890000000000001</v>
       </c>
       <c r="K117" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.401</v>
       </c>
       <c r="L117" s="1" t="n"/>
       <c r="M117" s="1" t="n">
@@ -9075,10 +9075,10 @@
         <v>0</v>
       </c>
       <c r="O117" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q117" s="1" t="n"/>
       <c r="R117" s="1" t="n"/>
@@ -9116,28 +9116,28 @@
         <v>127</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F118" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G118" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H118" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>8.186</v>
       </c>
       <c r="I118" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>8.814</v>
       </c>
       <c r="J118" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K118" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L118" s="1" t="n"/>
       <c r="M118" s="1" t="n">
@@ -9147,10 +9147,10 @@
         <v>0</v>
       </c>
       <c r="O118" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q118" s="1" t="n"/>
       <c r="R118" s="1" t="n"/>
@@ -9188,28 +9188,28 @@
         <v>128</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="F119" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G119" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H119" s="1" t="n">
-        <v>9.475</v>
+        <v>9.186</v>
       </c>
       <c r="I119" s="1" t="n">
-        <v>10.475</v>
+        <v>9.814</v>
       </c>
       <c r="J119" s="1" t="n">
-        <v>-0.875</v>
+        <v>-0.9990000000000001</v>
       </c>
       <c r="K119" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.411</v>
       </c>
       <c r="L119" s="1" t="n"/>
       <c r="M119" s="1" t="n">
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="O119" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="P119" s="1" t="n">
-        <v>-2.275</v>
+        <v>-2.2</v>
       </c>
       <c r="Q119" s="1" t="n"/>
       <c r="R119" s="1" t="n"/>
@@ -9260,28 +9260,28 @@
         <v>129</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F120" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G120" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H120" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.814</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>-9.475</v>
+        <v>-9.186</v>
       </c>
       <c r="J120" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K120" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L120" s="1" t="n"/>
       <c r="M120" s="1" t="n">
@@ -9291,10 +9291,10 @@
         <v>0</v>
       </c>
       <c r="O120" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="P120" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q120" s="1" t="n"/>
       <c r="R120" s="1" t="n"/>
@@ -9332,28 +9332,28 @@
         <v>130</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F121" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H121" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.814</v>
       </c>
       <c r="I121" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-8.186</v>
       </c>
       <c r="J121" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K121" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L121" s="1" t="n"/>
       <c r="M121" s="1" t="n">
@@ -9363,10 +9363,10 @@
         <v>0</v>
       </c>
       <c r="O121" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q121" s="1" t="n"/>
       <c r="R121" s="1" t="n"/>
@@ -9404,28 +9404,28 @@
         <v>131</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F122" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G122" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H122" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.814</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>-7.375</v>
+        <v>-7.186</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K122" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L122" s="1" t="n"/>
       <c r="M122" s="1" t="n">
@@ -9435,10 +9435,10 @@
         <v>0</v>
       </c>
       <c r="O122" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q122" s="1" t="n"/>
       <c r="R122" s="1" t="n"/>
@@ -9476,28 +9476,28 @@
         <v>132</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F123" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G123" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H123" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.814</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>-6.325</v>
+        <v>-6.186</v>
       </c>
       <c r="J123" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K123" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L123" s="1" t="n"/>
       <c r="M123" s="1" t="n">
@@ -9507,10 +9507,10 @@
         <v>0</v>
       </c>
       <c r="O123" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q123" s="1" t="n"/>
       <c r="R123" s="1" t="n"/>
@@ -9548,28 +9548,28 @@
         <v>133</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F124" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G124" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H124" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.814</v>
       </c>
       <c r="I124" s="1" t="n">
-        <v>-5.275</v>
+        <v>-5.186</v>
       </c>
       <c r="J124" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K124" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L124" s="1" t="n"/>
       <c r="M124" s="1" t="n">
@@ -9579,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="O124" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="P124" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q124" s="1" t="n"/>
       <c r="R124" s="1" t="n"/>
@@ -9620,28 +9620,28 @@
         <v>134</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F125" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G125" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H125" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.814</v>
       </c>
       <c r="I125" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.186</v>
       </c>
       <c r="J125" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K125" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L125" s="1" t="n"/>
       <c r="M125" s="1" t="n">
@@ -9651,10 +9651,10 @@
         <v>0</v>
       </c>
       <c r="O125" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="P125" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q125" s="1" t="n"/>
       <c r="R125" s="1" t="n"/>
@@ -9692,28 +9692,28 @@
         <v>135</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F126" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H126" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.814</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>-3.175</v>
+        <v>-3.186</v>
       </c>
       <c r="J126" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K126" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L126" s="1" t="n"/>
       <c r="M126" s="1" t="n">
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="O126" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="P126" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q126" s="1" t="n"/>
       <c r="R126" s="1" t="n"/>
@@ -9764,28 +9764,28 @@
         <v>136</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F127" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G127" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H127" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.814</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>-2.125</v>
+        <v>-2.186</v>
       </c>
       <c r="J127" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K127" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L127" s="1" t="n"/>
       <c r="M127" s="1" t="n">
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="O127" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="P127" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q127" s="1" t="n"/>
       <c r="R127" s="1" t="n"/>
@@ -9836,28 +9836,28 @@
         <v>137</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F128" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G128" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H128" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.814</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>-1.075</v>
+        <v>-1.186</v>
       </c>
       <c r="J128" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K128" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L128" s="1" t="n"/>
       <c r="M128" s="1" t="n">
@@ -9867,10 +9867,10 @@
         <v>0</v>
       </c>
       <c r="O128" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q128" s="1" t="n"/>
       <c r="R128" s="1" t="n"/>
@@ -9908,28 +9908,28 @@
         <v>138</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F129" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G129" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H129" s="1" t="n">
-        <v>-1.025</v>
+        <v>-0.8140000000000001</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.186</v>
       </c>
       <c r="J129" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K129" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L129" s="1" t="n"/>
       <c r="M129" s="1" t="n">
@@ -9939,10 +9939,10 @@
         <v>0</v>
       </c>
       <c r="O129" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="P129" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q129" s="1" t="n"/>
       <c r="R129" s="1" t="n"/>
@@ -9980,28 +9980,28 @@
         <v>139</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F130" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G130" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>1.025</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="J130" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K130" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L130" s="1" t="n"/>
       <c r="M130" s="1" t="n">
@@ -10011,10 +10011,10 @@
         <v>0</v>
       </c>
       <c r="O130" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q130" s="1" t="n"/>
       <c r="R130" s="1" t="n"/>
@@ -10052,28 +10052,28 @@
         <v>140</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F131" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H131" s="1" t="n">
-        <v>1.075</v>
+        <v>1.186</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>2.075</v>
+        <v>1.814</v>
       </c>
       <c r="J131" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K131" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L131" s="1" t="n"/>
       <c r="M131" s="1" t="n">
@@ -10083,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="O131" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="P131" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q131" s="1" t="n"/>
       <c r="R131" s="1" t="n"/>
@@ -10124,28 +10124,28 @@
         <v>141</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F132" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H132" s="1" t="n">
-        <v>2.125</v>
+        <v>2.186</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>3.125</v>
+        <v>2.814</v>
       </c>
       <c r="J132" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K132" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L132" s="1" t="n"/>
       <c r="M132" s="1" t="n">
@@ -10155,10 +10155,10 @@
         <v>0</v>
       </c>
       <c r="O132" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P132" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q132" s="1" t="n"/>
       <c r="R132" s="1" t="n"/>
@@ -10196,28 +10196,28 @@
         <v>142</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F133" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G133" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H133" s="1" t="n">
-        <v>3.175</v>
+        <v>3.186</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>4.175</v>
+        <v>3.814</v>
       </c>
       <c r="J133" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K133" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L133" s="1" t="n"/>
       <c r="M133" s="1" t="n">
@@ -10227,10 +10227,10 @@
         <v>0</v>
       </c>
       <c r="O133" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="P133" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q133" s="1" t="n"/>
       <c r="R133" s="1" t="n"/>
@@ -10268,28 +10268,28 @@
         <v>143</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F134" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G134" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H134" s="1" t="n">
-        <v>4.225</v>
+        <v>4.186</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>5.225</v>
+        <v>4.814</v>
       </c>
       <c r="J134" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K134" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L134" s="1" t="n"/>
       <c r="M134" s="1" t="n">
@@ -10299,10 +10299,10 @@
         <v>0</v>
       </c>
       <c r="O134" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="P134" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q134" s="1" t="n"/>
       <c r="R134" s="1" t="n"/>
@@ -10340,28 +10340,28 @@
         <v>144</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F135" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G135" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H135" s="1" t="n">
-        <v>5.275</v>
+        <v>5.186</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>6.275</v>
+        <v>5.814</v>
       </c>
       <c r="J135" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K135" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L135" s="1" t="n"/>
       <c r="M135" s="1" t="n">
@@ -10371,10 +10371,10 @@
         <v>0</v>
       </c>
       <c r="O135" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="P135" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q135" s="1" t="n"/>
       <c r="R135" s="1" t="n"/>
@@ -10412,28 +10412,28 @@
         <v>145</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F136" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H136" s="1" t="n">
-        <v>6.325</v>
+        <v>6.186</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>7.325</v>
+        <v>6.814</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L136" s="1" t="n"/>
       <c r="M136" s="1" t="n">
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q136" s="1" t="n"/>
       <c r="R136" s="1" t="n"/>
@@ -10484,28 +10484,28 @@
         <v>146</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>7.375</v>
+        <v>7.186</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>8.375</v>
+        <v>7.814</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>1.975</v>
+        <v>1.811</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6010000000000001</v>
       </c>
       <c r="L137" s="1" t="n"/>
       <c r="M137" s="1" t="n">
@@ -10515,10 +10515,10 @@
         <v>0</v>
       </c>
       <c r="O137" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="P137" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q137" s="1" t="n"/>
       <c r="R137" s="1" t="n"/>
@@ -10556,28 +10556,28 @@
         <v>147</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>8.186</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>8.814</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L138" s="1" t="n"/>
       <c r="M138" s="1" t="n">
@@ -10587,10 +10587,10 @@
         <v>0</v>
       </c>
       <c r="O138" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="P138" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q138" s="1" t="n"/>
       <c r="R138" s="1" t="n"/>
@@ -10628,28 +10628,28 @@
         <v>148</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="F139" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G139" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>9.475</v>
+        <v>9.186</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>10.475</v>
+        <v>9.814</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>1.975</v>
+        <v>1.801</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>-0.825</v>
+        <v>-0.6110000000000001</v>
       </c>
       <c r="L139" s="1" t="n"/>
       <c r="M139" s="1" t="n">
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="P139" s="1" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="Q139" s="1" t="n"/>
       <c r="R139" s="1" t="n"/>
@@ -10700,28 +10700,28 @@
         <v>149</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H140" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.814</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>-9.475</v>
+        <v>-9.186</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L140" s="1" t="n"/>
       <c r="M140" s="1" t="n">
@@ -10731,10 +10731,10 @@
         <v>0</v>
       </c>
       <c r="O140" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="P140" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q140" s="1" t="n"/>
       <c r="R140" s="1" t="n"/>
@@ -10772,28 +10772,28 @@
         <v>150</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G141" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.814</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-8.186</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L141" s="1" t="n"/>
       <c r="M141" s="1" t="n">
@@ -10803,10 +10803,10 @@
         <v>0</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="P141" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q141" s="1" t="n"/>
       <c r="R141" s="1" t="n"/>
@@ -10844,28 +10844,28 @@
         <v>151</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.814</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>-7.375</v>
+        <v>-7.186</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L142" s="1" t="n"/>
       <c r="M142" s="1" t="n">
@@ -10875,10 +10875,10 @@
         <v>0</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="P142" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q142" s="1" t="n"/>
       <c r="R142" s="1" t="n"/>
@@ -10916,28 +10916,28 @@
         <v>152</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.814</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>-6.325</v>
+        <v>-6.186</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L143" s="1" t="n"/>
       <c r="M143" s="1" t="n">
@@ -10947,10 +10947,10 @@
         <v>0</v>
       </c>
       <c r="O143" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="P143" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q143" s="1" t="n"/>
       <c r="R143" s="1" t="n"/>
@@ -10988,28 +10988,28 @@
         <v>153</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F144" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.814</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>-5.275</v>
+        <v>-5.186</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L144" s="1" t="n"/>
       <c r="M144" s="1" t="n">
@@ -11019,10 +11019,10 @@
         <v>0</v>
       </c>
       <c r="O144" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="P144" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q144" s="1" t="n"/>
       <c r="R144" s="1" t="n"/>
@@ -11060,28 +11060,28 @@
         <v>154</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.814</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.186</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L145" s="1" t="n"/>
       <c r="M145" s="1" t="n">
@@ -11091,10 +11091,10 @@
         <v>0</v>
       </c>
       <c r="O145" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="P145" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q145" s="1" t="n"/>
       <c r="R145" s="1" t="n"/>
@@ -11132,28 +11132,28 @@
         <v>155</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.814</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>-3.175</v>
+        <v>-3.186</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L146" s="1" t="n"/>
       <c r="M146" s="1" t="n">
@@ -11163,10 +11163,10 @@
         <v>0</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="P146" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q146" s="1" t="n"/>
       <c r="R146" s="1" t="n"/>
@@ -11204,28 +11204,28 @@
         <v>156</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.814</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>-2.125</v>
+        <v>-2.186</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L147" s="1" t="n"/>
       <c r="M147" s="1" t="n">
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="P147" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q147" s="1" t="n"/>
       <c r="R147" s="1" t="n"/>
@@ -11276,28 +11276,28 @@
         <v>157</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F148" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.814</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>-1.075</v>
+        <v>-1.186</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L148" s="1" t="n"/>
       <c r="M148" s="1" t="n">
@@ -11307,10 +11307,10 @@
         <v>0</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="P148" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q148" s="1" t="n"/>
       <c r="R148" s="1" t="n"/>
@@ -11348,28 +11348,28 @@
         <v>158</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F149" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>-1.025</v>
+        <v>-0.8140000000000001</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.186</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L149" s="1" t="n"/>
       <c r="M149" s="1" t="n">
@@ -11379,10 +11379,10 @@
         <v>0</v>
       </c>
       <c r="O149" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="P149" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q149" s="1" t="n"/>
       <c r="R149" s="1" t="n"/>
@@ -11420,28 +11420,28 @@
         <v>159</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>1.025</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L150" s="1" t="n"/>
       <c r="M150" s="1" t="n">
@@ -11451,10 +11451,10 @@
         <v>0</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="P150" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q150" s="1" t="n"/>
       <c r="R150" s="1" t="n"/>
@@ -11492,28 +11492,28 @@
         <v>160</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>1.075</v>
+        <v>1.186</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>2.075</v>
+        <v>1.814</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L151" s="1" t="n"/>
       <c r="M151" s="1" t="n">
@@ -11523,10 +11523,10 @@
         <v>0</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="P151" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q151" s="1" t="n"/>
       <c r="R151" s="1" t="n"/>
@@ -11564,28 +11564,28 @@
         <v>161</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F152" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>2.125</v>
+        <v>2.186</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>3.125</v>
+        <v>2.814</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L152" s="1" t="n"/>
       <c r="M152" s="1" t="n">
@@ -11595,10 +11595,10 @@
         <v>0</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P152" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q152" s="1" t="n"/>
       <c r="R152" s="1" t="n"/>
@@ -11636,28 +11636,28 @@
         <v>162</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>3.175</v>
+        <v>3.186</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>4.175</v>
+        <v>3.814</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L153" s="1" t="n"/>
       <c r="M153" s="1" t="n">
@@ -11667,10 +11667,10 @@
         <v>0</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="P153" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q153" s="1" t="n"/>
       <c r="R153" s="1" t="n"/>
@@ -11708,28 +11708,28 @@
         <v>163</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>4.225</v>
+        <v>4.186</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>5.225</v>
+        <v>4.814</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L154" s="1" t="n"/>
       <c r="M154" s="1" t="n">
@@ -11739,10 +11739,10 @@
         <v>0</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="P154" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q154" s="1" t="n"/>
       <c r="R154" s="1" t="n"/>
@@ -11780,28 +11780,28 @@
         <v>164</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>5.275</v>
+        <v>5.186</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>6.275</v>
+        <v>5.814</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L155" s="1" t="n"/>
       <c r="M155" s="1" t="n">
@@ -11811,10 +11811,10 @@
         <v>0</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="P155" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q155" s="1" t="n"/>
       <c r="R155" s="1" t="n"/>
@@ -11852,28 +11852,28 @@
         <v>165</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>6.325</v>
+        <v>6.186</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>7.325</v>
+        <v>6.814</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L156" s="1" t="n"/>
       <c r="M156" s="1" t="n">
@@ -11883,10 +11883,10 @@
         <v>0</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="P156" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q156" s="1" t="n"/>
       <c r="R156" s="1" t="n"/>
@@ -11924,28 +11924,28 @@
         <v>166</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>7.375</v>
+        <v>7.186</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>8.375</v>
+        <v>7.814</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.611</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>2.025</v>
+        <v>2.199</v>
       </c>
       <c r="L157" s="1" t="n"/>
       <c r="M157" s="1" t="n">
@@ -11955,10 +11955,10 @@
         <v>0</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="P157" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q157" s="1" t="n"/>
       <c r="R157" s="1" t="n"/>
@@ -11996,28 +11996,28 @@
         <v>167</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="E158" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F158" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G158" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H158" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>8.186</v>
       </c>
       <c r="I158" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>8.814</v>
       </c>
       <c r="J158" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K158" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L158" s="1" t="n"/>
       <c r="M158" s="1" t="n">
@@ -12027,10 +12027,10 @@
         <v>0</v>
       </c>
       <c r="O158" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="P158" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q158" s="1" t="n"/>
       <c r="R158" s="1" t="n"/>
@@ -12068,28 +12068,28 @@
         <v>168</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="E159" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="F159" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G159" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H159" s="1" t="n">
-        <v>9.475</v>
+        <v>9.186</v>
       </c>
       <c r="I159" s="1" t="n">
-        <v>10.475</v>
+        <v>9.814</v>
       </c>
       <c r="J159" s="1" t="n">
-        <v>4.824999999999999</v>
+        <v>4.601</v>
       </c>
       <c r="K159" s="1" t="n">
-        <v>2.025</v>
+        <v>2.189</v>
       </c>
       <c r="L159" s="1" t="n"/>
       <c r="M159" s="1" t="n">
@@ -12099,10 +12099,10 @@
         <v>0</v>
       </c>
       <c r="O159" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="P159" s="1" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
       <c r="Q159" s="1" t="n"/>
       <c r="R159" s="1" t="n"/>
@@ -12140,28 +12140,28 @@
         <v>169</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F160" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H160" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.814</v>
       </c>
       <c r="I160" s="1" t="n">
-        <v>-9.475</v>
+        <v>-9.186</v>
       </c>
       <c r="J160" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K160" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L160" s="1" t="n"/>
       <c r="M160" s="1" t="n">
@@ -12171,10 +12171,10 @@
         <v>0</v>
       </c>
       <c r="O160" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="P160" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q160" s="1" t="n"/>
       <c r="R160" s="1" t="n"/>
@@ -12212,28 +12212,28 @@
         <v>170</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F161" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G161" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H161" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.814</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-8.186</v>
       </c>
       <c r="J161" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K161" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L161" s="1" t="n"/>
       <c r="M161" s="1" t="n">
@@ -12243,10 +12243,10 @@
         <v>0</v>
       </c>
       <c r="O161" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="P161" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q161" s="1" t="n"/>
       <c r="R161" s="1" t="n"/>
@@ -12284,28 +12284,28 @@
         <v>171</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="E162" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F162" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G162" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H162" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.814</v>
       </c>
       <c r="I162" s="1" t="n">
-        <v>-7.375</v>
+        <v>-7.186</v>
       </c>
       <c r="J162" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K162" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L162" s="1" t="n"/>
       <c r="M162" s="1" t="n">
@@ -12315,10 +12315,10 @@
         <v>0</v>
       </c>
       <c r="O162" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="P162" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q162" s="1" t="n"/>
       <c r="R162" s="1" t="n"/>
@@ -12356,28 +12356,28 @@
         <v>172</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F163" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G163" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H163" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.814</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>-6.325</v>
+        <v>-6.186</v>
       </c>
       <c r="J163" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K163" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L163" s="1" t="n"/>
       <c r="M163" s="1" t="n">
@@ -12387,10 +12387,10 @@
         <v>0</v>
       </c>
       <c r="O163" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="P163" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q163" s="1" t="n"/>
       <c r="R163" s="1" t="n"/>
@@ -12428,28 +12428,28 @@
         <v>173</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="E164" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F164" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G164" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H164" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.814</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>-5.275</v>
+        <v>-5.186</v>
       </c>
       <c r="J164" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K164" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L164" s="1" t="n"/>
       <c r="M164" s="1" t="n">
@@ -12459,10 +12459,10 @@
         <v>0</v>
       </c>
       <c r="O164" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="P164" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q164" s="1" t="n"/>
       <c r="R164" s="1" t="n"/>
@@ -12500,28 +12500,28 @@
         <v>174</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F165" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G165" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H165" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.814</v>
       </c>
       <c r="I165" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.186</v>
       </c>
       <c r="J165" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K165" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L165" s="1" t="n"/>
       <c r="M165" s="1" t="n">
@@ -12531,10 +12531,10 @@
         <v>0</v>
       </c>
       <c r="O165" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="P165" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q165" s="1" t="n"/>
       <c r="R165" s="1" t="n"/>
@@ -12572,28 +12572,28 @@
         <v>175</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F166" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G166" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H166" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.814</v>
       </c>
       <c r="I166" s="1" t="n">
-        <v>-3.175</v>
+        <v>-3.186</v>
       </c>
       <c r="J166" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K166" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L166" s="1" t="n"/>
       <c r="M166" s="1" t="n">
@@ -12603,10 +12603,10 @@
         <v>0</v>
       </c>
       <c r="O166" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="P166" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q166" s="1" t="n"/>
       <c r="R166" s="1" t="n"/>
@@ -12644,28 +12644,28 @@
         <v>176</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F167" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G167" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H167" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.814</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>-2.125</v>
+        <v>-2.186</v>
       </c>
       <c r="J167" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K167" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L167" s="1" t="n"/>
       <c r="M167" s="1" t="n">
@@ -12675,10 +12675,10 @@
         <v>0</v>
       </c>
       <c r="O167" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="P167" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q167" s="1" t="n"/>
       <c r="R167" s="1" t="n"/>
@@ -12716,28 +12716,28 @@
         <v>177</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F168" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G168" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H168" s="1" t="n">
-        <v>-2.075</v>
+        <v>-1.814</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>-1.075</v>
+        <v>-1.186</v>
       </c>
       <c r="J168" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K168" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L168" s="1" t="n"/>
       <c r="M168" s="1" t="n">
@@ -12747,10 +12747,10 @@
         <v>0</v>
       </c>
       <c r="O168" s="1" t="n">
-        <v>-1.575</v>
+        <v>-1.5</v>
       </c>
       <c r="P168" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q168" s="1" t="n"/>
       <c r="R168" s="1" t="n"/>
@@ -12788,28 +12788,28 @@
         <v>178</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F169" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G169" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H169" s="1" t="n">
-        <v>-1.025</v>
+        <v>-0.8140000000000001</v>
       </c>
       <c r="I169" s="1" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.186</v>
       </c>
       <c r="J169" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K169" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L169" s="1" t="n"/>
       <c r="M169" s="1" t="n">
@@ -12819,10 +12819,10 @@
         <v>0</v>
       </c>
       <c r="O169" s="1" t="n">
-        <v>-0.525</v>
+        <v>-0.5</v>
       </c>
       <c r="P169" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q169" s="1" t="n"/>
       <c r="R169" s="1" t="n"/>
@@ -12860,28 +12860,28 @@
         <v>179</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="E170" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F170" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G170" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H170" s="1" t="n">
-        <v>0.02500000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="I170" s="1" t="n">
-        <v>1.025</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="J170" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K170" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L170" s="1" t="n"/>
       <c r="M170" s="1" t="n">
@@ -12891,10 +12891,10 @@
         <v>0</v>
       </c>
       <c r="O170" s="1" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="P170" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q170" s="1" t="n"/>
       <c r="R170" s="1" t="n"/>
@@ -12932,28 +12932,28 @@
         <v>180</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="E171" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F171" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G171" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H171" s="1" t="n">
-        <v>1.075</v>
+        <v>1.186</v>
       </c>
       <c r="I171" s="1" t="n">
-        <v>2.075</v>
+        <v>1.814</v>
       </c>
       <c r="J171" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K171" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L171" s="1" t="n"/>
       <c r="M171" s="1" t="n">
@@ -12963,10 +12963,10 @@
         <v>0</v>
       </c>
       <c r="O171" s="1" t="n">
-        <v>1.575</v>
+        <v>1.5</v>
       </c>
       <c r="P171" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q171" s="1" t="n"/>
       <c r="R171" s="1" t="n"/>
@@ -13004,28 +13004,28 @@
         <v>181</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="E172" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F172" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G172" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H172" s="1" t="n">
-        <v>2.125</v>
+        <v>2.186</v>
       </c>
       <c r="I172" s="1" t="n">
-        <v>3.125</v>
+        <v>2.814</v>
       </c>
       <c r="J172" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K172" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L172" s="1" t="n"/>
       <c r="M172" s="1" t="n">
@@ -13035,10 +13035,10 @@
         <v>0</v>
       </c>
       <c r="O172" s="1" t="n">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P172" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q172" s="1" t="n"/>
       <c r="R172" s="1" t="n"/>
@@ -13076,28 +13076,28 @@
         <v>182</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="E173" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F173" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G173" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H173" s="1" t="n">
-        <v>3.175</v>
+        <v>3.186</v>
       </c>
       <c r="I173" s="1" t="n">
-        <v>4.175</v>
+        <v>3.814</v>
       </c>
       <c r="J173" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K173" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L173" s="1" t="n"/>
       <c r="M173" s="1" t="n">
@@ -13107,10 +13107,10 @@
         <v>0</v>
       </c>
       <c r="O173" s="1" t="n">
-        <v>3.675</v>
+        <v>3.5</v>
       </c>
       <c r="P173" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q173" s="1" t="n"/>
       <c r="R173" s="1" t="n"/>
@@ -13148,28 +13148,28 @@
         <v>183</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="E174" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F174" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G174" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H174" s="1" t="n">
-        <v>4.225</v>
+        <v>4.186</v>
       </c>
       <c r="I174" s="1" t="n">
-        <v>5.225</v>
+        <v>4.814</v>
       </c>
       <c r="J174" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K174" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L174" s="1" t="n"/>
       <c r="M174" s="1" t="n">
@@ -13179,10 +13179,10 @@
         <v>0</v>
       </c>
       <c r="O174" s="1" t="n">
-        <v>4.725</v>
+        <v>4.5</v>
       </c>
       <c r="P174" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q174" s="1" t="n"/>
       <c r="R174" s="1" t="n"/>
@@ -13220,28 +13220,28 @@
         <v>184</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="E175" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F175" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G175" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H175" s="1" t="n">
-        <v>5.275</v>
+        <v>5.186</v>
       </c>
       <c r="I175" s="1" t="n">
-        <v>6.275</v>
+        <v>5.814</v>
       </c>
       <c r="J175" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K175" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L175" s="1" t="n"/>
       <c r="M175" s="1" t="n">
@@ -13251,10 +13251,10 @@
         <v>0</v>
       </c>
       <c r="O175" s="1" t="n">
-        <v>5.775</v>
+        <v>5.5</v>
       </c>
       <c r="P175" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q175" s="1" t="n"/>
       <c r="R175" s="1" t="n"/>
@@ -13292,28 +13292,28 @@
         <v>185</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F176" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G176" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H176" s="1" t="n">
-        <v>6.325</v>
+        <v>6.186</v>
       </c>
       <c r="I176" s="1" t="n">
-        <v>7.325</v>
+        <v>6.814</v>
       </c>
       <c r="J176" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K176" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L176" s="1" t="n"/>
       <c r="M176" s="1" t="n">
@@ -13323,10 +13323,10 @@
         <v>0</v>
       </c>
       <c r="O176" s="1" t="n">
-        <v>6.825</v>
+        <v>6.5</v>
       </c>
       <c r="P176" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q176" s="1" t="n"/>
       <c r="R176" s="1" t="n"/>
@@ -13364,28 +13364,28 @@
         <v>186</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F177" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G177" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H177" s="1" t="n">
-        <v>7.375</v>
+        <v>7.186</v>
       </c>
       <c r="I177" s="1" t="n">
-        <v>8.375</v>
+        <v>7.814</v>
       </c>
       <c r="J177" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.411</v>
       </c>
       <c r="K177" s="1" t="n">
-        <v>4.875</v>
+        <v>4.999000000000001</v>
       </c>
       <c r="L177" s="1" t="n"/>
       <c r="M177" s="1" t="n">
@@ -13395,10 +13395,10 @@
         <v>0</v>
       </c>
       <c r="O177" s="1" t="n">
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="P177" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q177" s="1" t="n"/>
       <c r="R177" s="1" t="n"/>
@@ -13436,28 +13436,28 @@
         <v>187</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="E178" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F178" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G178" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H178" s="1" t="n">
-        <v>8.425000000000001</v>
+        <v>8.186</v>
       </c>
       <c r="I178" s="1" t="n">
-        <v>9.425000000000001</v>
+        <v>8.814</v>
       </c>
       <c r="J178" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K178" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L178" s="1" t="n"/>
       <c r="M178" s="1" t="n">
@@ -13467,10 +13467,10 @@
         <v>0</v>
       </c>
       <c r="O178" s="1" t="n">
-        <v>8.925000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="P178" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q178" s="1" t="n"/>
       <c r="R178" s="1" t="n"/>
@@ -13508,28 +13508,28 @@
         <v>188</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="E179" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="F179" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G179" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H179" s="1" t="n">
-        <v>9.475</v>
+        <v>9.186</v>
       </c>
       <c r="I179" s="1" t="n">
-        <v>10.475</v>
+        <v>9.814</v>
       </c>
       <c r="J179" s="1" t="n">
-        <v>7.675000000000001</v>
+        <v>7.401</v>
       </c>
       <c r="K179" s="1" t="n">
-        <v>4.875</v>
+        <v>4.989</v>
       </c>
       <c r="L179" s="1" t="n"/>
       <c r="M179" s="1" t="n">
@@ -13539,10 +13539,10 @@
         <v>0</v>
       </c>
       <c r="O179" s="1" t="n">
-        <v>9.975</v>
+        <v>9.5</v>
       </c>
       <c r="P179" s="1" t="n">
-        <v>6.275</v>
+        <v>6.2</v>
       </c>
       <c r="Q179" s="1" t="n"/>
       <c r="R179" s="1" t="n"/>
@@ -13580,28 +13580,28 @@
         <v>189</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="E180" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="F180" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G180" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H180" s="1" t="n">
-        <v>-10.475</v>
+        <v>-9.814</v>
       </c>
       <c r="I180" s="1" t="n">
-        <v>-9.475</v>
+        <v>-9.186</v>
       </c>
       <c r="J180" s="1" t="n">
-        <v>10.525</v>
+        <v>10.211</v>
       </c>
       <c r="K180" s="1" t="n">
-        <v>7.725</v>
+        <v>7.798999999999999</v>
       </c>
       <c r="L180" s="1" t="n"/>
       <c r="M180" s="1" t="n">
@@ -13611,10 +13611,10 @@
         <v>0</v>
       </c>
       <c r="O180" s="1" t="n">
-        <v>-9.975</v>
+        <v>-9.5</v>
       </c>
       <c r="P180" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q180" s="1" t="n"/>
       <c r="R180" s="1" t="n"/>
@@ -13652,28 +13652,28 @@
         <v>190</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="E181" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="F181" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G181" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H181" s="1" t="n">
-        <v>-9.425000000000001</v>
+        <v>-8.814</v>
       </c>
       <c r="I181" s="1" t="n">
-        <v>-8.425000000000001</v>
+        <v>-8.186</v>
       </c>
       <c r="J181" s="1" t="n">
-        <v>10.525</v>
+        <v>10.211</v>
       </c>
       <c r="K181" s="1" t="n">
-        <v>7.725</v>
+        <v>7.798999999999999</v>
       </c>
       <c r="L181" s="1" t="n"/>
       <c r="M181" s="1" t="n">
@@ -13683,10 +13683,10 @@
         <v>0</v>
       </c>
       <c r="O181" s="1" t="n">
-        <v>-8.925000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="P181" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q181" s="1" t="n"/>
       <c r="R181" s="1" t="n"/>
@@ -13724,28 +13724,28 @@
         <v>191</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="E182" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="F182" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G182" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H182" s="1" t="n">
-        <v>-8.375</v>
+        <v>-7.814</v>
       </c>
       <c r="I182" s="1" t="n">
-        <v>-7.375</v>
+        <v>-7.186</v>
       </c>
       <c r="J182" s="1" t="n">
-        <v>10.525</v>
+        <v>10.201</v>
       </c>
       <c r="K182" s="1" t="n">
-        <v>7.725</v>
+        <v>7.789</v>
       </c>
       <c r="L182" s="1" t="n"/>
       <c r="M182" s="1" t="n">
@@ -13755,10 +13755,10 @@
         <v>0</v>
       </c>
       <c r="O182" s="1" t="n">
-        <v>-7.875</v>
+        <v>-7.5</v>
       </c>
       <c r="P182" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q182" s="1" t="n"/>
       <c r="R182" s="1" t="n"/>
@@ -13796,28 +13796,28 @@
         <v>192</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="E183" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="F183" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G183" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H183" s="1" t="n">
-        <v>-7.325</v>
+        <v>-6.814</v>
       </c>
       <c r="I183" s="1" t="n">
-        <v>-6.325</v>
+        <v>-6.186</v>
       </c>
       <c r="J183" s="1" t="n">
-        <v>10.525</v>
+        <v>10.201</v>
       </c>
       <c r="K183" s="1" t="n">
-        <v>7.725</v>
+        <v>7.789</v>
       </c>
       <c r="L183" s="1" t="n"/>
       <c r="M183" s="1" t="n">
@@ -13827,10 +13827,10 @@
         <v>0</v>
       </c>
       <c r="O183" s="1" t="n">
-        <v>-6.825</v>
+        <v>-6.5</v>
       </c>
       <c r="P183" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q183" s="1" t="n"/>
       <c r="R183" s="1" t="n"/>
@@ -13868,28 +13868,28 @@
         <v>193</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="E184" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="F184" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G184" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H184" s="1" t="n">
-        <v>-6.275</v>
+        <v>-5.814</v>
       </c>
       <c r="I184" s="1" t="n">
-        <v>-5.275</v>
+        <v>-5.186</v>
       </c>
       <c r="J184" s="1" t="n">
-        <v>10.525</v>
+        <v>10.211</v>
       </c>
       <c r="K184" s="1" t="n">
-        <v>7.725</v>
+        <v>7.798999999999999</v>
       </c>
       <c r="L184" s="1" t="n"/>
       <c r="M184" s="1" t="n">
@@ -13899,10 +13899,10 @@
         <v>0</v>
       </c>
       <c r="O184" s="1" t="n">
-        <v>-5.775</v>
+        <v>-5.5</v>
       </c>
       <c r="P184" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q184" s="1" t="n"/>
       <c r="R184" s="1" t="n"/>
@@ -13940,28 +13940,28 @@
         <v>194</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="F185" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G185" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H185" s="1" t="n">
-        <v>-5.225</v>
+        <v>-4.814</v>
       </c>
       <c r="I185" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.186</v>
       </c>
       <c r="J185" s="1" t="n">
-        <v>10.525</v>
+        <v>10.211</v>
       </c>
       <c r="K185" s="1" t="n">
-        <v>7.725</v>
+        <v>7.798999999999999</v>
       </c>
       <c r="L185" s="1" t="n"/>
       <c r="M185" s="1" t="n">
@@ -13971,10 +13971,10 @@
         <v>0</v>
       </c>
       <c r="O185" s="1" t="n">
-        <v>-4.725</v>
+        <v>-4.5</v>
       </c>
       <c r="P185" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q185" s="1" t="n"/>
       <c r="R185" s="1" t="n"/>
@@ -14012,28 +14012,28 @@
         <v>195</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="E186" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="F186" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G186" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H186" s="1" t="n">
-        <v>-4.175</v>
+        <v>-3.814</v>
       </c>
       <c r="I186" s="1" t="n">
-        <v>-3.175</v>
+        <v>-3.186</v>
       </c>
       <c r="J186" s="1" t="n">
-        <v>10.525</v>
+        <v>10.201</v>
       </c>
       <c r="K186" s="1" t="n">
-        <v>7.725</v>
+        <v>7.789</v>
       </c>
       <c r="L186" s="1" t="n"/>
       <c r="M186" s="1" t="n">
@@ -14043,10 +14043,10 @@
         <v>0</v>
       </c>
       <c r="O186" s="1" t="n">
-        <v>-3.675</v>
+        <v>-3.5</v>
       </c>
       <c r="P186" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q186" s="1" t="n"/>
       <c r="R186" s="1" t="n"/>
@@ -14084,28 +14084,28 @@
         <v>196</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="E187" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="F187" s="1" t="n">
-        <v>1</v>
+        <v>0.628</v>
       </c>
       <c r="G187" s="1" t="n">
-        <v>2.8</v>
+        <v>2.412</v>
       </c>
       <c r="H187" s="1" t="n">
-        <v>-3.125</v>
+        <v>-2.814</v>
       </c>
       <c r="I187" s="1" t="n">
-        <v>-2.125</v>
+        <v>-2.186</v>
       </c>
       <c r="J187" s="1" t="n">
-        <v>10.525</v>
+        <v>10.201</v>
       </c>
       <c r="K187" s="1" t="n">
-        <v>7.725</v>
+        <v>7.789</v>
       </c>
       <c r="L187" s="1" t="n"/>
       <c r="M187" s="1" t="n">
@@ -14115,10 +14115,10 @@
         <v>0</v>
       </c>
       <c r="O187" s="1" t="n">
-        <v>-2.625</v>
+        <v>-2.5</v>
       </c>
       <c r="P187" s="1" t="n">
-        <v>9.125</v>
+        <v>9</v>
       </c>
       <c r="Q187" s="1" t="n"/>
       <c r="R187" s="1" t="n"/>

--- a/masks/code/TKIDModule_spreadsheet_20200602_AW_special.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200602_AW_special.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
   <si>
     <t>AGA Marks</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>Capacitor_692_1MHz</t>
+  </si>
+  <si>
+    <t>capacitor_Nbpatch</t>
   </si>
   <si>
     <t>CIF_LSN1</t>
@@ -1219,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB285"/>
+  <dimension ref="A1:AB286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14149,79 +14152,81 @@
     </row>
     <row r="188" spans="1:28">
       <c r="A188" s="1" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="B188" s="1" t="n"/>
       <c r="C188" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>-3.15</v>
+        <v>-1.5</v>
       </c>
       <c r="E188" s="1" t="n">
-        <v>-0.96</v>
+        <v>9.004</v>
       </c>
       <c r="F188" s="1" t="n">
-        <v>1.634</v>
+        <v>0.65</v>
       </c>
       <c r="G188" s="1" t="n">
-        <v>0.62</v>
+        <v>2.5</v>
       </c>
       <c r="H188" s="1" t="n">
-        <v>-3.967</v>
+        <v>-1.825</v>
       </c>
       <c r="I188" s="1" t="n">
-        <v>-2.333</v>
+        <v>-1.175</v>
       </c>
       <c r="J188" s="1" t="n">
-        <v>-0.6499999999999999</v>
+        <v>10.254</v>
       </c>
       <c r="K188" s="1" t="n">
-        <v>-1.27</v>
+        <v>7.754</v>
       </c>
       <c r="L188" s="1" t="n"/>
       <c r="M188" s="1" t="n">
-        <v>-1.629</v>
+        <v>0</v>
       </c>
       <c r="N188" s="1" t="n">
-        <v>-3.916</v>
+        <v>-0.013</v>
       </c>
       <c r="O188" s="1" t="n">
-        <v>-1.521</v>
+        <v>-1.5</v>
       </c>
       <c r="P188" s="1" t="n">
-        <v>2.956</v>
+        <v>9.016999999999999</v>
       </c>
       <c r="Q188" s="1" t="n"/>
       <c r="R188" s="1" t="n"/>
       <c r="S188" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="T188" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U188" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="V188" s="1" t="n">
-        <v>-29.4</v>
+        <v>0</v>
       </c>
       <c r="W188" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.328</v>
       </c>
       <c r="X188" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y188" s="1" t="n">
-        <v>16.8</v>
+        <v>4</v>
       </c>
       <c r="Z188" s="1" t="n"/>
       <c r="AA188" s="1" t="n"/>
-      <c r="AB188" s="1" t="s"/>
+      <c r="AB188" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="189" spans="1:28">
       <c r="A189" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B189" s="1" t="n"/>
       <c r="C189" s="1" t="s">
@@ -14231,7 +14236,7 @@
         <v>-3.15</v>
       </c>
       <c r="E189" s="1" t="n">
-        <v>-1.63</v>
+        <v>-0.96</v>
       </c>
       <c r="F189" s="1" t="n">
         <v>1.634</v>
@@ -14246,23 +14251,23 @@
         <v>-2.333</v>
       </c>
       <c r="J189" s="1" t="n">
-        <v>-1.32</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="K189" s="1" t="n">
-        <v>-1.94</v>
+        <v>-1.27</v>
       </c>
       <c r="L189" s="1" t="n"/>
       <c r="M189" s="1" t="n">
-        <v>1.629</v>
+        <v>-1.629</v>
       </c>
       <c r="N189" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O189" s="1" t="n">
-        <v>-4.779</v>
+        <v>-1.521</v>
       </c>
       <c r="P189" s="1" t="n">
-        <v>-5.545999999999999</v>
+        <v>2.956</v>
       </c>
       <c r="Q189" s="1" t="n"/>
       <c r="R189" s="1" t="n"/>
@@ -14276,7 +14281,7 @@
         <v>3</v>
       </c>
       <c r="V189" s="1" t="n">
-        <v>29.4</v>
+        <v>-29.4</v>
       </c>
       <c r="W189" s="1" t="n">
         <v>-4.542</v>
@@ -14293,11 +14298,11 @@
     </row>
     <row r="190" spans="1:28">
       <c r="A190" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B190" s="1" t="n"/>
       <c r="C190" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>-3.15</v>
@@ -14325,16 +14330,16 @@
       </c>
       <c r="L190" s="1" t="n"/>
       <c r="M190" s="1" t="n">
-        <v>0</v>
+        <v>1.629</v>
       </c>
       <c r="N190" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O190" s="1" t="n">
-        <v>-3.15</v>
+        <v>-4.779</v>
       </c>
       <c r="P190" s="1" t="n">
-        <v>-1.63</v>
+        <v>-5.545999999999999</v>
       </c>
       <c r="Q190" s="1" t="n"/>
       <c r="R190" s="1" t="n"/>
@@ -14345,19 +14350,19 @@
         <v>1</v>
       </c>
       <c r="U190" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V190" s="1" t="n">
-        <v>22.629</v>
+        <v>29.4</v>
       </c>
       <c r="W190" s="1" t="n">
-        <v>-33.658</v>
+        <v>-4.542</v>
       </c>
       <c r="X190" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y190" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z190" s="1" t="n"/>
       <c r="AA190" s="1" t="n"/>
@@ -14365,48 +14370,48 @@
     </row>
     <row r="191" spans="1:28">
       <c r="A191" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B191" s="1" t="n"/>
       <c r="C191" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>1.354</v>
+        <v>-3.15</v>
       </c>
       <c r="E191" s="1" t="n">
-        <v>-5.36</v>
+        <v>-1.63</v>
       </c>
       <c r="F191" s="1" t="n">
-        <v>4.892</v>
+        <v>1.634</v>
       </c>
       <c r="G191" s="1" t="n">
         <v>0.62</v>
       </c>
       <c r="H191" s="1" t="n">
-        <v>-1.092</v>
+        <v>-3.967</v>
       </c>
       <c r="I191" s="1" t="n">
-        <v>3.8</v>
+        <v>-2.333</v>
       </c>
       <c r="J191" s="1" t="n">
-        <v>-5.050000000000001</v>
+        <v>-1.32</v>
       </c>
       <c r="K191" s="1" t="n">
-        <v>-5.67</v>
+        <v>-1.94</v>
       </c>
       <c r="L191" s="1" t="n"/>
       <c r="M191" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N191" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O191" s="1" t="n">
-        <v>1.354</v>
+        <v>-3.15</v>
       </c>
       <c r="P191" s="1" t="n">
-        <v>-1.444</v>
+        <v>-1.63</v>
       </c>
       <c r="Q191" s="1" t="n"/>
       <c r="R191" s="1" t="n"/>
@@ -14414,22 +14419,22 @@
         <v>32</v>
       </c>
       <c r="T191" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U191" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V191" s="1" t="n">
-        <v>4.2</v>
+        <v>22.629</v>
       </c>
       <c r="W191" s="1" t="n">
-        <v>-0.342</v>
+        <v>-33.658</v>
       </c>
       <c r="X191" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y191" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z191" s="1" t="n"/>
       <c r="AA191" s="1" t="n"/>
@@ -14437,11 +14442,11 @@
     </row>
     <row r="192" spans="1:28">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B192" s="1" t="n"/>
       <c r="C192" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>1.354</v>
@@ -14472,13 +14477,13 @@
         <v>0</v>
       </c>
       <c r="N192" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O192" s="1" t="n">
         <v>1.354</v>
       </c>
       <c r="P192" s="1" t="n">
-        <v>-9.276</v>
+        <v>-1.444</v>
       </c>
       <c r="Q192" s="1" t="n"/>
       <c r="R192" s="1" t="n"/>
@@ -14492,7 +14497,7 @@
         <v>8</v>
       </c>
       <c r="V192" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W192" s="1" t="n">
         <v>-0.342</v>
@@ -14509,48 +14514,48 @@
     </row>
     <row r="193" spans="1:28">
       <c r="A193" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B193" s="1" t="n"/>
       <c r="C193" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>-6.45</v>
+        <v>1.354</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>7</v>
+        <v>-5.36</v>
       </c>
       <c r="F193" s="1" t="n">
-        <v>1.1</v>
+        <v>4.892</v>
       </c>
       <c r="G193" s="1" t="n">
-        <v>3.1</v>
+        <v>0.62</v>
       </c>
       <c r="H193" s="1" t="n">
-        <v>-7</v>
+        <v>-1.092</v>
       </c>
       <c r="I193" s="1" t="n">
-        <v>-5.9</v>
+        <v>3.8</v>
       </c>
       <c r="J193" s="1" t="n">
-        <v>8.550000000000001</v>
+        <v>-5.050000000000001</v>
       </c>
       <c r="K193" s="1" t="n">
-        <v>5.45</v>
+        <v>-5.67</v>
       </c>
       <c r="L193" s="1" t="n"/>
       <c r="M193" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N193" s="1" t="n">
-        <v>-0.013</v>
+        <v>3.916</v>
       </c>
       <c r="O193" s="1" t="n">
-        <v>-6.45</v>
+        <v>1.354</v>
       </c>
       <c r="P193" s="1" t="n">
-        <v>7.013</v>
+        <v>-9.276</v>
       </c>
       <c r="Q193" s="1" t="n"/>
       <c r="R193" s="1" t="n"/>
@@ -14558,73 +14563,71 @@
         <v>32</v>
       </c>
       <c r="T193" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U193" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V193" s="1" t="n">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
       <c r="W193" s="1" t="n">
-        <v>-0.328</v>
+        <v>-0.342</v>
       </c>
       <c r="X193" s="1" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Y193" s="1" t="n">
         <v>8.4</v>
-      </c>
-      <c r="Y193" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="Z193" s="1" t="n"/>
       <c r="AA193" s="1" t="n"/>
-      <c r="AB193" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="AB193" s="1" t="s"/>
     </row>
     <row r="194" spans="1:28">
       <c r="A194" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B194" s="1" t="n"/>
       <c r="C194" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>-1.8</v>
+        <v>-6.45</v>
       </c>
       <c r="E194" s="1" t="n">
-        <v>-9.625</v>
+        <v>7</v>
       </c>
       <c r="F194" s="1" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="G194" s="1" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H194" s="1" t="n">
-        <v>-5.1</v>
+        <v>-7</v>
       </c>
       <c r="I194" s="1" t="n">
-        <v>1.5</v>
+        <v>-5.9</v>
       </c>
       <c r="J194" s="1" t="n">
-        <v>-8.975</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K194" s="1" t="n">
-        <v>-10.275</v>
+        <v>5.45</v>
       </c>
       <c r="L194" s="1" t="n"/>
       <c r="M194" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N194" s="1" t="n">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="O194" s="1" t="n">
-        <v>-1.8</v>
+        <v>-6.45</v>
       </c>
       <c r="P194" s="1" t="n">
-        <v>-9.625</v>
+        <v>7.013</v>
       </c>
       <c r="Q194" s="1" t="n"/>
       <c r="R194" s="1" t="n"/>
@@ -14632,71 +14635,73 @@
         <v>32</v>
       </c>
       <c r="T194" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U194" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W194" s="1" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="X194" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y194" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="U194" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V194" s="1" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="W194" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X194" s="1" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y194" s="1" t="n">
-        <v>71.29000000000001</v>
       </c>
       <c r="Z194" s="1" t="n"/>
       <c r="AA194" s="1" t="n"/>
-      <c r="AB194" s="1" t="s"/>
+      <c r="AB194" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="195" spans="1:28">
       <c r="A195" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B195" s="1" t="n"/>
       <c r="C195" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-1.8</v>
       </c>
       <c r="E195" s="1" t="n">
-        <v>8.574999999999999</v>
+        <v>-9.625</v>
       </c>
       <c r="F195" s="1" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="G195" s="1" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H195" s="1" t="n">
-        <v>-9.799999999999999</v>
+        <v>-5.1</v>
       </c>
       <c r="I195" s="1" t="n">
-        <v>-8.6</v>
+        <v>1.5</v>
       </c>
       <c r="J195" s="1" t="n">
-        <v>10.175</v>
+        <v>-8.975</v>
       </c>
       <c r="K195" s="1" t="n">
-        <v>6.975</v>
+        <v>-10.275</v>
       </c>
       <c r="L195" s="1" t="n"/>
       <c r="M195" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N195" s="1" t="n">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O195" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-1.8</v>
       </c>
       <c r="P195" s="1" t="n">
-        <v>8.587999999999999</v>
+        <v>-9.625</v>
       </c>
       <c r="Q195" s="1" t="n"/>
       <c r="R195" s="1" t="n"/>
@@ -14704,73 +14709,71 @@
         <v>32</v>
       </c>
       <c r="T195" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U195" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="V195" s="1" t="n">
-        <v>0</v>
+        <v>-3.85</v>
       </c>
       <c r="W195" s="1" t="n">
-        <v>-0.328</v>
+        <v>0</v>
       </c>
       <c r="X195" s="1" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="Y195" s="1" t="n">
-        <v>4</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="Z195" s="1" t="n"/>
       <c r="AA195" s="1" t="n"/>
-      <c r="AB195" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="AB195" s="1" t="s"/>
     </row>
     <row r="196" spans="1:28">
       <c r="A196" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B196" s="1" t="n"/>
       <c r="C196" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>-0.15</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="E196" s="1" t="n">
-        <v>-0.85</v>
+        <v>8.574999999999999</v>
       </c>
       <c r="F196" s="1" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G196" s="1" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H196" s="1" t="n">
-        <v>-0.6</v>
+        <v>-9.799999999999999</v>
       </c>
       <c r="I196" s="1" t="n">
-        <v>0.3</v>
+        <v>-8.6</v>
       </c>
       <c r="J196" s="1" t="n">
-        <v>-0.6</v>
+        <v>10.175</v>
       </c>
       <c r="K196" s="1" t="n">
-        <v>-1.1</v>
+        <v>6.975</v>
       </c>
       <c r="L196" s="1" t="n"/>
       <c r="M196" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N196" s="1" t="n">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="O196" s="1" t="n">
-        <v>-0.15</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="P196" s="1" t="n">
-        <v>-0.85</v>
+        <v>8.587999999999999</v>
       </c>
       <c r="Q196" s="1" t="n"/>
       <c r="R196" s="1" t="n"/>
@@ -14778,34 +14781,36 @@
         <v>32</v>
       </c>
       <c r="T196" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U196" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W196" s="1" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="X196" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y196" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="U196" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V196" s="1" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="W196" s="1" t="n">
-        <v>3.558</v>
-      </c>
-      <c r="X196" s="1" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Y196" s="1" t="n">
-        <v>8.4</v>
       </c>
       <c r="Z196" s="1" t="n"/>
       <c r="AA196" s="1" t="n"/>
-      <c r="AB196" s="1" t="s"/>
+      <c r="AB196" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="197" spans="1:28">
       <c r="A197" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B197" s="1" t="n"/>
       <c r="C197" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>-0.15</v>
@@ -14856,10 +14861,10 @@
         <v>8</v>
       </c>
       <c r="V197" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W197" s="1" t="n">
-        <v>-4.242</v>
+        <v>3.558</v>
       </c>
       <c r="X197" s="1" t="n">
         <v>16.8</v>
@@ -14873,35 +14878,35 @@
     </row>
     <row r="198" spans="1:28">
       <c r="A198" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B198" s="1" t="n"/>
       <c r="C198" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>-5.4</v>
+        <v>-0.15</v>
       </c>
       <c r="E198" s="1" t="n">
-        <v>-8.375</v>
+        <v>-0.85</v>
       </c>
       <c r="F198" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G198" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G198" s="1" t="n">
-        <v>0.8</v>
-      </c>
       <c r="H198" s="1" t="n">
-        <v>-5.65</v>
+        <v>-0.6</v>
       </c>
       <c r="I198" s="1" t="n">
-        <v>-5.15</v>
+        <v>0.3</v>
       </c>
       <c r="J198" s="1" t="n">
-        <v>-7.975</v>
+        <v>-0.6</v>
       </c>
       <c r="K198" s="1" t="n">
-        <v>-8.775</v>
+        <v>-1.1</v>
       </c>
       <c r="L198" s="1" t="n"/>
       <c r="M198" s="1" t="n">
@@ -14911,10 +14916,10 @@
         <v>0</v>
       </c>
       <c r="O198" s="1" t="n">
-        <v>-5.4</v>
+        <v>-0.15</v>
       </c>
       <c r="P198" s="1" t="n">
-        <v>-8.375</v>
+        <v>-0.85</v>
       </c>
       <c r="Q198" s="1" t="n"/>
       <c r="R198" s="1" t="n"/>
@@ -14922,22 +14927,22 @@
         <v>32</v>
       </c>
       <c r="T198" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U198" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V198" s="1" t="n">
-        <v>-3.85</v>
+        <v>4.2</v>
       </c>
       <c r="W198" s="1" t="n">
-        <v>34.015</v>
+        <v>-4.242</v>
       </c>
       <c r="X198" s="1" t="n">
-        <v>45.7</v>
+        <v>16.8</v>
       </c>
       <c r="Y198" s="1" t="n">
-        <v>0.325</v>
+        <v>8.4</v>
       </c>
       <c r="Z198" s="1" t="n"/>
       <c r="AA198" s="1" t="n"/>
@@ -14945,48 +14950,48 @@
     </row>
     <row r="199" spans="1:28">
       <c r="A199" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B199" s="1" t="n"/>
       <c r="C199" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>-0.35</v>
+        <v>-5.4</v>
       </c>
       <c r="E199" s="1" t="n">
-        <v>-0.3</v>
+        <v>-8.375</v>
       </c>
       <c r="F199" s="1" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G199" s="1" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H199" s="1" t="n">
-        <v>-0.7</v>
+        <v>-5.65</v>
       </c>
       <c r="I199" s="1" t="n">
-        <v>0</v>
+        <v>-5.15</v>
       </c>
       <c r="J199" s="1" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-7.975</v>
       </c>
       <c r="K199" s="1" t="n">
-        <v>-0.55</v>
+        <v>-8.775</v>
       </c>
       <c r="L199" s="1" t="n"/>
       <c r="M199" s="1" t="n">
-        <v>-1.47</v>
+        <v>0</v>
       </c>
       <c r="N199" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O199" s="1" t="n">
-        <v>1.12</v>
+        <v>-5.4</v>
       </c>
       <c r="P199" s="1" t="n">
-        <v>3.616</v>
+        <v>-8.375</v>
       </c>
       <c r="Q199" s="1" t="n"/>
       <c r="R199" s="1" t="n"/>
@@ -14994,22 +14999,22 @@
         <v>32</v>
       </c>
       <c r="T199" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U199" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V199" s="1" t="n">
-        <v>-29.4</v>
+        <v>-3.85</v>
       </c>
       <c r="W199" s="1" t="n">
-        <v>-4.542</v>
+        <v>34.015</v>
       </c>
       <c r="X199" s="1" t="n">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="Y199" s="1" t="n">
-        <v>16.8</v>
+        <v>0.325</v>
       </c>
       <c r="Z199" s="1" t="n"/>
       <c r="AA199" s="1" t="n"/>
@@ -15017,14 +15022,14 @@
     </row>
     <row r="200" spans="1:28">
       <c r="A200" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B200" s="1" t="n"/>
       <c r="C200" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>0.4</v>
+        <v>-0.35</v>
       </c>
       <c r="E200" s="1" t="n">
         <v>-0.3</v>
@@ -15036,10 +15041,10 @@
         <v>0.5</v>
       </c>
       <c r="H200" s="1" t="n">
-        <v>0.05000000000000004</v>
+        <v>-0.7</v>
       </c>
       <c r="I200" s="1" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J200" s="1" t="n">
         <v>-0.04999999999999999</v>
@@ -15049,16 +15054,16 @@
       </c>
       <c r="L200" s="1" t="n"/>
       <c r="M200" s="1" t="n">
-        <v>1.47</v>
+        <v>-1.47</v>
       </c>
       <c r="N200" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O200" s="1" t="n">
-        <v>-1.07</v>
+        <v>1.12</v>
       </c>
       <c r="P200" s="1" t="n">
-        <v>-4.216</v>
+        <v>3.616</v>
       </c>
       <c r="Q200" s="1" t="n"/>
       <c r="R200" s="1" t="n"/>
@@ -15072,7 +15077,7 @@
         <v>3</v>
       </c>
       <c r="V200" s="1" t="n">
-        <v>29.4</v>
+        <v>-29.4</v>
       </c>
       <c r="W200" s="1" t="n">
         <v>-4.542</v>
@@ -15089,11 +15094,11 @@
     </row>
     <row r="201" spans="1:28">
       <c r="A201" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B201" s="1" t="n"/>
       <c r="C201" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>0.4</v>
@@ -15121,16 +15126,16 @@
       </c>
       <c r="L201" s="1" t="n"/>
       <c r="M201" s="1" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="N201" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O201" s="1" t="n">
-        <v>0.4</v>
+        <v>-1.07</v>
       </c>
       <c r="P201" s="1" t="n">
-        <v>-0.3</v>
+        <v>-4.216</v>
       </c>
       <c r="Q201" s="1" t="n"/>
       <c r="R201" s="1" t="n"/>
@@ -15141,19 +15146,19 @@
         <v>1</v>
       </c>
       <c r="U201" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V201" s="1" t="n">
-        <v>22.47</v>
+        <v>29.4</v>
       </c>
       <c r="W201" s="1" t="n">
-        <v>-33.658</v>
+        <v>-4.542</v>
       </c>
       <c r="X201" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y201" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z201" s="1" t="n"/>
       <c r="AA201" s="1" t="n"/>
@@ -15161,48 +15166,48 @@
     </row>
     <row r="202" spans="1:28">
       <c r="A202" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B202" s="1" t="n"/>
       <c r="C202" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>-2.942</v>
+        <v>0.4</v>
       </c>
       <c r="E202" s="1" t="n">
-        <v>-5.3</v>
+        <v>-0.3</v>
       </c>
       <c r="F202" s="1" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H202" s="1" t="n">
-        <v>-4.742</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="I202" s="1" t="n">
-        <v>-1.142</v>
+        <v>0.75</v>
       </c>
       <c r="J202" s="1" t="n">
-        <v>-5.05</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K202" s="1" t="n">
-        <v>-5.55</v>
+        <v>-0.55</v>
       </c>
       <c r="L202" s="1" t="n"/>
       <c r="M202" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N202" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O202" s="1" t="n">
-        <v>-2.942</v>
+        <v>0.4</v>
       </c>
       <c r="P202" s="1" t="n">
-        <v>-1.384</v>
+        <v>-0.3</v>
       </c>
       <c r="Q202" s="1" t="n"/>
       <c r="R202" s="1" t="n"/>
@@ -15210,22 +15215,22 @@
         <v>32</v>
       </c>
       <c r="T202" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U202" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V202" s="1" t="n">
-        <v>4.2</v>
+        <v>22.47</v>
       </c>
       <c r="W202" s="1" t="n">
-        <v>-0.342</v>
+        <v>-33.658</v>
       </c>
       <c r="X202" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y202" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z202" s="1" t="n"/>
       <c r="AA202" s="1" t="n"/>
@@ -15233,11 +15238,11 @@
     </row>
     <row r="203" spans="1:28">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B203" s="1" t="n"/>
       <c r="C203" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D203" s="1" t="n">
         <v>-2.942</v>
@@ -15268,13 +15273,13 @@
         <v>0</v>
       </c>
       <c r="N203" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O203" s="1" t="n">
         <v>-2.942</v>
       </c>
       <c r="P203" s="1" t="n">
-        <v>-9.215999999999999</v>
+        <v>-1.384</v>
       </c>
       <c r="Q203" s="1" t="n"/>
       <c r="R203" s="1" t="n"/>
@@ -15288,7 +15293,7 @@
         <v>8</v>
       </c>
       <c r="V203" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W203" s="1" t="n">
         <v>-0.342</v>
@@ -15305,48 +15310,48 @@
     </row>
     <row r="204" spans="1:28">
       <c r="A204" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B204" s="1" t="n"/>
       <c r="C204" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>-5.45</v>
+        <v>-2.942</v>
       </c>
       <c r="E204" s="1" t="n">
-        <v>-6.525</v>
+        <v>-5.3</v>
       </c>
       <c r="F204" s="1" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="G204" s="1" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H204" s="1" t="n">
-        <v>-5.65</v>
+        <v>-4.742</v>
       </c>
       <c r="I204" s="1" t="n">
-        <v>-5.25</v>
+        <v>-1.142</v>
       </c>
       <c r="J204" s="1" t="n">
-        <v>-5.125</v>
+        <v>-5.05</v>
       </c>
       <c r="K204" s="1" t="n">
-        <v>-7.925000000000001</v>
+        <v>-5.55</v>
       </c>
       <c r="L204" s="1" t="n"/>
       <c r="M204" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N204" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O204" s="1" t="n">
-        <v>-5.45</v>
+        <v>-2.942</v>
       </c>
       <c r="P204" s="1" t="n">
-        <v>-6.525</v>
+        <v>-9.215999999999999</v>
       </c>
       <c r="Q204" s="1" t="n"/>
       <c r="R204" s="1" t="n"/>
@@ -15354,22 +15359,22 @@
         <v>32</v>
       </c>
       <c r="T204" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U204" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V204" s="1" t="n">
-        <v>0.15</v>
+        <v>-4.2</v>
       </c>
       <c r="W204" s="1" t="n">
-        <v>34.858</v>
+        <v>-0.342</v>
       </c>
       <c r="X204" s="1" t="n">
-        <v>34.7</v>
+        <v>16.8</v>
       </c>
       <c r="Y204" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z204" s="1" t="n"/>
       <c r="AA204" s="1" t="n"/>
@@ -15377,35 +15382,35 @@
     </row>
     <row r="205" spans="1:28">
       <c r="A205" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B205" s="1" t="n"/>
       <c r="C205" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D205" s="1" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="E205" s="1" t="n">
+        <v>-6.525</v>
+      </c>
+      <c r="F205" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="E205" s="1" t="n">
-        <v>-2.35</v>
-      </c>
-      <c r="F205" s="1" t="n">
-        <v>0.6</v>
-      </c>
       <c r="G205" s="1" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H205" s="1" t="n">
-        <v>0.1</v>
+        <v>-5.65</v>
       </c>
       <c r="I205" s="1" t="n">
-        <v>0.7</v>
+        <v>-5.25</v>
       </c>
       <c r="J205" s="1" t="n">
-        <v>-2.15</v>
+        <v>-5.125</v>
       </c>
       <c r="K205" s="1" t="n">
-        <v>-2.55</v>
+        <v>-7.925000000000001</v>
       </c>
       <c r="L205" s="1" t="n"/>
       <c r="M205" s="1" t="n">
@@ -15415,10 +15420,10 @@
         <v>0</v>
       </c>
       <c r="O205" s="1" t="n">
-        <v>0.4</v>
+        <v>-5.45</v>
       </c>
       <c r="P205" s="1" t="n">
-        <v>-2.35</v>
+        <v>-6.525</v>
       </c>
       <c r="Q205" s="1" t="n"/>
       <c r="R205" s="1" t="n"/>
@@ -15426,19 +15431,19 @@
         <v>32</v>
       </c>
       <c r="T205" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U205" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V205" s="1" t="n">
-        <v>25.8</v>
+        <v>0.15</v>
       </c>
       <c r="W205" s="1" t="n">
-        <v>-26.142</v>
+        <v>34.858</v>
       </c>
       <c r="X205" s="1" t="n">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="Y205" s="1" t="n">
         <v>0</v>
@@ -15449,35 +15454,35 @@
     </row>
     <row r="206" spans="1:28">
       <c r="A206" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" s="1" t="n"/>
       <c r="C206" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>-0.77</v>
+        <v>0.4</v>
       </c>
       <c r="E206" s="1" t="n">
-        <v>-2.45</v>
+        <v>-2.35</v>
       </c>
       <c r="F206" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G206" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G206" s="1" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H206" s="1" t="n">
-        <v>-0.97</v>
+        <v>0.1</v>
       </c>
       <c r="I206" s="1" t="n">
-        <v>-0.5700000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J206" s="1" t="n">
         <v>-2.15</v>
       </c>
       <c r="K206" s="1" t="n">
-        <v>-2.75</v>
+        <v>-2.55</v>
       </c>
       <c r="L206" s="1" t="n"/>
       <c r="M206" s="1" t="n">
@@ -15487,10 +15492,10 @@
         <v>0</v>
       </c>
       <c r="O206" s="1" t="n">
-        <v>-0.77</v>
+        <v>0.4</v>
       </c>
       <c r="P206" s="1" t="n">
-        <v>-2.45</v>
+        <v>-2.35</v>
       </c>
       <c r="Q206" s="1" t="n"/>
       <c r="R206" s="1" t="n"/>
@@ -15504,10 +15509,10 @@
         <v>1</v>
       </c>
       <c r="V206" s="1" t="n">
-        <v>17.5</v>
+        <v>25.8</v>
       </c>
       <c r="W206" s="1" t="n">
-        <v>33.758</v>
+        <v>-26.142</v>
       </c>
       <c r="X206" s="1" t="n">
         <v>0</v>
@@ -15521,11 +15526,11 @@
     </row>
     <row r="207" spans="1:28">
       <c r="A207" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B207" s="1" t="n"/>
       <c r="C207" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D207" s="1" t="n">
         <v>-0.77</v>
@@ -15576,10 +15581,10 @@
         <v>1</v>
       </c>
       <c r="V207" s="1" t="n">
-        <v>25.9</v>
+        <v>17.5</v>
       </c>
       <c r="W207" s="1" t="n">
-        <v>33.558</v>
+        <v>33.758</v>
       </c>
       <c r="X207" s="1" t="n">
         <v>0</v>
@@ -15593,35 +15598,35 @@
     </row>
     <row r="208" spans="1:28">
       <c r="A208" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B208" s="1" t="n"/>
       <c r="C208" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>-2.9</v>
+        <v>-0.77</v>
       </c>
       <c r="E208" s="1" t="n">
-        <v>-6.8</v>
+        <v>-2.45</v>
       </c>
       <c r="F208" s="1" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="G208" s="1" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H208" s="1" t="n">
-        <v>-4.6</v>
+        <v>-0.97</v>
       </c>
       <c r="I208" s="1" t="n">
-        <v>-1.2</v>
+        <v>-0.5700000000000001</v>
       </c>
       <c r="J208" s="1" t="n">
-        <v>-6.55</v>
+        <v>-2.15</v>
       </c>
       <c r="K208" s="1" t="n">
-        <v>-7.05</v>
+        <v>-2.75</v>
       </c>
       <c r="L208" s="1" t="n"/>
       <c r="M208" s="1" t="n">
@@ -15631,10 +15636,10 @@
         <v>0</v>
       </c>
       <c r="O208" s="1" t="n">
-        <v>-2.9</v>
+        <v>-0.77</v>
       </c>
       <c r="P208" s="1" t="n">
-        <v>-6.8</v>
+        <v>-2.45</v>
       </c>
       <c r="Q208" s="1" t="n"/>
       <c r="R208" s="1" t="n"/>
@@ -15648,10 +15653,10 @@
         <v>1</v>
       </c>
       <c r="V208" s="1" t="n">
-        <v>-24.208</v>
+        <v>25.9</v>
       </c>
       <c r="W208" s="1" t="n">
-        <v>33.468</v>
+        <v>33.558</v>
       </c>
       <c r="X208" s="1" t="n">
         <v>0</v>
@@ -15665,35 +15670,35 @@
     </row>
     <row r="209" spans="1:28">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B209" s="1" t="n"/>
       <c r="C209" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>8</v>
+        <v>-2.9</v>
       </c>
       <c r="E209" s="1" t="n">
-        <v>-8.199999999999999</v>
+        <v>-6.8</v>
       </c>
       <c r="F209" s="1" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="G209" s="1" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H209" s="1" t="n">
-        <v>7.15</v>
+        <v>-4.6</v>
       </c>
       <c r="I209" s="1" t="n">
-        <v>8.85</v>
+        <v>-1.2</v>
       </c>
       <c r="J209" s="1" t="n">
-        <v>-7.499999999999999</v>
+        <v>-6.55</v>
       </c>
       <c r="K209" s="1" t="n">
-        <v>-8.899999999999999</v>
+        <v>-7.05</v>
       </c>
       <c r="L209" s="1" t="n"/>
       <c r="M209" s="1" t="n">
@@ -15703,10 +15708,10 @@
         <v>0</v>
       </c>
       <c r="O209" s="1" t="n">
-        <v>8</v>
+        <v>-2.9</v>
       </c>
       <c r="P209" s="1" t="n">
-        <v>-8.199999999999999</v>
+        <v>-6.8</v>
       </c>
       <c r="Q209" s="1" t="n"/>
       <c r="R209" s="1" t="n"/>
@@ -15717,19 +15722,19 @@
         <v>1</v>
       </c>
       <c r="U209" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V209" s="1" t="n">
-        <v>-35.765</v>
+        <v>-24.208</v>
       </c>
       <c r="W209" s="1" t="n">
-        <v>7.57</v>
+        <v>33.468</v>
       </c>
       <c r="X209" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y209" s="1" t="n">
-        <v>42.76</v>
+        <v>0</v>
       </c>
       <c r="Z209" s="1" t="n"/>
       <c r="AA209" s="1" t="n"/>
@@ -15737,11 +15742,11 @@
     </row>
     <row r="210" spans="1:28">
       <c r="A210" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B210" s="1" t="n"/>
       <c r="C210" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D210" s="1" t="n">
         <v>8</v>
@@ -15792,16 +15797,16 @@
         <v>2</v>
       </c>
       <c r="V210" s="1" t="n">
-        <v>-35.775</v>
+        <v>-35.765</v>
       </c>
       <c r="W210" s="1" t="n">
-        <v>0.42</v>
+        <v>7.57</v>
       </c>
       <c r="X210" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y210" s="1" t="n">
-        <v>1.4</v>
+        <v>42.76</v>
       </c>
       <c r="Z210" s="1" t="n"/>
       <c r="AA210" s="1" t="n"/>
@@ -15809,35 +15814,35 @@
     </row>
     <row r="211" spans="1:28">
       <c r="A211" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B211" s="1" t="n"/>
       <c r="C211" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="E211" s="1" t="n">
-        <v>8.65</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="F211" s="1" t="n">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="G211" s="1" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H211" s="1" t="n">
-        <v>3.1</v>
+        <v>7.15</v>
       </c>
       <c r="I211" s="1" t="n">
-        <v>10.5</v>
+        <v>8.85</v>
       </c>
       <c r="J211" s="1" t="n">
-        <v>9.450000000000001</v>
+        <v>-7.499999999999999</v>
       </c>
       <c r="K211" s="1" t="n">
-        <v>7.850000000000001</v>
+        <v>-8.899999999999999</v>
       </c>
       <c r="L211" s="1" t="n"/>
       <c r="M211" s="1" t="n">
@@ -15847,10 +15852,10 @@
         <v>0</v>
       </c>
       <c r="O211" s="1" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="P211" s="1" t="n">
-        <v>8.65</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Q211" s="1" t="n"/>
       <c r="R211" s="1" t="n"/>
@@ -15858,22 +15863,22 @@
         <v>32</v>
       </c>
       <c r="T211" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U211" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U211" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="V211" s="1" t="n">
-        <v>-4.352</v>
+        <v>-35.775</v>
       </c>
       <c r="W211" s="1" t="n">
-        <v>35.331</v>
+        <v>0.42</v>
       </c>
       <c r="X211" s="1" t="n">
-        <v>34.692</v>
+        <v>0</v>
       </c>
       <c r="Y211" s="1" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z211" s="1" t="n"/>
       <c r="AA211" s="1" t="n"/>
@@ -15881,35 +15886,35 @@
     </row>
     <row r="212" spans="1:28">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B212" s="1" t="n"/>
       <c r="C212" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>-9.24</v>
+        <v>6.8</v>
       </c>
       <c r="E212" s="1" t="n">
-        <v>-8.725</v>
+        <v>8.65</v>
       </c>
       <c r="F212" s="1" t="n">
-        <v>0.4</v>
+        <v>7.4</v>
       </c>
       <c r="G212" s="1" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H212" s="1" t="n">
-        <v>-9.44</v>
+        <v>3.1</v>
       </c>
       <c r="I212" s="1" t="n">
-        <v>-9.040000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J212" s="1" t="n">
-        <v>-6.675</v>
+        <v>9.450000000000001</v>
       </c>
       <c r="K212" s="1" t="n">
-        <v>-10.775</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="L212" s="1" t="n"/>
       <c r="M212" s="1" t="n">
@@ -15919,10 +15924,10 @@
         <v>0</v>
       </c>
       <c r="O212" s="1" t="n">
-        <v>-9.24</v>
+        <v>6.8</v>
       </c>
       <c r="P212" s="1" t="n">
-        <v>-8.725</v>
+        <v>8.65</v>
       </c>
       <c r="Q212" s="1" t="n"/>
       <c r="R212" s="1" t="n"/>
@@ -15930,22 +15935,22 @@
         <v>32</v>
       </c>
       <c r="T212" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U212" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V212" s="1" t="n">
-        <v>34.029</v>
+        <v>-4.352</v>
       </c>
       <c r="W212" s="1" t="n">
-        <v>2.008</v>
+        <v>35.331</v>
       </c>
       <c r="X212" s="1" t="n">
-        <v>0</v>
+        <v>34.692</v>
       </c>
       <c r="Y212" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z212" s="1" t="n"/>
       <c r="AA212" s="1" t="n"/>
@@ -15953,11 +15958,11 @@
     </row>
     <row r="213" spans="1:28">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1" t="n"/>
       <c r="C213" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D213" s="1" t="n">
         <v>-9.24</v>
@@ -16008,10 +16013,10 @@
         <v>3</v>
       </c>
       <c r="V213" s="1" t="n">
-        <v>-34.029</v>
+        <v>34.029</v>
       </c>
       <c r="W213" s="1" t="n">
-        <v>-2.694</v>
+        <v>2.008</v>
       </c>
       <c r="X213" s="1" t="n">
         <v>0</v>
@@ -16025,35 +16030,35 @@
     </row>
     <row r="214" spans="1:28">
       <c r="A214" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="1" t="n"/>
       <c r="C214" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>-6.3</v>
+        <v>-9.24</v>
       </c>
       <c r="E214" s="1" t="n">
-        <v>-2.169</v>
+        <v>-8.725</v>
       </c>
       <c r="F214" s="1" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G214" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="H214" s="1" t="n">
-        <v>-6.899999999999999</v>
+        <v>-9.44</v>
       </c>
       <c r="I214" s="1" t="n">
-        <v>-5.7</v>
+        <v>-9.040000000000001</v>
       </c>
       <c r="J214" s="1" t="n">
-        <v>-0.1190000000000002</v>
+        <v>-6.675</v>
       </c>
       <c r="K214" s="1" t="n">
-        <v>-4.218999999999999</v>
+        <v>-10.775</v>
       </c>
       <c r="L214" s="1" t="n"/>
       <c r="M214" s="1" t="n">
@@ -16063,10 +16068,10 @@
         <v>0</v>
       </c>
       <c r="O214" s="1" t="n">
-        <v>-6.3</v>
+        <v>-9.24</v>
       </c>
       <c r="P214" s="1" t="n">
-        <v>-2.169</v>
+        <v>-8.725</v>
       </c>
       <c r="Q214" s="1" t="n"/>
       <c r="R214" s="1" t="n"/>
@@ -16074,36 +16079,34 @@
         <v>32</v>
       </c>
       <c r="T214" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U214" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V214" s="1" t="n">
-        <v>0</v>
+        <v>-34.029</v>
       </c>
       <c r="W214" s="1" t="n">
-        <v>-0.343</v>
+        <v>-2.694</v>
       </c>
       <c r="X214" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y214" s="1" t="n">
-        <v>4</v>
+        <v>16.8</v>
       </c>
       <c r="Z214" s="1" t="n"/>
       <c r="AA214" s="1" t="n"/>
-      <c r="AB214" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="AB214" s="1" t="s"/>
     </row>
     <row r="215" spans="1:28">
       <c r="A215" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1" t="n"/>
       <c r="C215" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D215" s="1" t="n">
         <v>-6.3</v>
@@ -16148,34 +16151,36 @@
         <v>32</v>
       </c>
       <c r="T215" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U215" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V215" s="1" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="W215" s="1" t="n">
-        <v>1.909</v>
+        <v>-0.343</v>
       </c>
       <c r="X215" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y215" s="1" t="n">
-        <v>16.8</v>
+        <v>4</v>
       </c>
       <c r="Z215" s="1" t="n"/>
       <c r="AA215" s="1" t="n"/>
-      <c r="AB215" s="1" t="s"/>
+      <c r="AB215" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="216" spans="1:28">
       <c r="A216" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B216" s="1" t="n"/>
       <c r="C216" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>-6.3</v>
@@ -16226,10 +16231,10 @@
         <v>3</v>
       </c>
       <c r="V216" s="1" t="n">
-        <v>-33.6</v>
+        <v>33.6</v>
       </c>
       <c r="W216" s="1" t="n">
-        <v>-2.585</v>
+        <v>1.909</v>
       </c>
       <c r="X216" s="1" t="n">
         <v>0</v>
@@ -16243,35 +16248,35 @@
     </row>
     <row r="217" spans="1:28">
       <c r="A217" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B217" s="1" t="n"/>
       <c r="C217" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>-10.05</v>
+        <v>-6.3</v>
       </c>
       <c r="E217" s="1" t="n">
-        <v>9.074999999999999</v>
+        <v>-2.169</v>
       </c>
       <c r="F217" s="1" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="G217" s="1" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H217" s="1" t="n">
-        <v>-10.25</v>
+        <v>-6.899999999999999</v>
       </c>
       <c r="I217" s="1" t="n">
-        <v>-9.850000000000001</v>
+        <v>-5.7</v>
       </c>
       <c r="J217" s="1" t="n">
-        <v>11.175</v>
+        <v>-0.1190000000000002</v>
       </c>
       <c r="K217" s="1" t="n">
-        <v>6.975</v>
+        <v>-4.218999999999999</v>
       </c>
       <c r="L217" s="1" t="n"/>
       <c r="M217" s="1" t="n">
@@ -16281,10 +16286,10 @@
         <v>0</v>
       </c>
       <c r="O217" s="1" t="n">
-        <v>-10.05</v>
+        <v>-6.3</v>
       </c>
       <c r="P217" s="1" t="n">
-        <v>9.074999999999999</v>
+        <v>-2.169</v>
       </c>
       <c r="Q217" s="1" t="n"/>
       <c r="R217" s="1" t="n"/>
@@ -16298,10 +16303,10 @@
         <v>3</v>
       </c>
       <c r="V217" s="1" t="n">
-        <v>33.181</v>
+        <v>-33.6</v>
       </c>
       <c r="W217" s="1" t="n">
-        <v>5.745</v>
+        <v>-2.585</v>
       </c>
       <c r="X217" s="1" t="n">
         <v>0</v>
@@ -16315,11 +16320,11 @@
     </row>
     <row r="218" spans="1:28">
       <c r="A218" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B218" s="1" t="n"/>
       <c r="C218" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D218" s="1" t="n">
         <v>-10.05</v>
@@ -16370,10 +16375,10 @@
         <v>3</v>
       </c>
       <c r="V218" s="1" t="n">
-        <v>-33.181</v>
+        <v>33.181</v>
       </c>
       <c r="W218" s="1" t="n">
-        <v>-6.431</v>
+        <v>5.745</v>
       </c>
       <c r="X218" s="1" t="n">
         <v>0</v>
@@ -16387,35 +16392,35 @@
     </row>
     <row r="219" spans="1:28">
       <c r="A219" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B219" s="1" t="n"/>
       <c r="C219" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>-5.9</v>
+        <v>-10.05</v>
       </c>
       <c r="E219" s="1" t="n">
-        <v>-6.575</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="F219" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="G219" s="1" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H219" s="1" t="n">
-        <v>-6.100000000000001</v>
+        <v>-10.25</v>
       </c>
       <c r="I219" s="1" t="n">
-        <v>-5.7</v>
+        <v>-9.850000000000001</v>
       </c>
       <c r="J219" s="1" t="n">
-        <v>-4.375</v>
+        <v>11.175</v>
       </c>
       <c r="K219" s="1" t="n">
-        <v>-8.775</v>
+        <v>6.975</v>
       </c>
       <c r="L219" s="1" t="n"/>
       <c r="M219" s="1" t="n">
@@ -16425,10 +16430,10 @@
         <v>0</v>
       </c>
       <c r="O219" s="1" t="n">
-        <v>-5.9</v>
+        <v>-10.05</v>
       </c>
       <c r="P219" s="1" t="n">
-        <v>-6.575</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="Q219" s="1" t="n"/>
       <c r="R219" s="1" t="n"/>
@@ -16436,36 +16441,34 @@
         <v>32</v>
       </c>
       <c r="T219" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U219" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V219" s="1" t="n">
-        <v>-4.2</v>
+        <v>-33.181</v>
       </c>
       <c r="W219" s="1" t="n">
-        <v>-2.117</v>
+        <v>-6.431</v>
       </c>
       <c r="X219" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y219" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="Z219" s="1" t="n"/>
       <c r="AA219" s="1" t="n"/>
-      <c r="AB219" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="AB219" s="1" t="s"/>
     </row>
     <row r="220" spans="1:28">
       <c r="A220" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B220" s="1" t="n"/>
       <c r="C220" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>-5.9</v>
@@ -16516,10 +16519,10 @@
         <v>6</v>
       </c>
       <c r="V220" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W220" s="1" t="n">
-        <v>1.432</v>
+        <v>-2.117</v>
       </c>
       <c r="X220" s="1" t="n">
         <v>8</v>
@@ -16535,11 +16538,11 @@
     </row>
     <row r="221" spans="1:28">
       <c r="A221" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B221" s="1" t="n"/>
       <c r="C221" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D221" s="1" t="n">
         <v>-5.9</v>
@@ -16584,34 +16587,36 @@
         <v>32</v>
       </c>
       <c r="T221" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U221" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V221" s="1" t="n">
-        <v>33.181</v>
+        <v>4.2</v>
       </c>
       <c r="W221" s="1" t="n">
-        <v>-2.752</v>
+        <v>1.432</v>
       </c>
       <c r="X221" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y221" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z221" s="1" t="n"/>
       <c r="AA221" s="1" t="n"/>
-      <c r="AB221" s="1" t="s"/>
+      <c r="AB221" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="222" spans="1:28">
       <c r="A222" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B222" s="1" t="n"/>
       <c r="C222" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D222" s="1" t="n">
         <v>-5.9</v>
@@ -16662,10 +16667,10 @@
         <v>3</v>
       </c>
       <c r="V222" s="1" t="n">
-        <v>-33.181</v>
+        <v>33.181</v>
       </c>
       <c r="W222" s="1" t="n">
-        <v>2.067</v>
+        <v>-2.752</v>
       </c>
       <c r="X222" s="1" t="n">
         <v>0</v>
@@ -16679,35 +16684,35 @@
     </row>
     <row r="223" spans="1:28">
       <c r="A223" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B223" s="1" t="n"/>
       <c r="C223" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>-7.35</v>
+        <v>-5.9</v>
       </c>
       <c r="E223" s="1" t="n">
-        <v>-0.769</v>
+        <v>-6.575</v>
       </c>
       <c r="F223" s="1" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G223" s="1" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H223" s="1" t="n">
-        <v>-7.75</v>
+        <v>-6.100000000000001</v>
       </c>
       <c r="I223" s="1" t="n">
-        <v>-6.949999999999999</v>
+        <v>-5.7</v>
       </c>
       <c r="J223" s="1" t="n">
-        <v>-0.569</v>
+        <v>-4.375</v>
       </c>
       <c r="K223" s="1" t="n">
-        <v>-0.9690000000000001</v>
+        <v>-8.775</v>
       </c>
       <c r="L223" s="1" t="n"/>
       <c r="M223" s="1" t="n">
@@ -16717,10 +16722,10 @@
         <v>0</v>
       </c>
       <c r="O223" s="1" t="n">
-        <v>-7.35</v>
+        <v>-5.9</v>
       </c>
       <c r="P223" s="1" t="n">
-        <v>-0.769</v>
+        <v>-6.575</v>
       </c>
       <c r="Q223" s="1" t="n"/>
       <c r="R223" s="1" t="n"/>
@@ -16731,19 +16736,19 @@
         <v>1</v>
       </c>
       <c r="U223" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V223" s="1" t="n">
-        <v>-17</v>
+        <v>-33.181</v>
       </c>
       <c r="W223" s="1" t="n">
-        <v>33.258</v>
+        <v>2.067</v>
       </c>
       <c r="X223" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y223" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z223" s="1" t="n"/>
       <c r="AA223" s="1" t="n"/>
@@ -16751,35 +16756,35 @@
     </row>
     <row r="224" spans="1:28">
       <c r="A224" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B224" s="1" t="n"/>
       <c r="C224" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>-3.049</v>
+        <v>-7.35</v>
       </c>
       <c r="E224" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>-0.769</v>
       </c>
       <c r="F224" s="1" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="G224" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H224" s="1" t="n">
-        <v>-5.349</v>
+        <v>-7.75</v>
       </c>
       <c r="I224" s="1" t="n">
-        <v>-0.7490000000000001</v>
+        <v>-6.949999999999999</v>
       </c>
       <c r="J224" s="1" t="n">
-        <v>9.800000000000001</v>
+        <v>-0.569</v>
       </c>
       <c r="K224" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>-0.9690000000000001</v>
       </c>
       <c r="L224" s="1" t="n"/>
       <c r="M224" s="1" t="n">
@@ -16789,10 +16794,10 @@
         <v>0</v>
       </c>
       <c r="O224" s="1" t="n">
-        <v>-3.049</v>
+        <v>-7.35</v>
       </c>
       <c r="P224" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>-0.769</v>
       </c>
       <c r="Q224" s="1" t="n"/>
       <c r="R224" s="1" t="n"/>
@@ -16800,19 +16805,19 @@
         <v>32</v>
       </c>
       <c r="T224" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U224" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V224" s="1" t="n">
-        <v>30</v>
+        <v>-17</v>
       </c>
       <c r="W224" s="1" t="n">
-        <v>24.958</v>
+        <v>33.258</v>
       </c>
       <c r="X224" s="1" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="Y224" s="1" t="n">
         <v>0</v>
@@ -16823,11 +16828,11 @@
     </row>
     <row r="225" spans="1:28">
       <c r="A225" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B225" s="1" t="n"/>
       <c r="C225" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D225" s="1" t="n">
         <v>-3.049</v>
@@ -16878,13 +16883,13 @@
         <v>1</v>
       </c>
       <c r="V225" s="1" t="n">
-        <v>-29.971</v>
+        <v>30</v>
       </c>
       <c r="W225" s="1" t="n">
         <v>24.958</v>
       </c>
       <c r="X225" s="1" t="n">
-        <v>4.158</v>
+        <v>4.1</v>
       </c>
       <c r="Y225" s="1" t="n">
         <v>0</v>
@@ -16895,11 +16900,11 @@
     </row>
     <row r="226" spans="1:28">
       <c r="A226" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B226" s="1" t="n"/>
       <c r="C226" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D226" s="1" t="n">
         <v>-3.049</v>
@@ -16944,19 +16949,19 @@
         <v>32</v>
       </c>
       <c r="T226" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U226" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V226" s="1" t="n">
-        <v>19.5</v>
+        <v>-29.971</v>
       </c>
       <c r="W226" s="1" t="n">
-        <v>33.468</v>
+        <v>24.958</v>
       </c>
       <c r="X226" s="1" t="n">
-        <v>4.15</v>
+        <v>4.158</v>
       </c>
       <c r="Y226" s="1" t="n">
         <v>0</v>
@@ -16967,35 +16972,35 @@
     </row>
     <row r="227" spans="1:28">
       <c r="A227" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B227" s="1" t="n"/>
       <c r="C227" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>-2.9</v>
+        <v>-3.049</v>
       </c>
       <c r="E227" s="1" t="n">
-        <v>-7.275</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F227" s="1" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="G227" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H227" s="1" t="n">
-        <v>-3.35</v>
+        <v>-5.349</v>
       </c>
       <c r="I227" s="1" t="n">
-        <v>-2.45</v>
+        <v>-0.7490000000000001</v>
       </c>
       <c r="J227" s="1" t="n">
-        <v>-7.075</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K227" s="1" t="n">
-        <v>-7.475000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L227" s="1" t="n"/>
       <c r="M227" s="1" t="n">
@@ -17005,10 +17010,10 @@
         <v>0</v>
       </c>
       <c r="O227" s="1" t="n">
-        <v>-2.9</v>
+        <v>-3.049</v>
       </c>
       <c r="P227" s="1" t="n">
-        <v>-7.275</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="Q227" s="1" t="n"/>
       <c r="R227" s="1" t="n"/>
@@ -17016,19 +17021,19 @@
         <v>32</v>
       </c>
       <c r="T227" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U227" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V227" s="1" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="W227" s="1" t="n">
-        <v>-33.942</v>
+        <v>33.468</v>
       </c>
       <c r="X227" s="1" t="n">
-        <v>50.9</v>
+        <v>4.15</v>
       </c>
       <c r="Y227" s="1" t="n">
         <v>0</v>
@@ -17039,11 +17044,11 @@
     </row>
     <row r="228" spans="1:28">
       <c r="A228" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B228" s="1" t="n"/>
       <c r="C228" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>-2.9</v>
@@ -17088,22 +17093,22 @@
         <v>32</v>
       </c>
       <c r="T228" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U228" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V228" s="1" t="n">
-        <v>25.45</v>
+        <v>0</v>
       </c>
       <c r="W228" s="1" t="n">
-        <v>29.058</v>
+        <v>-33.942</v>
       </c>
       <c r="X228" s="1" t="n">
-        <v>0</v>
+        <v>50.9</v>
       </c>
       <c r="Y228" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z228" s="1" t="n"/>
       <c r="AA228" s="1" t="n"/>
@@ -17111,11 +17116,11 @@
     </row>
     <row r="229" spans="1:28">
       <c r="A229" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B229" s="1" t="n"/>
       <c r="C229" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>-2.9</v>
@@ -17160,19 +17165,19 @@
         <v>32</v>
       </c>
       <c r="T229" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U229" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U229" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="V229" s="1" t="n">
-        <v>0</v>
+        <v>25.45</v>
       </c>
       <c r="W229" s="1" t="n">
-        <v>-0.342</v>
+        <v>29.058</v>
       </c>
       <c r="X229" s="1" t="n">
-        <v>67.7</v>
+        <v>0</v>
       </c>
       <c r="Y229" s="1" t="n">
         <v>8.4</v>
@@ -17183,35 +17188,35 @@
     </row>
     <row r="230" spans="1:28">
       <c r="A230" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B230" s="1" t="n"/>
       <c r="C230" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>-1.67</v>
+        <v>-2.9</v>
       </c>
       <c r="E230" s="1" t="n">
-        <v>-2.9</v>
+        <v>-7.275</v>
       </c>
       <c r="F230" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G230" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G230" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="H230" s="1" t="n">
-        <v>-1.87</v>
+        <v>-3.35</v>
       </c>
       <c r="I230" s="1" t="n">
-        <v>-1.47</v>
+        <v>-2.45</v>
       </c>
       <c r="J230" s="1" t="n">
-        <v>-2.4</v>
+        <v>-7.075</v>
       </c>
       <c r="K230" s="1" t="n">
-        <v>-3.4</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L230" s="1" t="n"/>
       <c r="M230" s="1" t="n">
@@ -17221,10 +17226,10 @@
         <v>0</v>
       </c>
       <c r="O230" s="1" t="n">
-        <v>-1.67</v>
+        <v>-2.9</v>
       </c>
       <c r="P230" s="1" t="n">
-        <v>-2.9</v>
+        <v>-7.275</v>
       </c>
       <c r="Q230" s="1" t="n"/>
       <c r="R230" s="1" t="n"/>
@@ -17235,19 +17240,19 @@
         <v>2</v>
       </c>
       <c r="U230" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V230" s="1" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W230" s="1" t="n">
-        <v>-25.842</v>
+        <v>-0.342</v>
       </c>
       <c r="X230" s="1" t="n">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="Y230" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z230" s="1" t="n"/>
       <c r="AA230" s="1" t="n"/>
@@ -17255,11 +17260,11 @@
     </row>
     <row r="231" spans="1:28">
       <c r="A231" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B231" s="1" t="n"/>
       <c r="C231" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>-1.67</v>
@@ -17304,19 +17309,19 @@
         <v>32</v>
       </c>
       <c r="T231" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U231" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V231" s="1" t="n">
-        <v>-17.2</v>
+        <v>0.1</v>
       </c>
       <c r="W231" s="1" t="n">
-        <v>33.558</v>
+        <v>-25.842</v>
       </c>
       <c r="X231" s="1" t="n">
-        <v>0</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="Y231" s="1" t="n">
         <v>0</v>
@@ -17327,35 +17332,35 @@
     </row>
     <row r="232" spans="1:28">
       <c r="A232" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B232" s="1" t="n"/>
       <c r="C232" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D232" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-1.67</v>
       </c>
       <c r="E232" s="1" t="n">
-        <v>2.675</v>
+        <v>-2.9</v>
       </c>
       <c r="F232" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="G232" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H232" s="1" t="n">
-        <v>-9</v>
+        <v>-1.87</v>
       </c>
       <c r="I232" s="1" t="n">
-        <v>-8.600000000000001</v>
+        <v>-1.47</v>
       </c>
       <c r="J232" s="1" t="n">
-        <v>6.774999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="K232" s="1" t="n">
-        <v>-1.425</v>
+        <v>-3.4</v>
       </c>
       <c r="L232" s="1" t="n"/>
       <c r="M232" s="1" t="n">
@@ -17365,10 +17370,10 @@
         <v>0</v>
       </c>
       <c r="O232" s="1" t="n">
-        <v>-8.800000000000001</v>
+        <v>-1.67</v>
       </c>
       <c r="P232" s="1" t="n">
-        <v>2.675</v>
+        <v>-2.9</v>
       </c>
       <c r="Q232" s="1" t="n"/>
       <c r="R232" s="1" t="n"/>
@@ -17376,19 +17381,19 @@
         <v>32</v>
       </c>
       <c r="T232" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U232" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V232" s="1" t="n">
-        <v>0</v>
+        <v>-17.2</v>
       </c>
       <c r="W232" s="1" t="n">
-        <v>-30.042</v>
+        <v>33.558</v>
       </c>
       <c r="X232" s="1" t="n">
-        <v>51.4</v>
+        <v>0</v>
       </c>
       <c r="Y232" s="1" t="n">
         <v>0</v>
@@ -17399,35 +17404,35 @@
     </row>
     <row r="233" spans="1:28">
       <c r="A233" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B233" s="1" t="n"/>
       <c r="C233" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>-0.34</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E233" s="1" t="n">
-        <v>-8.15</v>
+        <v>2.675</v>
       </c>
       <c r="F233" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G233" s="1" t="n">
-        <v>0.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H233" s="1" t="n">
-        <v>-4.74</v>
+        <v>-9</v>
       </c>
       <c r="I233" s="1" t="n">
-        <v>4.06</v>
+        <v>-8.600000000000001</v>
       </c>
       <c r="J233" s="1" t="n">
-        <v>-7.95</v>
+        <v>6.774999999999999</v>
       </c>
       <c r="K233" s="1" t="n">
-        <v>-8.35</v>
+        <v>-1.425</v>
       </c>
       <c r="L233" s="1" t="n"/>
       <c r="M233" s="1" t="n">
@@ -17437,10 +17442,10 @@
         <v>0</v>
       </c>
       <c r="O233" s="1" t="n">
-        <v>-0.34</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P233" s="1" t="n">
-        <v>-8.15</v>
+        <v>2.675</v>
       </c>
       <c r="Q233" s="1" t="n"/>
       <c r="R233" s="1" t="n"/>
@@ -17451,19 +17456,19 @@
         <v>2</v>
       </c>
       <c r="U233" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V233" s="1" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W233" s="1" t="n">
-        <v>-0.542</v>
+        <v>-30.042</v>
       </c>
       <c r="X233" s="1" t="n">
-        <v>60</v>
+        <v>51.4</v>
       </c>
       <c r="Y233" s="1" t="n">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="Z233" s="1" t="n"/>
       <c r="AA233" s="1" t="n"/>
@@ -17471,11 +17476,11 @@
     </row>
     <row r="234" spans="1:28">
       <c r="A234" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B234" s="1" t="n"/>
       <c r="C234" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>-0.34</v>
@@ -17520,22 +17525,22 @@
         <v>32</v>
       </c>
       <c r="T234" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U234" s="1" t="n">
         <v>2</v>
       </c>
       <c r="V234" s="1" t="n">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="W234" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.542</v>
       </c>
       <c r="X234" s="1" t="n">
-        <v>8.4</v>
+        <v>60</v>
       </c>
       <c r="Y234" s="1" t="n">
-        <v>67.2</v>
+        <v>51.2</v>
       </c>
       <c r="Z234" s="1" t="n"/>
       <c r="AA234" s="1" t="n"/>
@@ -17543,11 +17548,11 @@
     </row>
     <row r="235" spans="1:28">
       <c r="A235" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B235" s="1" t="n"/>
       <c r="C235" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>-0.34</v>
@@ -17592,22 +17597,22 @@
         <v>32</v>
       </c>
       <c r="T235" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U235" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V235" s="1" t="n">
-        <v>21.7</v>
+        <v>4.2</v>
       </c>
       <c r="W235" s="1" t="n">
-        <v>33.658</v>
+        <v>-0.342</v>
       </c>
       <c r="X235" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y235" s="1" t="n">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="Z235" s="1" t="n"/>
       <c r="AA235" s="1" t="n"/>
@@ -17615,35 +17620,35 @@
     </row>
     <row r="236" spans="1:28">
       <c r="A236" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B236" s="1" t="n"/>
       <c r="C236" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>-5.65</v>
+        <v>-0.34</v>
       </c>
       <c r="E236" s="1" t="n">
-        <v>4.4</v>
+        <v>-8.15</v>
       </c>
       <c r="F236" s="1" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G236" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G236" s="1" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H236" s="1" t="n">
-        <v>-5.850000000000001</v>
+        <v>-4.74</v>
       </c>
       <c r="I236" s="1" t="n">
-        <v>-5.45</v>
+        <v>4.06</v>
       </c>
       <c r="J236" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-7.95</v>
       </c>
       <c r="K236" s="1" t="n">
-        <v>0</v>
+        <v>-8.35</v>
       </c>
       <c r="L236" s="1" t="n"/>
       <c r="M236" s="1" t="n">
@@ -17653,10 +17658,10 @@
         <v>0</v>
       </c>
       <c r="O236" s="1" t="n">
-        <v>-5.65</v>
+        <v>-0.34</v>
       </c>
       <c r="P236" s="1" t="n">
-        <v>4.4</v>
+        <v>-8.15</v>
       </c>
       <c r="Q236" s="1" t="n"/>
       <c r="R236" s="1" t="n"/>
@@ -17664,22 +17669,22 @@
         <v>32</v>
       </c>
       <c r="T236" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U236" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V236" s="1" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="W236" s="1" t="n">
-        <v>-0.342</v>
+        <v>33.658</v>
       </c>
       <c r="X236" s="1" t="n">
-        <v>68.2</v>
+        <v>0</v>
       </c>
       <c r="Y236" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z236" s="1" t="n"/>
       <c r="AA236" s="1" t="n"/>
@@ -17687,11 +17692,11 @@
     </row>
     <row r="237" spans="1:28">
       <c r="A237" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B237" s="1" t="n"/>
       <c r="C237" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>-5.65</v>
@@ -17736,22 +17741,22 @@
         <v>32</v>
       </c>
       <c r="T237" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U237" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V237" s="1" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="W237" s="1" t="n">
-        <v>29.258</v>
+        <v>-0.342</v>
       </c>
       <c r="X237" s="1" t="n">
-        <v>0</v>
+        <v>68.2</v>
       </c>
       <c r="Y237" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z237" s="1" t="n"/>
       <c r="AA237" s="1" t="n"/>
@@ -17759,11 +17764,11 @@
     </row>
     <row r="238" spans="1:28">
       <c r="A238" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B238" s="1" t="n"/>
       <c r="C238" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>-5.65</v>
@@ -17814,10 +17819,10 @@
         <v>1</v>
       </c>
       <c r="V238" s="1" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="W238" s="1" t="n">
-        <v>29.058</v>
+        <v>29.258</v>
       </c>
       <c r="X238" s="1" t="n">
         <v>0</v>
@@ -17831,35 +17836,35 @@
     </row>
     <row r="239" spans="1:28">
       <c r="A239" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B239" s="1" t="n"/>
       <c r="C239" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D239" s="1" t="n">
-        <v>-1.72</v>
+        <v>-5.65</v>
       </c>
       <c r="E239" s="1" t="n">
-        <v>-2.175</v>
+        <v>4.4</v>
       </c>
       <c r="F239" s="1" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G239" s="1" t="n">
-        <v>0.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H239" s="1" t="n">
-        <v>-2.32</v>
+        <v>-5.850000000000001</v>
       </c>
       <c r="I239" s="1" t="n">
-        <v>-1.12</v>
+        <v>-5.45</v>
       </c>
       <c r="J239" s="1" t="n">
-        <v>-1.975</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K239" s="1" t="n">
-        <v>-2.375</v>
+        <v>0</v>
       </c>
       <c r="L239" s="1" t="n"/>
       <c r="M239" s="1" t="n">
@@ -17869,10 +17874,10 @@
         <v>0</v>
       </c>
       <c r="O239" s="1" t="n">
-        <v>-1.72</v>
+        <v>-5.65</v>
       </c>
       <c r="P239" s="1" t="n">
-        <v>-2.175</v>
+        <v>4.4</v>
       </c>
       <c r="Q239" s="1" t="n"/>
       <c r="R239" s="1" t="n"/>
@@ -17883,19 +17888,19 @@
         <v>1</v>
       </c>
       <c r="U239" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V239" s="1" t="n">
-        <v>33.6</v>
+        <v>25.7</v>
       </c>
       <c r="W239" s="1" t="n">
-        <v>3.748</v>
+        <v>29.058</v>
       </c>
       <c r="X239" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y239" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z239" s="1" t="n"/>
       <c r="AA239" s="1" t="n"/>
@@ -17903,11 +17908,11 @@
     </row>
     <row r="240" spans="1:28">
       <c r="A240" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B240" s="1" t="n"/>
       <c r="C240" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>-1.72</v>
@@ -17958,10 +17963,10 @@
         <v>3</v>
       </c>
       <c r="V240" s="1" t="n">
-        <v>-33.6</v>
+        <v>33.6</v>
       </c>
       <c r="W240" s="1" t="n">
-        <v>-4.424</v>
+        <v>3.748</v>
       </c>
       <c r="X240" s="1" t="n">
         <v>0</v>
@@ -17975,35 +17980,35 @@
     </row>
     <row r="241" spans="1:28">
       <c r="A241" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B241" s="1" t="n"/>
       <c r="C241" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>-4.617</v>
+        <v>-1.72</v>
       </c>
       <c r="E241" s="1" t="n">
-        <v>-1.615</v>
+        <v>-2.175</v>
       </c>
       <c r="F241" s="1" t="n">
         <v>1.2</v>
       </c>
       <c r="G241" s="1" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H241" s="1" t="n">
-        <v>-5.217</v>
+        <v>-2.32</v>
       </c>
       <c r="I241" s="1" t="n">
-        <v>-4.017</v>
+        <v>-1.12</v>
       </c>
       <c r="J241" s="1" t="n">
-        <v>-1.315</v>
+        <v>-1.975</v>
       </c>
       <c r="K241" s="1" t="n">
-        <v>-1.915</v>
+        <v>-2.375</v>
       </c>
       <c r="L241" s="1" t="n"/>
       <c r="M241" s="1" t="n">
@@ -18013,10 +18018,10 @@
         <v>0</v>
       </c>
       <c r="O241" s="1" t="n">
-        <v>-4.617</v>
+        <v>-1.72</v>
       </c>
       <c r="P241" s="1" t="n">
-        <v>-1.615</v>
+        <v>-2.175</v>
       </c>
       <c r="Q241" s="1" t="n"/>
       <c r="R241" s="1" t="n"/>
@@ -18024,22 +18029,22 @@
         <v>32</v>
       </c>
       <c r="T241" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U241" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V241" s="1" t="n">
-        <v>0</v>
+        <v>-33.6</v>
       </c>
       <c r="W241" s="1" t="n">
-        <v>-0.343</v>
+        <v>-4.424</v>
       </c>
       <c r="X241" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y241" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="Z241" s="1" t="n"/>
       <c r="AA241" s="1" t="n"/>
@@ -18047,35 +18052,35 @@
     </row>
     <row r="242" spans="1:28">
       <c r="A242" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B242" s="1" t="n"/>
       <c r="C242" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D242" s="1" t="n">
-        <v>-1.8</v>
+        <v>-4.617</v>
       </c>
       <c r="E242" s="1" t="n">
-        <v>-7.275</v>
+        <v>-1.615</v>
       </c>
       <c r="F242" s="1" t="n">
         <v>1.2</v>
       </c>
       <c r="G242" s="1" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H242" s="1" t="n">
-        <v>-2.4</v>
+        <v>-5.217</v>
       </c>
       <c r="I242" s="1" t="n">
-        <v>-1.2</v>
+        <v>-4.017</v>
       </c>
       <c r="J242" s="1" t="n">
-        <v>-7.075</v>
+        <v>-1.315</v>
       </c>
       <c r="K242" s="1" t="n">
-        <v>-7.475000000000001</v>
+        <v>-1.915</v>
       </c>
       <c r="L242" s="1" t="n"/>
       <c r="M242" s="1" t="n">
@@ -18085,10 +18090,10 @@
         <v>0</v>
       </c>
       <c r="O242" s="1" t="n">
-        <v>-1.8</v>
+        <v>-4.617</v>
       </c>
       <c r="P242" s="1" t="n">
-        <v>-7.275</v>
+        <v>-1.615</v>
       </c>
       <c r="Q242" s="1" t="n"/>
       <c r="R242" s="1" t="n"/>
@@ -18096,22 +18101,22 @@
         <v>32</v>
       </c>
       <c r="T242" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U242" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V242" s="1" t="n">
-        <v>-33.605</v>
+        <v>0</v>
       </c>
       <c r="W242" s="1" t="n">
-        <v>-4.532</v>
+        <v>-0.343</v>
       </c>
       <c r="X242" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y242" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z242" s="1" t="n"/>
       <c r="AA242" s="1" t="n"/>
@@ -18119,11 +18124,11 @@
     </row>
     <row r="243" spans="1:28">
       <c r="A243" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B243" s="1" t="n"/>
       <c r="C243" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>-1.8</v>
@@ -18174,10 +18179,10 @@
         <v>3</v>
       </c>
       <c r="V243" s="1" t="n">
-        <v>33.605</v>
+        <v>-33.605</v>
       </c>
       <c r="W243" s="1" t="n">
-        <v>3.847</v>
+        <v>-4.532</v>
       </c>
       <c r="X243" s="1" t="n">
         <v>0</v>
@@ -18191,35 +18196,35 @@
     </row>
     <row r="244" spans="1:28">
       <c r="A244" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B244" s="1" t="n"/>
       <c r="C244" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>-9.69</v>
+        <v>-1.8</v>
       </c>
       <c r="E244" s="1" t="n">
-        <v>-6.325</v>
+        <v>-7.275</v>
       </c>
       <c r="F244" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G244" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G244" s="1" t="n">
-        <v>8.9</v>
-      </c>
       <c r="H244" s="1" t="n">
-        <v>-9.889999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="I244" s="1" t="n">
-        <v>-9.49</v>
+        <v>-1.2</v>
       </c>
       <c r="J244" s="1" t="n">
-        <v>-1.875</v>
+        <v>-7.075</v>
       </c>
       <c r="K244" s="1" t="n">
-        <v>-10.775</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L244" s="1" t="n"/>
       <c r="M244" s="1" t="n">
@@ -18229,10 +18234,10 @@
         <v>0</v>
       </c>
       <c r="O244" s="1" t="n">
-        <v>-9.69</v>
+        <v>-1.8</v>
       </c>
       <c r="P244" s="1" t="n">
-        <v>-6.325</v>
+        <v>-7.275</v>
       </c>
       <c r="Q244" s="1" t="n"/>
       <c r="R244" s="1" t="n"/>
@@ -18243,19 +18248,19 @@
         <v>1</v>
       </c>
       <c r="U244" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V244" s="1" t="n">
-        <v>34.3</v>
+        <v>33.605</v>
       </c>
       <c r="W244" s="1" t="n">
-        <v>-0.442</v>
+        <v>3.847</v>
       </c>
       <c r="X244" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y244" s="1" t="n">
-        <v>8.5</v>
+        <v>16.8</v>
       </c>
       <c r="Z244" s="1" t="n"/>
       <c r="AA244" s="1" t="n"/>
@@ -18263,35 +18268,35 @@
     </row>
     <row r="245" spans="1:28">
       <c r="A245" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B245" s="1" t="n"/>
       <c r="C245" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>6.35</v>
+        <v>-9.69</v>
       </c>
       <c r="E245" s="1" t="n">
-        <v>-8.25</v>
+        <v>-6.325</v>
       </c>
       <c r="F245" s="1" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="G245" s="1" t="n">
-        <v>1.5</v>
+        <v>8.9</v>
       </c>
       <c r="H245" s="1" t="n">
-        <v>5.6</v>
+        <v>-9.889999999999999</v>
       </c>
       <c r="I245" s="1" t="n">
-        <v>7.1</v>
+        <v>-9.49</v>
       </c>
       <c r="J245" s="1" t="n">
-        <v>-7.5</v>
+        <v>-1.875</v>
       </c>
       <c r="K245" s="1" t="n">
-        <v>-9</v>
+        <v>-10.775</v>
       </c>
       <c r="L245" s="1" t="n"/>
       <c r="M245" s="1" t="n">
@@ -18301,10 +18306,10 @@
         <v>0</v>
       </c>
       <c r="O245" s="1" t="n">
-        <v>6.35</v>
+        <v>-9.69</v>
       </c>
       <c r="P245" s="1" t="n">
-        <v>-8.25</v>
+        <v>-6.325</v>
       </c>
       <c r="Q245" s="1" t="n"/>
       <c r="R245" s="1" t="n"/>
@@ -18315,19 +18320,19 @@
         <v>1</v>
       </c>
       <c r="U245" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V245" s="1" t="n">
-        <v>-22.189</v>
+        <v>34.3</v>
       </c>
       <c r="W245" s="1" t="n">
-        <v>34.091</v>
+        <v>-0.442</v>
       </c>
       <c r="X245" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y245" s="1" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z245" s="1" t="n"/>
       <c r="AA245" s="1" t="n"/>
@@ -18335,35 +18340,35 @@
     </row>
     <row r="246" spans="1:28">
       <c r="A246" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B246" s="1" t="n"/>
       <c r="C246" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D246" s="1" t="n">
-        <v>-5.25</v>
+        <v>6.35</v>
       </c>
       <c r="E246" s="1" t="n">
-        <v>-4.2</v>
+        <v>-8.25</v>
       </c>
       <c r="F246" s="1" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="G246" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H246" s="1" t="n">
-        <v>-5.65</v>
+        <v>5.6</v>
       </c>
       <c r="I246" s="1" t="n">
-        <v>-4.85</v>
+        <v>7.1</v>
       </c>
       <c r="J246" s="1" t="n">
-        <v>-3.45</v>
+        <v>-7.5</v>
       </c>
       <c r="K246" s="1" t="n">
-        <v>-4.95</v>
+        <v>-9</v>
       </c>
       <c r="L246" s="1" t="n"/>
       <c r="M246" s="1" t="n">
@@ -18373,10 +18378,10 @@
         <v>0</v>
       </c>
       <c r="O246" s="1" t="n">
-        <v>-5.25</v>
+        <v>6.35</v>
       </c>
       <c r="P246" s="1" t="n">
-        <v>-4.2</v>
+        <v>-8.25</v>
       </c>
       <c r="Q246" s="1" t="n"/>
       <c r="R246" s="1" t="n"/>
@@ -18390,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="V246" s="1" t="n">
-        <v>13.087</v>
+        <v>-22.189</v>
       </c>
       <c r="W246" s="1" t="n">
         <v>34.091</v>
@@ -18407,35 +18412,35 @@
     </row>
     <row r="247" spans="1:28">
       <c r="A247" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B247" s="1" t="n"/>
       <c r="C247" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D247" s="1" t="n">
-        <v>3.8</v>
+        <v>-5.25</v>
       </c>
       <c r="E247" s="1" t="n">
-        <v>10.25</v>
+        <v>-4.2</v>
       </c>
       <c r="F247" s="1" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="G247" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H247" s="1" t="n">
-        <v>0.3999999999999999</v>
+        <v>-5.65</v>
       </c>
       <c r="I247" s="1" t="n">
-        <v>7.199999999999999</v>
+        <v>-4.85</v>
       </c>
       <c r="J247" s="1" t="n">
-        <v>11</v>
+        <v>-3.45</v>
       </c>
       <c r="K247" s="1" t="n">
-        <v>9.5</v>
+        <v>-4.95</v>
       </c>
       <c r="L247" s="1" t="n"/>
       <c r="M247" s="1" t="n">
@@ -18445,10 +18450,10 @@
         <v>0</v>
       </c>
       <c r="O247" s="1" t="n">
-        <v>3.8</v>
+        <v>-5.25</v>
       </c>
       <c r="P247" s="1" t="n">
-        <v>10.25</v>
+        <v>-4.2</v>
       </c>
       <c r="Q247" s="1" t="n"/>
       <c r="R247" s="1" t="n"/>
@@ -18456,22 +18461,22 @@
         <v>32</v>
       </c>
       <c r="T247" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U247" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V247" s="1" t="n">
-        <v>-3.85</v>
+        <v>13.087</v>
       </c>
       <c r="W247" s="1" t="n">
-        <v>0</v>
+        <v>34.091</v>
       </c>
       <c r="X247" s="1" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="Y247" s="1" t="n">
-        <v>71.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z247" s="1" t="n"/>
       <c r="AA247" s="1" t="n"/>
@@ -18479,35 +18484,35 @@
     </row>
     <row r="248" spans="1:28">
       <c r="A248" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B248" s="1" t="n"/>
       <c r="C248" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D248" s="1" t="n">
-        <v>-1</v>
+        <v>3.8</v>
       </c>
       <c r="E248" s="1" t="n">
-        <v>3.9</v>
+        <v>10.25</v>
       </c>
       <c r="F248" s="1" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="G248" s="1" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H248" s="1" t="n">
-        <v>-4.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="I248" s="1" t="n">
-        <v>2.95</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J248" s="1" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="K248" s="1" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L248" s="1" t="n"/>
       <c r="M248" s="1" t="n">
@@ -18517,10 +18522,10 @@
         <v>0</v>
       </c>
       <c r="O248" s="1" t="n">
-        <v>-1</v>
+        <v>3.8</v>
       </c>
       <c r="P248" s="1" t="n">
-        <v>3.9</v>
+        <v>10.25</v>
       </c>
       <c r="Q248" s="1" t="n"/>
       <c r="R248" s="1" t="n"/>
@@ -18528,22 +18533,22 @@
         <v>32</v>
       </c>
       <c r="T248" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U248" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V248" s="1" t="n">
-        <v>0</v>
+        <v>-3.85</v>
       </c>
       <c r="W248" s="1" t="n">
-        <v>-0.342</v>
+        <v>0</v>
       </c>
       <c r="X248" s="1" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="Y248" s="1" t="n">
-        <v>8.4</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="Z248" s="1" t="n"/>
       <c r="AA248" s="1" t="n"/>
@@ -18551,35 +18556,35 @@
     </row>
     <row r="249" spans="1:28">
       <c r="A249" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B249" s="1" t="n"/>
       <c r="C249" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>-1.65</v>
+        <v>-1</v>
       </c>
       <c r="E249" s="1" t="n">
-        <v>-3.9</v>
+        <v>3.9</v>
       </c>
       <c r="F249" s="1" t="n">
-        <v>0.9</v>
+        <v>7.9</v>
       </c>
       <c r="G249" s="1" t="n">
-        <v>0.9</v>
+        <v>7.8</v>
       </c>
       <c r="H249" s="1" t="n">
-        <v>-2.1</v>
+        <v>-4.95</v>
       </c>
       <c r="I249" s="1" t="n">
-        <v>-1.2</v>
+        <v>2.95</v>
       </c>
       <c r="J249" s="1" t="n">
-        <v>-3.45</v>
+        <v>7.8</v>
       </c>
       <c r="K249" s="1" t="n">
-        <v>-4.35</v>
+        <v>0</v>
       </c>
       <c r="L249" s="1" t="n"/>
       <c r="M249" s="1" t="n">
@@ -18589,10 +18594,10 @@
         <v>0</v>
       </c>
       <c r="O249" s="1" t="n">
-        <v>-1.65</v>
+        <v>-1</v>
       </c>
       <c r="P249" s="1" t="n">
-        <v>-3.9</v>
+        <v>3.9</v>
       </c>
       <c r="Q249" s="1" t="n"/>
       <c r="R249" s="1" t="n"/>
@@ -18600,22 +18605,22 @@
         <v>32</v>
       </c>
       <c r="T249" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U249" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V249" s="1" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="W249" s="1" t="n">
-        <v>35.945</v>
+        <v>-0.342</v>
       </c>
       <c r="X249" s="1" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="Y249" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z249" s="1" t="n"/>
       <c r="AA249" s="1" t="n"/>
@@ -18623,11 +18628,11 @@
     </row>
     <row r="250" spans="1:28">
       <c r="A250" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B250" s="1" t="n"/>
       <c r="C250" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>-1.65</v>
@@ -18678,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="V250" s="1" t="n">
-        <v>-22.2</v>
+        <v>14.5</v>
       </c>
       <c r="W250" s="1" t="n">
         <v>35.945</v>
@@ -18695,35 +18700,35 @@
     </row>
     <row r="251" spans="1:28">
       <c r="A251" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B251" s="1" t="n"/>
       <c r="C251" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>-6.39</v>
+        <v>-1.65</v>
       </c>
       <c r="E251" s="1" t="n">
-        <v>10.5</v>
+        <v>-3.9</v>
       </c>
       <c r="F251" s="1" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="G251" s="1" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H251" s="1" t="n">
-        <v>-7.34</v>
+        <v>-2.1</v>
       </c>
       <c r="I251" s="1" t="n">
-        <v>-5.44</v>
+        <v>-1.2</v>
       </c>
       <c r="J251" s="1" t="n">
-        <v>11.7</v>
+        <v>-3.45</v>
       </c>
       <c r="K251" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>-4.35</v>
       </c>
       <c r="L251" s="1" t="n"/>
       <c r="M251" s="1" t="n">
@@ -18733,10 +18738,10 @@
         <v>0</v>
       </c>
       <c r="O251" s="1" t="n">
-        <v>-6.39</v>
+        <v>-1.65</v>
       </c>
       <c r="P251" s="1" t="n">
-        <v>10.5</v>
+        <v>-3.9</v>
       </c>
       <c r="Q251" s="1" t="n"/>
       <c r="R251" s="1" t="n"/>
@@ -18744,22 +18749,22 @@
         <v>32</v>
       </c>
       <c r="T251" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U251" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V251" s="1" t="n">
-        <v>-3.85</v>
+        <v>-22.2</v>
       </c>
       <c r="W251" s="1" t="n">
-        <v>35.179</v>
+        <v>35.945</v>
       </c>
       <c r="X251" s="1" t="n">
-        <v>45.7</v>
+        <v>1</v>
       </c>
       <c r="Y251" s="1" t="n">
-        <v>3.812</v>
+        <v>0</v>
       </c>
       <c r="Z251" s="1" t="n"/>
       <c r="AA251" s="1" t="n"/>
@@ -18767,35 +18772,35 @@
     </row>
     <row r="252" spans="1:28">
       <c r="A252" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B252" s="1" t="n"/>
       <c r="C252" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>2.8</v>
+        <v>-6.39</v>
       </c>
       <c r="E252" s="1" t="n">
-        <v>-0.5</v>
+        <v>10.5</v>
       </c>
       <c r="F252" s="1" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="G252" s="1" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H252" s="1" t="n">
-        <v>0.7999999999999998</v>
+        <v>-7.34</v>
       </c>
       <c r="I252" s="1" t="n">
-        <v>4.8</v>
+        <v>-5.44</v>
       </c>
       <c r="J252" s="1" t="n">
-        <v>-0.04999999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="K252" s="1" t="n">
-        <v>-0.95</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L252" s="1" t="n"/>
       <c r="M252" s="1" t="n">
@@ -18805,10 +18810,10 @@
         <v>0</v>
       </c>
       <c r="O252" s="1" t="n">
-        <v>2.8</v>
+        <v>-6.39</v>
       </c>
       <c r="P252" s="1" t="n">
-        <v>-0.5</v>
+        <v>10.5</v>
       </c>
       <c r="Q252" s="1" t="n"/>
       <c r="R252" s="1" t="n"/>
@@ -18816,22 +18821,22 @@
         <v>32</v>
       </c>
       <c r="T252" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U252" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V252" s="1" t="n">
-        <v>23.731</v>
+        <v>-3.85</v>
       </c>
       <c r="W252" s="1" t="n">
-        <v>-33.685</v>
+        <v>35.179</v>
       </c>
       <c r="X252" s="1" t="n">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="Y252" s="1" t="n">
-        <v>0</v>
+        <v>3.812</v>
       </c>
       <c r="Z252" s="1" t="n"/>
       <c r="AA252" s="1" t="n"/>
@@ -18839,14 +18844,14 @@
     </row>
     <row r="253" spans="1:28">
       <c r="A253" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B253" s="1" t="n"/>
       <c r="C253" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D253" s="1" t="n">
-        <v>6.85</v>
+        <v>2.8</v>
       </c>
       <c r="E253" s="1" t="n">
         <v>-0.5</v>
@@ -18858,10 +18863,10 @@
         <v>0.9</v>
       </c>
       <c r="H253" s="1" t="n">
-        <v>4.85</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="I253" s="1" t="n">
-        <v>8.85</v>
+        <v>4.8</v>
       </c>
       <c r="J253" s="1" t="n">
         <v>-0.04999999999999999</v>
@@ -18871,16 +18876,16 @@
       </c>
       <c r="L253" s="1" t="n"/>
       <c r="M253" s="1" t="n">
-        <v>2.731</v>
+        <v>0</v>
       </c>
       <c r="N253" s="1" t="n">
-        <v>3.943</v>
+        <v>0</v>
       </c>
       <c r="O253" s="1" t="n">
-        <v>4.119</v>
+        <v>2.8</v>
       </c>
       <c r="P253" s="1" t="n">
-        <v>-4.443</v>
+        <v>-0.5</v>
       </c>
       <c r="Q253" s="1" t="n"/>
       <c r="R253" s="1" t="n"/>
@@ -18891,19 +18896,19 @@
         <v>1</v>
       </c>
       <c r="U253" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V253" s="1" t="n">
-        <v>29.4</v>
+        <v>23.731</v>
       </c>
       <c r="W253" s="1" t="n">
-        <v>-4.542</v>
+        <v>-33.685</v>
       </c>
       <c r="X253" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y253" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z253" s="1" t="n"/>
       <c r="AA253" s="1" t="n"/>
@@ -18911,7 +18916,7 @@
     </row>
     <row r="254" spans="1:28">
       <c r="A254" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B254" s="1" t="n"/>
       <c r="C254" s="1" t="s">
@@ -18921,7 +18926,7 @@
         <v>6.85</v>
       </c>
       <c r="E254" s="1" t="n">
-        <v>-1.45</v>
+        <v>-0.5</v>
       </c>
       <c r="F254" s="1" t="n">
         <v>4</v>
@@ -18936,23 +18941,23 @@
         <v>8.85</v>
       </c>
       <c r="J254" s="1" t="n">
-        <v>-1</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K254" s="1" t="n">
-        <v>-1.9</v>
+        <v>-0.95</v>
       </c>
       <c r="L254" s="1" t="n"/>
       <c r="M254" s="1" t="n">
-        <v>-2.731</v>
+        <v>2.731</v>
       </c>
       <c r="N254" s="1" t="n">
-        <v>-3.943</v>
+        <v>3.943</v>
       </c>
       <c r="O254" s="1" t="n">
-        <v>9.581</v>
+        <v>4.119</v>
       </c>
       <c r="P254" s="1" t="n">
-        <v>2.493</v>
+        <v>-4.443</v>
       </c>
       <c r="Q254" s="1" t="n"/>
       <c r="R254" s="1" t="n"/>
@@ -18966,7 +18971,7 @@
         <v>3</v>
       </c>
       <c r="V254" s="1" t="n">
-        <v>-29.4</v>
+        <v>29.4</v>
       </c>
       <c r="W254" s="1" t="n">
         <v>-4.542</v>
@@ -18983,48 +18988,48 @@
     </row>
     <row r="255" spans="1:28">
       <c r="A255" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B255" s="1" t="n"/>
       <c r="C255" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>0.45</v>
+        <v>6.85</v>
       </c>
       <c r="E255" s="1" t="n">
-        <v>-1.85</v>
+        <v>-1.45</v>
       </c>
       <c r="F255" s="1" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G255" s="1" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H255" s="1" t="n">
-        <v>0.2</v>
+        <v>4.85</v>
       </c>
       <c r="I255" s="1" t="n">
-        <v>0.7</v>
+        <v>8.85</v>
       </c>
       <c r="J255" s="1" t="n">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="K255" s="1" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="L255" s="1" t="n"/>
       <c r="M255" s="1" t="n">
-        <v>0</v>
+        <v>-2.731</v>
       </c>
       <c r="N255" s="1" t="n">
-        <v>0</v>
+        <v>-3.943</v>
       </c>
       <c r="O255" s="1" t="n">
-        <v>0.45</v>
+        <v>9.581</v>
       </c>
       <c r="P255" s="1" t="n">
-        <v>-1.85</v>
+        <v>2.493</v>
       </c>
       <c r="Q255" s="1" t="n"/>
       <c r="R255" s="1" t="n"/>
@@ -19035,19 +19040,19 @@
         <v>1</v>
       </c>
       <c r="U255" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V255" s="1" t="n">
-        <v>-25.758</v>
+        <v>-29.4</v>
       </c>
       <c r="W255" s="1" t="n">
-        <v>24.958</v>
+        <v>-4.542</v>
       </c>
       <c r="X255" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y255" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z255" s="1" t="n"/>
       <c r="AA255" s="1" t="n"/>
@@ -19055,14 +19060,14 @@
     </row>
     <row r="256" spans="1:28">
       <c r="A256" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B256" s="1" t="n"/>
       <c r="C256" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>-0.1</v>
+        <v>0.45</v>
       </c>
       <c r="E256" s="1" t="n">
         <v>-1.85</v>
@@ -19074,10 +19079,10 @@
         <v>0.5</v>
       </c>
       <c r="H256" s="1" t="n">
-        <v>-0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I256" s="1" t="n">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="J256" s="1" t="n">
         <v>-1.6</v>
@@ -19093,7 +19098,7 @@
         <v>0</v>
       </c>
       <c r="O256" s="1" t="n">
-        <v>-0.1</v>
+        <v>0.45</v>
       </c>
       <c r="P256" s="1" t="n">
         <v>-1.85</v>
@@ -19110,7 +19115,7 @@
         <v>1</v>
       </c>
       <c r="V256" s="1" t="n">
-        <v>34.2</v>
+        <v>-25.758</v>
       </c>
       <c r="W256" s="1" t="n">
         <v>24.958</v>
@@ -19127,11 +19132,11 @@
     </row>
     <row r="257" spans="1:28">
       <c r="A257" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B257" s="1" t="n"/>
       <c r="C257" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>-0.1</v>
@@ -19182,10 +19187,10 @@
         <v>1</v>
       </c>
       <c r="V257" s="1" t="n">
-        <v>25.8</v>
+        <v>34.2</v>
       </c>
       <c r="W257" s="1" t="n">
-        <v>33.468</v>
+        <v>24.958</v>
       </c>
       <c r="X257" s="1" t="n">
         <v>0</v>
@@ -19199,17 +19204,17 @@
     </row>
     <row r="258" spans="1:28">
       <c r="A258" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B258" s="1" t="n"/>
       <c r="C258" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="E258" s="1" t="n">
-        <v>-2.2</v>
+        <v>-1.85</v>
       </c>
       <c r="F258" s="1" t="n">
         <v>0.5</v>
@@ -19218,16 +19223,16 @@
         <v>0.5</v>
       </c>
       <c r="H258" s="1" t="n">
-        <v>0.75</v>
+        <v>-0.35</v>
       </c>
       <c r="I258" s="1" t="n">
-        <v>1.25</v>
+        <v>0.15</v>
       </c>
       <c r="J258" s="1" t="n">
-        <v>-1.95</v>
+        <v>-1.6</v>
       </c>
       <c r="K258" s="1" t="n">
-        <v>-2.45</v>
+        <v>-2.1</v>
       </c>
       <c r="L258" s="1" t="n"/>
       <c r="M258" s="1" t="n">
@@ -19237,10 +19242,10 @@
         <v>0</v>
       </c>
       <c r="O258" s="1" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="P258" s="1" t="n">
-        <v>-2.2</v>
+        <v>-1.85</v>
       </c>
       <c r="Q258" s="1" t="n"/>
       <c r="R258" s="1" t="n"/>
@@ -19254,10 +19259,10 @@
         <v>1</v>
       </c>
       <c r="V258" s="1" t="n">
-        <v>-34.2</v>
+        <v>25.8</v>
       </c>
       <c r="W258" s="1" t="n">
-        <v>24.958</v>
+        <v>33.468</v>
       </c>
       <c r="X258" s="1" t="n">
         <v>0</v>
@@ -19271,11 +19276,11 @@
     </row>
     <row r="259" spans="1:28">
       <c r="A259" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B259" s="1" t="n"/>
       <c r="C259" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1</v>
@@ -19326,10 +19331,10 @@
         <v>1</v>
       </c>
       <c r="V259" s="1" t="n">
-        <v>-25.758</v>
+        <v>-34.2</v>
       </c>
       <c r="W259" s="1" t="n">
-        <v>33.468</v>
+        <v>24.958</v>
       </c>
       <c r="X259" s="1" t="n">
         <v>0</v>
@@ -19343,14 +19348,14 @@
     </row>
     <row r="260" spans="1:28">
       <c r="A260" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B260" s="1" t="n"/>
       <c r="C260" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="E260" s="1" t="n">
         <v>-2.2</v>
@@ -19362,10 +19367,10 @@
         <v>0.5</v>
       </c>
       <c r="H260" s="1" t="n">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="I260" s="1" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="J260" s="1" t="n">
         <v>-1.95</v>
@@ -19381,7 +19386,7 @@
         <v>0</v>
       </c>
       <c r="O260" s="1" t="n">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="P260" s="1" t="n">
         <v>-2.2</v>
@@ -19398,10 +19403,10 @@
         <v>1</v>
       </c>
       <c r="V260" s="1" t="n">
-        <v>25.8</v>
+        <v>-25.758</v>
       </c>
       <c r="W260" s="1" t="n">
-        <v>24.958</v>
+        <v>33.468</v>
       </c>
       <c r="X260" s="1" t="n">
         <v>0</v>
@@ -19415,48 +19420,48 @@
     </row>
     <row r="261" spans="1:28">
       <c r="A261" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B261" s="1" t="n"/>
       <c r="C261" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D261" s="1" t="n">
-        <v>-6.4</v>
+        <v>1.55</v>
       </c>
       <c r="E261" s="1" t="n">
-        <v>-6.625</v>
+        <v>-2.2</v>
       </c>
       <c r="F261" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G261" s="1" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H261" s="1" t="n">
-        <v>-6.65</v>
+        <v>1.3</v>
       </c>
       <c r="I261" s="1" t="n">
-        <v>-6.15</v>
+        <v>1.8</v>
       </c>
       <c r="J261" s="1" t="n">
-        <v>-4.475</v>
+        <v>-1.95</v>
       </c>
       <c r="K261" s="1" t="n">
-        <v>-8.775</v>
+        <v>-2.45</v>
       </c>
       <c r="L261" s="1" t="n"/>
       <c r="M261" s="1" t="n">
-        <v>3.746</v>
+        <v>0</v>
       </c>
       <c r="N261" s="1" t="n">
-        <v>-1.931</v>
+        <v>0</v>
       </c>
       <c r="O261" s="1" t="n">
-        <v>-10.146</v>
+        <v>1.55</v>
       </c>
       <c r="P261" s="1" t="n">
-        <v>-4.694</v>
+        <v>-2.2</v>
       </c>
       <c r="Q261" s="1" t="n"/>
       <c r="R261" s="1" t="n"/>
@@ -19464,22 +19469,22 @@
         <v>32</v>
       </c>
       <c r="T261" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U261" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V261" s="1" t="n">
-        <v>4.2</v>
+        <v>25.8</v>
       </c>
       <c r="W261" s="1" t="n">
-        <v>-0.342</v>
+        <v>24.958</v>
       </c>
       <c r="X261" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y261" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z261" s="1" t="n"/>
       <c r="AA261" s="1" t="n"/>
@@ -19487,48 +19492,48 @@
     </row>
     <row r="262" spans="1:28">
       <c r="A262" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B262" s="1" t="n"/>
       <c r="C262" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>-6.95</v>
+        <v>-6.4</v>
       </c>
       <c r="E262" s="1" t="n">
-        <v>-6.519</v>
+        <v>-6.625</v>
       </c>
       <c r="F262" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G262" s="1" t="n">
-        <v>4.506</v>
+        <v>4.3</v>
       </c>
       <c r="H262" s="1" t="n">
-        <v>-7.2</v>
+        <v>-6.65</v>
       </c>
       <c r="I262" s="1" t="n">
-        <v>-6.7</v>
+        <v>-6.15</v>
       </c>
       <c r="J262" s="1" t="n">
-        <v>-4.269</v>
+        <v>-4.475</v>
       </c>
       <c r="K262" s="1" t="n">
         <v>-8.775</v>
       </c>
       <c r="L262" s="1" t="n"/>
       <c r="M262" s="1" t="n">
-        <v>3.747</v>
+        <v>3.746</v>
       </c>
       <c r="N262" s="1" t="n">
-        <v>1.816</v>
+        <v>-1.931</v>
       </c>
       <c r="O262" s="1" t="n">
-        <v>-10.697</v>
+        <v>-10.146</v>
       </c>
       <c r="P262" s="1" t="n">
-        <v>-8.335000000000001</v>
+        <v>-4.694</v>
       </c>
       <c r="Q262" s="1" t="n"/>
       <c r="R262" s="1" t="n"/>
@@ -19542,7 +19547,7 @@
         <v>8</v>
       </c>
       <c r="V262" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W262" s="1" t="n">
         <v>-0.342</v>
@@ -19559,48 +19564,48 @@
     </row>
     <row r="263" spans="1:28">
       <c r="A263" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B263" s="1" t="n"/>
       <c r="C263" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>-7.5</v>
+        <v>-6.95</v>
       </c>
       <c r="E263" s="1" t="n">
-        <v>-6.675</v>
+        <v>-6.519</v>
       </c>
       <c r="F263" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G263" s="1" t="n">
-        <v>4.2</v>
+        <v>4.506</v>
       </c>
       <c r="H263" s="1" t="n">
-        <v>-7.75</v>
+        <v>-7.2</v>
       </c>
       <c r="I263" s="1" t="n">
-        <v>-7.25</v>
+        <v>-6.7</v>
       </c>
       <c r="J263" s="1" t="n">
-        <v>-4.574999999999999</v>
+        <v>-4.269</v>
       </c>
       <c r="K263" s="1" t="n">
         <v>-8.775</v>
       </c>
       <c r="L263" s="1" t="n"/>
       <c r="M263" s="1" t="n">
-        <v>-3.745</v>
+        <v>3.747</v>
       </c>
       <c r="N263" s="1" t="n">
-        <v>1.967</v>
+        <v>1.816</v>
       </c>
       <c r="O263" s="1" t="n">
-        <v>-3.755</v>
+        <v>-10.697</v>
       </c>
       <c r="P263" s="1" t="n">
-        <v>-8.641999999999999</v>
+        <v>-8.335000000000001</v>
       </c>
       <c r="Q263" s="1" t="n"/>
       <c r="R263" s="1" t="n"/>
@@ -19631,48 +19636,48 @@
     </row>
     <row r="264" spans="1:28">
       <c r="A264" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B264" s="1" t="n"/>
       <c r="C264" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>-8.050000000000001</v>
+        <v>-7.5</v>
       </c>
       <c r="E264" s="1" t="n">
-        <v>-6.625</v>
+        <v>-6.675</v>
       </c>
       <c r="F264" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G264" s="1" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H264" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.75</v>
       </c>
       <c r="I264" s="1" t="n">
-        <v>-7.800000000000001</v>
+        <v>-7.25</v>
       </c>
       <c r="J264" s="1" t="n">
-        <v>-4.475</v>
+        <v>-4.574999999999999</v>
       </c>
       <c r="K264" s="1" t="n">
         <v>-8.775</v>
       </c>
       <c r="L264" s="1" t="n"/>
       <c r="M264" s="1" t="n">
-        <v>-3.746</v>
+        <v>-3.745</v>
       </c>
       <c r="N264" s="1" t="n">
-        <v>-1.891</v>
+        <v>1.967</v>
       </c>
       <c r="O264" s="1" t="n">
-        <v>-4.304</v>
+        <v>-3.755</v>
       </c>
       <c r="P264" s="1" t="n">
-        <v>-4.734</v>
+        <v>-8.641999999999999</v>
       </c>
       <c r="Q264" s="1" t="n"/>
       <c r="R264" s="1" t="n"/>
@@ -19686,7 +19691,7 @@
         <v>8</v>
       </c>
       <c r="V264" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W264" s="1" t="n">
         <v>-0.342</v>
@@ -19703,48 +19708,48 @@
     </row>
     <row r="265" spans="1:28">
       <c r="A265" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B265" s="1" t="n"/>
       <c r="C265" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>-0.95</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="E265" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>-6.625</v>
       </c>
       <c r="F265" s="1" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="G265" s="1" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="H265" s="1" t="n">
-        <v>-4.95</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="I265" s="1" t="n">
-        <v>3.05</v>
+        <v>-7.800000000000001</v>
       </c>
       <c r="J265" s="1" t="n">
-        <v>8.25</v>
+        <v>-4.475</v>
       </c>
       <c r="K265" s="1" t="n">
-        <v>7.850000000000001</v>
+        <v>-8.775</v>
       </c>
       <c r="L265" s="1" t="n"/>
       <c r="M265" s="1" t="n">
-        <v>0</v>
+        <v>-3.746</v>
       </c>
       <c r="N265" s="1" t="n">
-        <v>0</v>
+        <v>-1.891</v>
       </c>
       <c r="O265" s="1" t="n">
-        <v>-0.95</v>
+        <v>-4.304</v>
       </c>
       <c r="P265" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>-4.734</v>
       </c>
       <c r="Q265" s="1" t="n"/>
       <c r="R265" s="1" t="n"/>
@@ -19755,13 +19760,13 @@
         <v>4</v>
       </c>
       <c r="U265" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V265" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W265" s="1" t="n">
-        <v>-4.122</v>
+        <v>-0.342</v>
       </c>
       <c r="X265" s="1" t="n">
         <v>16.8</v>
@@ -19775,48 +19780,48 @@
     </row>
     <row r="266" spans="1:28">
       <c r="A266" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B266" s="1" t="n"/>
       <c r="C266" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>3.85</v>
+        <v>-0.95</v>
       </c>
       <c r="E266" s="1" t="n">
-        <v>-3.9</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F266" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G266" s="1" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H266" s="1" t="n">
-        <v>-1.15</v>
+        <v>-4.95</v>
       </c>
       <c r="I266" s="1" t="n">
-        <v>8.85</v>
+        <v>3.05</v>
       </c>
       <c r="J266" s="1" t="n">
-        <v>-3.45</v>
+        <v>8.25</v>
       </c>
       <c r="K266" s="1" t="n">
-        <v>-4.35</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="L266" s="1" t="n"/>
       <c r="M266" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N266" s="1" t="n">
-        <v>-3.943</v>
+        <v>0</v>
       </c>
       <c r="O266" s="1" t="n">
-        <v>3.85</v>
+        <v>-0.95</v>
       </c>
       <c r="P266" s="1" t="n">
-        <v>0.04300000000000015</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q266" s="1" t="n"/>
       <c r="R266" s="1" t="n"/>
@@ -19827,13 +19832,13 @@
         <v>4</v>
       </c>
       <c r="U266" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V266" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W266" s="1" t="n">
-        <v>-0.342</v>
+        <v>-4.122</v>
       </c>
       <c r="X266" s="1" t="n">
         <v>16.8</v>
@@ -19847,7 +19852,7 @@
     </row>
     <row r="267" spans="1:28">
       <c r="A267" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B267" s="1" t="n"/>
       <c r="C267" s="1" t="s">
@@ -19857,7 +19862,7 @@
         <v>3.85</v>
       </c>
       <c r="E267" s="1" t="n">
-        <v>-7</v>
+        <v>-3.9</v>
       </c>
       <c r="F267" s="1" t="n">
         <v>10</v>
@@ -19872,23 +19877,23 @@
         <v>8.85</v>
       </c>
       <c r="J267" s="1" t="n">
-        <v>-6.55</v>
+        <v>-3.45</v>
       </c>
       <c r="K267" s="1" t="n">
-        <v>-7.45</v>
+        <v>-4.35</v>
       </c>
       <c r="L267" s="1" t="n"/>
       <c r="M267" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N267" s="1" t="n">
-        <v>3.943</v>
+        <v>-3.943</v>
       </c>
       <c r="O267" s="1" t="n">
         <v>3.85</v>
       </c>
       <c r="P267" s="1" t="n">
-        <v>-10.943</v>
+        <v>0.04300000000000015</v>
       </c>
       <c r="Q267" s="1" t="n"/>
       <c r="R267" s="1" t="n"/>
@@ -19902,7 +19907,7 @@
         <v>8</v>
       </c>
       <c r="V267" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W267" s="1" t="n">
         <v>-0.342</v>
@@ -19919,48 +19924,48 @@
     </row>
     <row r="268" spans="1:28">
       <c r="A268" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B268" s="1" t="n"/>
       <c r="C268" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D268" s="1" t="n">
-        <v>-0.95</v>
+        <v>3.85</v>
       </c>
       <c r="E268" s="1" t="n">
-        <v>8.5</v>
+        <v>-7</v>
       </c>
       <c r="F268" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G268" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H268" s="1" t="n">
-        <v>-4.95</v>
+        <v>-1.15</v>
       </c>
       <c r="I268" s="1" t="n">
-        <v>3.05</v>
+        <v>8.85</v>
       </c>
       <c r="J268" s="1" t="n">
-        <v>8.699999999999999</v>
+        <v>-6.55</v>
       </c>
       <c r="K268" s="1" t="n">
-        <v>8.300000000000001</v>
+        <v>-7.45</v>
       </c>
       <c r="L268" s="1" t="n"/>
       <c r="M268" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N268" s="1" t="n">
-        <v>0</v>
+        <v>3.943</v>
       </c>
       <c r="O268" s="1" t="n">
-        <v>-0.95</v>
+        <v>3.85</v>
       </c>
       <c r="P268" s="1" t="n">
-        <v>8.5</v>
+        <v>-10.943</v>
       </c>
       <c r="Q268" s="1" t="n"/>
       <c r="R268" s="1" t="n"/>
@@ -19971,13 +19976,13 @@
         <v>4</v>
       </c>
       <c r="U268" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V268" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W268" s="1" t="n">
-        <v>3.437</v>
+        <v>-0.342</v>
       </c>
       <c r="X268" s="1" t="n">
         <v>16.8</v>
@@ -19991,35 +19996,35 @@
     </row>
     <row r="269" spans="1:28">
       <c r="A269" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B269" s="1" t="n"/>
       <c r="C269" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>9.9</v>
+        <v>-0.95</v>
       </c>
       <c r="E269" s="1" t="n">
-        <v>-4.45</v>
+        <v>8.5</v>
       </c>
       <c r="F269" s="1" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="G269" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H269" s="1" t="n">
-        <v>9.65</v>
+        <v>-4.95</v>
       </c>
       <c r="I269" s="1" t="n">
-        <v>10.15</v>
+        <v>3.05</v>
       </c>
       <c r="J269" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K269" s="1" t="n">
-        <v>-8.850000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L269" s="1" t="n"/>
       <c r="M269" s="1" t="n">
@@ -20029,10 +20034,10 @@
         <v>0</v>
       </c>
       <c r="O269" s="1" t="n">
-        <v>9.9</v>
+        <v>-0.95</v>
       </c>
       <c r="P269" s="1" t="n">
-        <v>-4.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q269" s="1" t="n"/>
       <c r="R269" s="1" t="n"/>
@@ -20040,19 +20045,19 @@
         <v>32</v>
       </c>
       <c r="T269" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U269" s="1" t="n">
         <v>6</v>
       </c>
       <c r="V269" s="1" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="W269" s="1" t="n">
-        <v>-0.292</v>
+        <v>3.437</v>
       </c>
       <c r="X269" s="1" t="n">
-        <v>68.40000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="Y269" s="1" t="n">
         <v>8.4</v>
@@ -20063,11 +20068,11 @@
     </row>
     <row r="270" spans="1:28">
       <c r="A270" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B270" s="1" t="n"/>
       <c r="C270" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D270" s="1" t="n">
         <v>9.9</v>
@@ -20115,19 +20120,19 @@
         <v>2</v>
       </c>
       <c r="U270" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V270" s="1" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="W270" s="1" t="n">
-        <v>29.213</v>
+        <v>-0.292</v>
       </c>
       <c r="X270" s="1" t="n">
-        <v>51.558</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="Y270" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z270" s="1" t="n"/>
       <c r="AA270" s="1" t="n"/>
@@ -20135,29 +20140,29 @@
     </row>
     <row r="271" spans="1:28">
       <c r="A271" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B271" s="1" t="n"/>
       <c r="C271" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>9.25</v>
+        <v>9.9</v>
       </c>
       <c r="E271" s="1" t="n">
         <v>-4.45</v>
       </c>
       <c r="F271" s="1" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G271" s="1" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H271" s="1" t="n">
-        <v>8.9</v>
+        <v>9.65</v>
       </c>
       <c r="I271" s="1" t="n">
-        <v>9.6</v>
+        <v>10.15</v>
       </c>
       <c r="J271" s="1" t="n">
         <v>-0.04999999999999982</v>
@@ -20173,7 +20178,7 @@
         <v>0</v>
       </c>
       <c r="O271" s="1" t="n">
-        <v>9.25</v>
+        <v>9.9</v>
       </c>
       <c r="P271" s="1" t="n">
         <v>-4.45</v>
@@ -20184,22 +20189,22 @@
         <v>32</v>
       </c>
       <c r="T271" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U271" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V271" s="1" t="n">
-        <v>34.126</v>
+        <v>0.021</v>
       </c>
       <c r="W271" s="1" t="n">
-        <v>3.913</v>
+        <v>29.213</v>
       </c>
       <c r="X271" s="1" t="n">
-        <v>0</v>
+        <v>51.558</v>
       </c>
       <c r="Y271" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z271" s="1" t="n"/>
       <c r="AA271" s="1" t="n"/>
@@ -20207,14 +20212,14 @@
     </row>
     <row r="272" spans="1:28">
       <c r="A272" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B272" s="1" t="n"/>
       <c r="C272" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D272" s="1" t="n">
-        <v>10.55</v>
+        <v>9.25</v>
       </c>
       <c r="E272" s="1" t="n">
         <v>-4.45</v>
@@ -20226,10 +20231,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H272" s="1" t="n">
-        <v>10.2</v>
+        <v>8.9</v>
       </c>
       <c r="I272" s="1" t="n">
-        <v>10.9</v>
+        <v>9.6</v>
       </c>
       <c r="J272" s="1" t="n">
         <v>-0.04999999999999982</v>
@@ -20245,7 +20250,7 @@
         <v>0</v>
       </c>
       <c r="O272" s="1" t="n">
-        <v>10.55</v>
+        <v>9.25</v>
       </c>
       <c r="P272" s="1" t="n">
         <v>-4.45</v>
@@ -20262,10 +20267,10 @@
         <v>3</v>
       </c>
       <c r="V272" s="1" t="n">
-        <v>-34.126</v>
+        <v>34.126</v>
       </c>
       <c r="W272" s="1" t="n">
-        <v>-4.497</v>
+        <v>3.913</v>
       </c>
       <c r="X272" s="1" t="n">
         <v>0</v>
@@ -20279,48 +20284,48 @@
     </row>
     <row r="273" spans="1:28">
       <c r="A273" s="1" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="B273" s="1" t="n"/>
       <c r="C273" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D273" s="1" t="n">
-        <v>0.55</v>
+        <v>10.55</v>
       </c>
       <c r="E273" s="1" t="n">
-        <v>-0.85</v>
+        <v>-4.45</v>
       </c>
       <c r="F273" s="1" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G273" s="1" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H273" s="1" t="n">
-        <v>0.35</v>
+        <v>10.2</v>
       </c>
       <c r="I273" s="1" t="n">
-        <v>0.75</v>
+        <v>10.9</v>
       </c>
       <c r="J273" s="1" t="n">
-        <v>-0.6</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="K273" s="1" t="n">
-        <v>-1.1</v>
+        <v>-8.850000000000001</v>
       </c>
       <c r="L273" s="1" t="n"/>
       <c r="M273" s="1" t="n">
-        <v>-1.309</v>
+        <v>0</v>
       </c>
       <c r="N273" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O273" s="1" t="n">
-        <v>1.859</v>
+        <v>10.55</v>
       </c>
       <c r="P273" s="1" t="n">
-        <v>3.066</v>
+        <v>-4.45</v>
       </c>
       <c r="Q273" s="1" t="n"/>
       <c r="R273" s="1" t="n"/>
@@ -20334,10 +20339,10 @@
         <v>3</v>
       </c>
       <c r="V273" s="1" t="n">
-        <v>-29.4</v>
+        <v>-34.126</v>
       </c>
       <c r="W273" s="1" t="n">
-        <v>-4.542</v>
+        <v>-4.497</v>
       </c>
       <c r="X273" s="1" t="n">
         <v>0</v>
@@ -20351,11 +20356,11 @@
     </row>
     <row r="274" spans="1:28">
       <c r="A274" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B274" s="1" t="n"/>
       <c r="C274" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>0.55</v>
@@ -20383,16 +20388,16 @@
       </c>
       <c r="L274" s="1" t="n"/>
       <c r="M274" s="1" t="n">
-        <v>1.309</v>
+        <v>-1.309</v>
       </c>
       <c r="N274" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O274" s="1" t="n">
-        <v>-0.7589999999999999</v>
+        <v>1.859</v>
       </c>
       <c r="P274" s="1" t="n">
-        <v>-4.766</v>
+        <v>3.066</v>
       </c>
       <c r="Q274" s="1" t="n"/>
       <c r="R274" s="1" t="n"/>
@@ -20406,7 +20411,7 @@
         <v>3</v>
       </c>
       <c r="V274" s="1" t="n">
-        <v>29.4</v>
+        <v>-29.4</v>
       </c>
       <c r="W274" s="1" t="n">
         <v>-4.542</v>
@@ -20423,11 +20428,11 @@
     </row>
     <row r="275" spans="1:28">
       <c r="A275" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B275" s="1" t="n"/>
       <c r="C275" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>0.55</v>
@@ -20455,16 +20460,16 @@
       </c>
       <c r="L275" s="1" t="n"/>
       <c r="M275" s="1" t="n">
-        <v>0</v>
+        <v>1.309</v>
       </c>
       <c r="N275" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O275" s="1" t="n">
-        <v>0.55</v>
+        <v>-0.7589999999999999</v>
       </c>
       <c r="P275" s="1" t="n">
-        <v>-0.85</v>
+        <v>-4.766</v>
       </c>
       <c r="Q275" s="1" t="n"/>
       <c r="R275" s="1" t="n"/>
@@ -20475,19 +20480,19 @@
         <v>1</v>
       </c>
       <c r="U275" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V275" s="1" t="n">
-        <v>22.309</v>
+        <v>29.4</v>
       </c>
       <c r="W275" s="1" t="n">
-        <v>-33.658</v>
+        <v>-4.542</v>
       </c>
       <c r="X275" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y275" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z275" s="1" t="n"/>
       <c r="AA275" s="1" t="n"/>
@@ -20495,48 +20500,48 @@
     </row>
     <row r="276" spans="1:28">
       <c r="A276" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B276" s="1" t="n"/>
       <c r="C276" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D276" s="1" t="n">
-        <v>6.65</v>
+        <v>0.55</v>
       </c>
       <c r="E276" s="1" t="n">
-        <v>-4.7</v>
+        <v>-0.85</v>
       </c>
       <c r="F276" s="1" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="G276" s="1" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H276" s="1" t="n">
-        <v>4.45</v>
+        <v>0.35</v>
       </c>
       <c r="I276" s="1" t="n">
-        <v>8.850000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="J276" s="1" t="n">
-        <v>-4.4</v>
+        <v>-0.6</v>
       </c>
       <c r="K276" s="1" t="n">
-        <v>-5</v>
+        <v>-1.1</v>
       </c>
       <c r="L276" s="1" t="n"/>
       <c r="M276" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N276" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O276" s="1" t="n">
-        <v>6.65</v>
+        <v>0.55</v>
       </c>
       <c r="P276" s="1" t="n">
-        <v>-0.7840000000000003</v>
+        <v>-0.85</v>
       </c>
       <c r="Q276" s="1" t="n"/>
       <c r="R276" s="1" t="n"/>
@@ -20544,22 +20549,22 @@
         <v>32</v>
       </c>
       <c r="T276" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U276" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V276" s="1" t="n">
-        <v>4.2</v>
+        <v>22.309</v>
       </c>
       <c r="W276" s="1" t="n">
-        <v>-0.342</v>
+        <v>-33.658</v>
       </c>
       <c r="X276" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y276" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z276" s="1" t="n"/>
       <c r="AA276" s="1" t="n"/>
@@ -20567,17 +20572,17 @@
     </row>
     <row r="277" spans="1:28">
       <c r="A277" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B277" s="1" t="n"/>
       <c r="C277" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D277" s="1" t="n">
-        <v>-2.02</v>
+        <v>6.65</v>
       </c>
       <c r="E277" s="1" t="n">
-        <v>-6.2</v>
+        <v>-4.7</v>
       </c>
       <c r="F277" s="1" t="n">
         <v>4.4</v>
@@ -20586,29 +20591,29 @@
         <v>0.6</v>
       </c>
       <c r="H277" s="1" t="n">
-        <v>-4.220000000000001</v>
+        <v>4.45</v>
       </c>
       <c r="I277" s="1" t="n">
-        <v>0.1800000000000002</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="J277" s="1" t="n">
-        <v>-5.9</v>
+        <v>-4.4</v>
       </c>
       <c r="K277" s="1" t="n">
-        <v>-6.5</v>
+        <v>-5</v>
       </c>
       <c r="L277" s="1" t="n"/>
       <c r="M277" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N277" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O277" s="1" t="n">
-        <v>-2.02</v>
+        <v>6.65</v>
       </c>
       <c r="P277" s="1" t="n">
-        <v>-10.116</v>
+        <v>-0.7840000000000003</v>
       </c>
       <c r="Q277" s="1" t="n"/>
       <c r="R277" s="1" t="n"/>
@@ -20622,7 +20627,7 @@
         <v>8</v>
       </c>
       <c r="V277" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W277" s="1" t="n">
         <v>-0.342</v>
@@ -20639,48 +20644,48 @@
     </row>
     <row r="278" spans="1:28">
       <c r="A278" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B278" s="1" t="n"/>
       <c r="C278" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D278" s="1" t="n">
-        <v>5.65</v>
+        <v>-2.02</v>
       </c>
       <c r="E278" s="1" t="n">
-        <v>-2.25</v>
+        <v>-6.2</v>
       </c>
       <c r="F278" s="1" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="G278" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="H278" s="1" t="n">
-        <v>4.850000000000001</v>
+        <v>-4.220000000000001</v>
       </c>
       <c r="I278" s="1" t="n">
-        <v>6.45</v>
+        <v>0.1800000000000002</v>
       </c>
       <c r="J278" s="1" t="n">
-        <v>-1.95</v>
+        <v>-5.9</v>
       </c>
       <c r="K278" s="1" t="n">
-        <v>-2.55</v>
+        <v>-6.5</v>
       </c>
       <c r="L278" s="1" t="n"/>
       <c r="M278" s="1" t="n">
-        <v>-1.629</v>
+        <v>0</v>
       </c>
       <c r="N278" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O278" s="1" t="n">
-        <v>7.279</v>
+        <v>-2.02</v>
       </c>
       <c r="P278" s="1" t="n">
-        <v>1.666</v>
+        <v>-10.116</v>
       </c>
       <c r="Q278" s="1" t="n"/>
       <c r="R278" s="1" t="n"/>
@@ -20688,22 +20693,22 @@
         <v>32</v>
       </c>
       <c r="T278" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U278" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V278" s="1" t="n">
-        <v>-29.4</v>
+        <v>-4.2</v>
       </c>
       <c r="W278" s="1" t="n">
-        <v>-4.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X278" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y278" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z278" s="1" t="n"/>
       <c r="AA278" s="1" t="n"/>
@@ -20711,14 +20716,14 @@
     </row>
     <row r="279" spans="1:28">
       <c r="A279" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B279" s="1" t="n"/>
       <c r="C279" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D279" s="1" t="n">
-        <v>7.3</v>
+        <v>5.65</v>
       </c>
       <c r="E279" s="1" t="n">
         <v>-2.25</v>
@@ -20730,10 +20735,10 @@
         <v>0.6</v>
       </c>
       <c r="H279" s="1" t="n">
-        <v>6.5</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="I279" s="1" t="n">
-        <v>8.1</v>
+        <v>6.45</v>
       </c>
       <c r="J279" s="1" t="n">
         <v>-1.95</v>
@@ -20743,16 +20748,16 @@
       </c>
       <c r="L279" s="1" t="n"/>
       <c r="M279" s="1" t="n">
-        <v>1.629</v>
+        <v>-1.629</v>
       </c>
       <c r="N279" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O279" s="1" t="n">
-        <v>5.670999999999999</v>
+        <v>7.279</v>
       </c>
       <c r="P279" s="1" t="n">
-        <v>-6.166</v>
+        <v>1.666</v>
       </c>
       <c r="Q279" s="1" t="n"/>
       <c r="R279" s="1" t="n"/>
@@ -20766,7 +20771,7 @@
         <v>3</v>
       </c>
       <c r="V279" s="1" t="n">
-        <v>29.4</v>
+        <v>-29.4</v>
       </c>
       <c r="W279" s="1" t="n">
         <v>-4.542</v>
@@ -20783,11 +20788,11 @@
     </row>
     <row r="280" spans="1:28">
       <c r="A280" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B280" s="1" t="n"/>
       <c r="C280" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>7.3</v>
@@ -20815,16 +20820,16 @@
       </c>
       <c r="L280" s="1" t="n"/>
       <c r="M280" s="1" t="n">
-        <v>0</v>
+        <v>1.629</v>
       </c>
       <c r="N280" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O280" s="1" t="n">
-        <v>7.3</v>
+        <v>5.670999999999999</v>
       </c>
       <c r="P280" s="1" t="n">
-        <v>-2.25</v>
+        <v>-6.166</v>
       </c>
       <c r="Q280" s="1" t="n"/>
       <c r="R280" s="1" t="n"/>
@@ -20835,19 +20840,19 @@
         <v>1</v>
       </c>
       <c r="U280" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V280" s="1" t="n">
-        <v>22.629</v>
+        <v>29.4</v>
       </c>
       <c r="W280" s="1" t="n">
-        <v>-33.658</v>
+        <v>-4.542</v>
       </c>
       <c r="X280" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y280" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z280" s="1" t="n"/>
       <c r="AA280" s="1" t="n"/>
@@ -20855,48 +20860,48 @@
     </row>
     <row r="281" spans="1:28">
       <c r="A281" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B281" s="1" t="n"/>
       <c r="C281" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D281" s="1" t="n">
-        <v>6.35</v>
+        <v>7.3</v>
       </c>
       <c r="E281" s="1" t="n">
-        <v>-5.35</v>
+        <v>-2.25</v>
       </c>
       <c r="F281" s="1" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="G281" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="H281" s="1" t="n">
-        <v>3.85</v>
+        <v>6.5</v>
       </c>
       <c r="I281" s="1" t="n">
-        <v>8.85</v>
+        <v>8.1</v>
       </c>
       <c r="J281" s="1" t="n">
-        <v>-5.05</v>
+        <v>-1.95</v>
       </c>
       <c r="K281" s="1" t="n">
-        <v>-5.649999999999999</v>
+        <v>-2.55</v>
       </c>
       <c r="L281" s="1" t="n"/>
       <c r="M281" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N281" s="1" t="n">
-        <v>-3.916</v>
+        <v>0</v>
       </c>
       <c r="O281" s="1" t="n">
-        <v>6.35</v>
+        <v>7.3</v>
       </c>
       <c r="P281" s="1" t="n">
-        <v>-1.434</v>
+        <v>-2.25</v>
       </c>
       <c r="Q281" s="1" t="n"/>
       <c r="R281" s="1" t="n"/>
@@ -20904,22 +20909,22 @@
         <v>32</v>
       </c>
       <c r="T281" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U281" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V281" s="1" t="n">
-        <v>4.2</v>
+        <v>22.629</v>
       </c>
       <c r="W281" s="1" t="n">
-        <v>-0.342</v>
+        <v>-33.658</v>
       </c>
       <c r="X281" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Y281" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z281" s="1" t="n"/>
       <c r="AA281" s="1" t="n"/>
@@ -20927,11 +20932,11 @@
     </row>
     <row r="282" spans="1:28">
       <c r="A282" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B282" s="1" t="n"/>
       <c r="C282" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>6.35</v>
@@ -20962,13 +20967,13 @@
         <v>0</v>
       </c>
       <c r="N282" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O282" s="1" t="n">
         <v>6.35</v>
       </c>
       <c r="P282" s="1" t="n">
-        <v>-9.266</v>
+        <v>-1.434</v>
       </c>
       <c r="Q282" s="1" t="n"/>
       <c r="R282" s="1" t="n"/>
@@ -20982,7 +20987,7 @@
         <v>8</v>
       </c>
       <c r="V282" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W282" s="1" t="n">
         <v>-0.342</v>
@@ -20999,48 +21004,48 @@
     </row>
     <row r="283" spans="1:28">
       <c r="A283" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B283" s="1" t="n"/>
       <c r="C283" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D283" s="1" t="n">
-        <v>5.85</v>
+        <v>6.35</v>
       </c>
       <c r="E283" s="1" t="n">
-        <v>-9.625</v>
+        <v>-5.35</v>
       </c>
       <c r="F283" s="1" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="G283" s="1" t="n">
-        <v>1.15</v>
+        <v>0.6</v>
       </c>
       <c r="H283" s="1" t="n">
-        <v>1.55</v>
+        <v>3.85</v>
       </c>
       <c r="I283" s="1" t="n">
-        <v>10.15</v>
+        <v>8.85</v>
       </c>
       <c r="J283" s="1" t="n">
-        <v>-9.050000000000001</v>
+        <v>-5.05</v>
       </c>
       <c r="K283" s="1" t="n">
-        <v>-10.2</v>
+        <v>-5.649999999999999</v>
       </c>
       <c r="L283" s="1" t="n"/>
       <c r="M283" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N283" s="1" t="n">
-        <v>0</v>
+        <v>3.916</v>
       </c>
       <c r="O283" s="1" t="n">
-        <v>5.85</v>
+        <v>6.35</v>
       </c>
       <c r="P283" s="1" t="n">
-        <v>-9.625</v>
+        <v>-9.266</v>
       </c>
       <c r="Q283" s="1" t="n"/>
       <c r="R283" s="1" t="n"/>
@@ -21048,22 +21053,22 @@
         <v>32</v>
       </c>
       <c r="T283" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U283" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V283" s="1" t="n">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
       <c r="W283" s="1" t="n">
-        <v>-35.42</v>
+        <v>-0.342</v>
       </c>
       <c r="X283" s="1" t="n">
-        <v>8.1</v>
+        <v>16.8</v>
       </c>
       <c r="Y283" s="1" t="n">
-        <v>0.6899999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z283" s="1" t="n"/>
       <c r="AA283" s="1" t="n"/>
@@ -21071,35 +21076,35 @@
     </row>
     <row r="284" spans="1:28">
       <c r="A284" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B284" s="1" t="n"/>
       <c r="C284" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D284" s="1" t="n">
-        <v>-9.84</v>
+        <v>5.85</v>
       </c>
       <c r="E284" s="1" t="n">
-        <v>1.125</v>
+        <v>-9.625</v>
       </c>
       <c r="F284" s="1" t="n">
-        <v>0.7</v>
+        <v>8.6</v>
       </c>
       <c r="G284" s="1" t="n">
-        <v>5.9</v>
+        <v>1.15</v>
       </c>
       <c r="H284" s="1" t="n">
-        <v>-10.19</v>
+        <v>1.55</v>
       </c>
       <c r="I284" s="1" t="n">
-        <v>-9.49</v>
+        <v>10.15</v>
       </c>
       <c r="J284" s="1" t="n">
-        <v>4.075</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="K284" s="1" t="n">
-        <v>-1.825</v>
+        <v>-10.2</v>
       </c>
       <c r="L284" s="1" t="n"/>
       <c r="M284" s="1" t="n">
@@ -21109,10 +21114,10 @@
         <v>0</v>
       </c>
       <c r="O284" s="1" t="n">
-        <v>-9.84</v>
+        <v>5.85</v>
       </c>
       <c r="P284" s="1" t="n">
-        <v>1.125</v>
+        <v>-9.625</v>
       </c>
       <c r="Q284" s="1" t="n"/>
       <c r="R284" s="1" t="n"/>
@@ -21120,56 +21125,128 @@
         <v>32</v>
       </c>
       <c r="T284" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U284" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V284" s="1" t="n">
-        <v>-36.625</v>
+        <v>0</v>
       </c>
       <c r="W284" s="1" t="n">
-        <v>-0.603</v>
+        <v>-35.42</v>
       </c>
       <c r="X284" s="1" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="Y284" s="1" t="n">
-        <v>5.495</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z284" s="1" t="n"/>
       <c r="AA284" s="1" t="n"/>
       <c r="AB284" s="1" t="s"/>
     </row>
     <row r="285" spans="1:28">
-      <c r="A285" s="1" t="n"/>
+      <c r="A285" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="B285" s="1" t="n"/>
-      <c r="C285" s="1" t="n"/>
-      <c r="D285" s="1" t="n"/>
-      <c r="E285" s="1" t="n"/>
-      <c r="F285" s="1" t="n"/>
-      <c r="G285" s="1" t="n"/>
-      <c r="H285" s="1" t="n"/>
-      <c r="I285" s="1" t="n"/>
-      <c r="J285" s="1" t="n"/>
-      <c r="K285" s="1" t="n"/>
+      <c r="C285" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D285" s="1" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="E285" s="1" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="F285" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G285" s="1" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H285" s="1" t="n">
+        <v>-10.19</v>
+      </c>
+      <c r="I285" s="1" t="n">
+        <v>-9.49</v>
+      </c>
+      <c r="J285" s="1" t="n">
+        <v>4.075</v>
+      </c>
+      <c r="K285" s="1" t="n">
+        <v>-1.825</v>
+      </c>
       <c r="L285" s="1" t="n"/>
-      <c r="M285" s="1" t="n"/>
-      <c r="N285" s="1" t="n"/>
-      <c r="O285" s="1" t="n"/>
-      <c r="P285" s="1" t="n"/>
+      <c r="M285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" s="1" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="P285" s="1" t="n">
+        <v>1.125</v>
+      </c>
       <c r="Q285" s="1" t="n"/>
       <c r="R285" s="1" t="n"/>
-      <c r="S285" s="1" t="n"/>
-      <c r="T285" s="1" t="n"/>
-      <c r="U285" s="1" t="n"/>
-      <c r="V285" s="1" t="n"/>
-      <c r="W285" s="1" t="n"/>
-      <c r="X285" s="1" t="n"/>
-      <c r="Y285" s="1" t="n"/>
+      <c r="S285" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T285" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U285" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V285" s="1" t="n">
+        <v>-36.625</v>
+      </c>
+      <c r="W285" s="1" t="n">
+        <v>-0.603</v>
+      </c>
+      <c r="X285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y285" s="1" t="n">
+        <v>5.495</v>
+      </c>
       <c r="Z285" s="1" t="n"/>
       <c r="AA285" s="1" t="n"/>
-      <c r="AB285" s="1" t="n"/>
+      <c r="AB285" s="1" t="s"/>
+    </row>
+    <row r="286" spans="1:28">
+      <c r="A286" s="1" t="n"/>
+      <c r="B286" s="1" t="n"/>
+      <c r="C286" s="1" t="n"/>
+      <c r="D286" s="1" t="n"/>
+      <c r="E286" s="1" t="n"/>
+      <c r="F286" s="1" t="n"/>
+      <c r="G286" s="1" t="n"/>
+      <c r="H286" s="1" t="n"/>
+      <c r="I286" s="1" t="n"/>
+      <c r="J286" s="1" t="n"/>
+      <c r="K286" s="1" t="n"/>
+      <c r="L286" s="1" t="n"/>
+      <c r="M286" s="1" t="n"/>
+      <c r="N286" s="1" t="n"/>
+      <c r="O286" s="1" t="n"/>
+      <c r="P286" s="1" t="n"/>
+      <c r="Q286" s="1" t="n"/>
+      <c r="R286" s="1" t="n"/>
+      <c r="S286" s="1" t="n"/>
+      <c r="T286" s="1" t="n"/>
+      <c r="U286" s="1" t="n"/>
+      <c r="V286" s="1" t="n"/>
+      <c r="W286" s="1" t="n"/>
+      <c r="X286" s="1" t="n"/>
+      <c r="Y286" s="1" t="n"/>
+      <c r="Z286" s="1" t="n"/>
+      <c r="AA286" s="1" t="n"/>
+      <c r="AB286" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21204,7 +21281,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="35"/>
-    <col customWidth="1" max="2" min="2" width="12"/>
+    <col customWidth="1" max="2" min="2" width="14"/>
     <col customWidth="1" max="3" min="3" width="7"/>
     <col customWidth="1" max="4" min="4" width="6"/>
     <col customWidth="1" max="5" min="5" width="15"/>
@@ -21236,39 +21313,39 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
@@ -21282,10 +21359,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -21307,7 +21384,7 @@
       </c>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
@@ -21320,7 +21397,7 @@
       </c>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>5</v>
@@ -22081,10 +22158,10 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>9</v>
@@ -22125,10 +22202,10 @@
         <v>29.659</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>31.672</v>
+        <v>31.682</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>2.013</v>
+        <v>2.023</v>
       </c>
       <c r="S21" s="1" t="n"/>
       <c r="T21" s="1" t="n"/>
@@ -22170,10 +22247,10 @@
         <v>25.659</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>26.446</v>
+        <v>26.436</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0.787</v>
+        <v>0.777</v>
       </c>
       <c r="S22" s="1" t="n"/>
       <c r="T22" s="1" t="n"/>
@@ -22215,10 +22292,10 @@
         <v>21.659</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>23.272</v>
+        <v>23.282</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>1.613</v>
+        <v>1.623</v>
       </c>
       <c r="S23" s="1" t="n"/>
       <c r="T23" s="1" t="n"/>
@@ -22260,10 +22337,10 @@
         <v>17.659</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>18.046</v>
+        <v>18.036</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.387</v>
+        <v>0.377</v>
       </c>
       <c r="S24" s="1" t="n"/>
       <c r="T24" s="1" t="n"/>
@@ -22305,10 +22382,10 @@
         <v>13.659</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>14.872</v>
+        <v>14.882</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>1.213</v>
+        <v>1.223</v>
       </c>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
@@ -22350,10 +22427,10 @@
         <v>9.659000000000001</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>9.646000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.023</v>
       </c>
       <c r="S26" s="1" t="n"/>
       <c r="T26" s="1" t="n"/>
@@ -22395,10 +22472,10 @@
         <v>5.659</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>6.472</v>
+        <v>6.482</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.823</v>
       </c>
       <c r="S27" s="1" t="n"/>
       <c r="T27" s="1" t="n"/>
@@ -22440,10 +22517,10 @@
         <v>1.659</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>1.246</v>
+        <v>1.236</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.413</v>
+        <v>-0.423</v>
       </c>
       <c r="S28" s="1" t="n"/>
       <c r="T28" s="1" t="n"/>
@@ -22485,10 +22562,10 @@
         <v>-2.341</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>-1.928</v>
+        <v>-1.918</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.413</v>
+        <v>0.423</v>
       </c>
       <c r="S29" s="1" t="n"/>
       <c r="T29" s="1" t="n"/>
@@ -22522,10 +22599,10 @@
         <v>-6.341</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>-7.154</v>
+        <v>-7.164</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.8129999999999999</v>
+        <v>-0.823</v>
       </c>
       <c r="S30" s="1" t="n"/>
       <c r="T30" s="1" t="n"/>
@@ -22559,10 +22636,10 @@
         <v>-10.341</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>-10.328</v>
+        <v>-10.318</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0.013</v>
+        <v>0.023</v>
       </c>
       <c r="S31" s="1" t="n"/>
       <c r="T31" s="1" t="n"/>
@@ -22596,10 +22673,10 @@
         <v>-14.341</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>-15.554</v>
+        <v>-15.564</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-1.213</v>
+        <v>-1.223</v>
       </c>
       <c r="S32" s="1" t="n"/>
       <c r="T32" s="1" t="n"/>
@@ -22633,10 +22710,10 @@
         <v>-18.341</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>-18.728</v>
+        <v>-18.718</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.387</v>
+        <v>-0.377</v>
       </c>
       <c r="S33" s="1" t="n"/>
       <c r="T33" s="1" t="n"/>
@@ -22670,10 +22747,10 @@
         <v>-22.341</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>-23.954</v>
+        <v>-23.964</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-1.613</v>
+        <v>-1.623</v>
       </c>
       <c r="S34" s="1" t="n"/>
       <c r="T34" s="1" t="n"/>
@@ -22707,10 +22784,10 @@
         <v>-26.341</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>-27.128</v>
+        <v>-27.118</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.787</v>
+        <v>-0.777</v>
       </c>
       <c r="S35" s="1" t="n"/>
       <c r="T35" s="1" t="n"/>
@@ -22744,10 +22821,10 @@
         <v>-30.341</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>-32.354</v>
+        <v>-32.364</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-2.013</v>
+        <v>-2.023</v>
       </c>
       <c r="S36" s="1" t="n"/>
       <c r="T36" s="1" t="n"/>
@@ -22819,10 +22896,10 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>9</v>
@@ -23557,22 +23634,22 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>-0.343</v>
+        <v>-0.328</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>8.4</v>
@@ -23588,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="1" t="n">
-        <v>-25.2</v>
+        <v>-33.6</v>
       </c>
       <c r="M57" s="1" t="n">
         <v>0</v>
@@ -23598,13 +23675,13 @@
         <v>1</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>21.657</v>
+        <v>29.659</v>
       </c>
       <c r="Q57" s="1" t="n">
-        <v>22.605</v>
+        <v>31.672</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0.948</v>
+        <v>2.013</v>
       </c>
       <c r="S57" s="1" t="n"/>
       <c r="T57" s="1" t="n"/>
@@ -23633,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="1" t="n">
-        <v>-16.8</v>
+        <v>-25.2</v>
       </c>
       <c r="M58" s="1" t="n">
         <v>0</v>
@@ -23643,13 +23720,13 @@
         <v>2</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>17.657</v>
+        <v>25.659</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>18.709</v>
+        <v>26.446</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>1.052</v>
+        <v>0.787</v>
       </c>
       <c r="S58" s="1" t="n"/>
       <c r="T58" s="1" t="n"/>
@@ -23678,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="1" t="n">
-        <v>-8.4</v>
+        <v>-16.8</v>
       </c>
       <c r="M59" s="1" t="n">
         <v>0</v>
@@ -23688,13 +23765,13 @@
         <v>3</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>13.657</v>
+        <v>21.659</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <v>14.205</v>
+        <v>23.272</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0.548</v>
+        <v>1.613</v>
       </c>
       <c r="S59" s="1" t="n"/>
       <c r="T59" s="1" t="n"/>
@@ -23723,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>0</v>
+        <v>-8.4</v>
       </c>
       <c r="M60" s="1" t="n">
         <v>0</v>
@@ -23733,13 +23810,13 @@
         <v>4</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>9.657</v>
+        <v>17.659</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>10.309</v>
+        <v>18.046</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.652</v>
+        <v>0.387</v>
       </c>
       <c r="S60" s="1" t="n"/>
       <c r="T60" s="1" t="n"/>
@@ -23768,7 +23845,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="M61" s="1" t="n">
         <v>0</v>
@@ -23778,13 +23855,13 @@
         <v>5</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>5.657</v>
+        <v>13.659</v>
       </c>
       <c r="Q61" s="1" t="n">
-        <v>5.805</v>
+        <v>14.872</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.148</v>
+        <v>1.213</v>
       </c>
       <c r="S61" s="1" t="n"/>
       <c r="T61" s="1" t="n"/>
@@ -23813,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="M62" s="1" t="n">
         <v>0</v>
@@ -23823,13 +23900,13 @@
         <v>6</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>1.657</v>
+        <v>9.659000000000001</v>
       </c>
       <c r="Q62" s="1" t="n">
-        <v>1.909</v>
+        <v>9.646000000000001</v>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0.252</v>
+        <v>-0.013</v>
       </c>
       <c r="S62" s="1" t="n"/>
       <c r="T62" s="1" t="n"/>
@@ -23858,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>25.2</v>
+        <v>16.8</v>
       </c>
       <c r="M63" s="1" t="n">
         <v>0</v>
@@ -23868,13 +23945,13 @@
         <v>7</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>-2.343</v>
+        <v>5.659</v>
       </c>
       <c r="Q63" s="1" t="n">
-        <v>-2.595</v>
+        <v>6.472</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.252</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="S63" s="1" t="n"/>
       <c r="T63" s="1" t="n"/>
@@ -23896,22 +23973,30 @@
       <c r="G64" s="1" t="n"/>
       <c r="H64" s="1" t="n"/>
       <c r="I64" s="1" t="n"/>
-      <c r="J64" s="1" t="n"/>
-      <c r="K64" s="1" t="n"/>
-      <c r="L64" s="1" t="n"/>
-      <c r="M64" s="1" t="n"/>
+      <c r="J64" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N64" s="1" t="n"/>
       <c r="O64" s="1" t="n">
         <v>8</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-6.343</v>
+        <v>1.659</v>
       </c>
       <c r="Q64" s="1" t="n">
-        <v>-6.491</v>
+        <v>1.246</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.148</v>
+        <v>-0.413</v>
       </c>
       <c r="S64" s="1" t="n"/>
       <c r="T64" s="1" t="n"/>
@@ -23933,22 +24018,30 @@
       <c r="G65" s="1" t="n"/>
       <c r="H65" s="1" t="n"/>
       <c r="I65" s="1" t="n"/>
-      <c r="J65" s="1" t="n"/>
-      <c r="K65" s="1" t="n"/>
-      <c r="L65" s="1" t="n"/>
-      <c r="M65" s="1" t="n"/>
+      <c r="J65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N65" s="1" t="n"/>
       <c r="O65" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-10.343</v>
+        <v>-2.341</v>
       </c>
       <c r="Q65" s="1" t="n">
-        <v>-10.995</v>
+        <v>-1.928</v>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-0.652</v>
+        <v>0.413</v>
       </c>
       <c r="S65" s="1" t="n"/>
       <c r="T65" s="1" t="n"/>
@@ -23979,13 +24072,13 @@
         <v>10</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-14.343</v>
+        <v>-6.341</v>
       </c>
       <c r="Q66" s="1" t="n">
-        <v>-14.891</v>
+        <v>-7.154</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.548</v>
+        <v>-0.8129999999999999</v>
       </c>
       <c r="S66" s="1" t="n"/>
       <c r="T66" s="1" t="n"/>
@@ -24016,13 +24109,13 @@
         <v>11</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>-18.343</v>
+        <v>-10.341</v>
       </c>
       <c r="Q67" s="1" t="n">
-        <v>-19.395</v>
+        <v>-10.328</v>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1.052</v>
+        <v>0.013</v>
       </c>
       <c r="S67" s="1" t="n"/>
       <c r="T67" s="1" t="n"/>
@@ -24053,13 +24146,13 @@
         <v>12</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>-22.343</v>
+        <v>-14.341</v>
       </c>
       <c r="Q68" s="1" t="n">
-        <v>-23.291</v>
+        <v>-15.554</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-0.948</v>
+        <v>-1.213</v>
       </c>
       <c r="S68" s="1" t="n"/>
       <c r="T68" s="1" t="n"/>
@@ -24086,10 +24179,18 @@
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n"/>
       <c r="N69" s="1" t="n"/>
-      <c r="O69" s="1" t="n"/>
-      <c r="P69" s="1" t="n"/>
-      <c r="Q69" s="1" t="n"/>
-      <c r="R69" s="1" t="n"/>
+      <c r="O69" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>-18.341</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>-18.728</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>-0.387</v>
+      </c>
       <c r="S69" s="1" t="n"/>
       <c r="T69" s="1" t="n"/>
       <c r="U69" s="1" t="n"/>
@@ -24115,10 +24216,18 @@
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
-      <c r="O70" s="1" t="n"/>
-      <c r="P70" s="1" t="n"/>
-      <c r="Q70" s="1" t="n"/>
-      <c r="R70" s="1" t="n"/>
+      <c r="O70" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>-22.341</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>-23.954</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>-1.613</v>
+      </c>
       <c r="S70" s="1" t="n"/>
       <c r="T70" s="1" t="n"/>
       <c r="U70" s="1" t="n"/>
@@ -24130,55 +24239,31 @@
       <c r="AA70" s="1" t="n"/>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>-2.117</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H71" s="1" t="n">
-        <v>8.4</v>
-      </c>
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
       <c r="I71" s="1" t="n"/>
-      <c r="J71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="1" t="n">
-        <v>-32.2</v>
-      </c>
-      <c r="L71" s="1" t="n">
-        <v>-33.171</v>
-      </c>
-      <c r="M71" s="1" t="n">
-        <v>-0.971</v>
-      </c>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
       <c r="N71" s="1" t="n"/>
       <c r="O71" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>0</v>
+        <v>-26.341</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>18.883</v>
+        <v>-27.128</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-0.787</v>
       </c>
       <c r="S71" s="1" t="n"/>
       <c r="T71" s="1" t="n"/>
@@ -24200,30 +24285,22 @@
       <c r="G72" s="1" t="n"/>
       <c r="H72" s="1" t="n"/>
       <c r="I72" s="1" t="n"/>
-      <c r="J72" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K72" s="1" t="n">
-        <v>-24.2</v>
-      </c>
-      <c r="L72" s="1" t="n">
-        <v>-25.629</v>
-      </c>
-      <c r="M72" s="1" t="n">
-        <v>-1.429</v>
-      </c>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
       <c r="O72" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>0</v>
+        <v>-30.341</v>
       </c>
       <c r="Q72" s="1" t="n">
-        <v>10.483</v>
+        <v>-32.354</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-2.013</v>
       </c>
       <c r="S72" s="1" t="n"/>
       <c r="T72" s="1" t="n"/>
@@ -24245,31 +24322,15 @@
       <c r="G73" s="1" t="n"/>
       <c r="H73" s="1" t="n"/>
       <c r="I73" s="1" t="n"/>
-      <c r="J73" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K73" s="1" t="n">
-        <v>-16.2</v>
-      </c>
-      <c r="L73" s="1" t="n">
-        <v>-16.371</v>
-      </c>
-      <c r="M73" s="1" t="n">
-        <v>-0.171</v>
-      </c>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
       <c r="N73" s="1" t="n"/>
-      <c r="O73" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="1" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="R73" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="O73" s="1" t="n"/>
+      <c r="P73" s="1" t="n"/>
+      <c r="Q73" s="1" t="n"/>
+      <c r="R73" s="1" t="n"/>
       <c r="S73" s="1" t="n"/>
       <c r="T73" s="1" t="n"/>
       <c r="U73" s="1" t="n"/>
@@ -24290,31 +24351,15 @@
       <c r="G74" s="1" t="n"/>
       <c r="H74" s="1" t="n"/>
       <c r="I74" s="1" t="n"/>
-      <c r="J74" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="L74" s="1" t="n">
-        <v>-8.829000000000001</v>
-      </c>
-      <c r="M74" s="1" t="n">
-        <v>-0.629</v>
-      </c>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
       <c r="N74" s="1" t="n"/>
-      <c r="O74" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="1" t="n">
-        <v>-6.317</v>
-      </c>
-      <c r="R74" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="O74" s="1" t="n"/>
+      <c r="P74" s="1" t="n"/>
+      <c r="Q74" s="1" t="n"/>
+      <c r="R74" s="1" t="n"/>
       <c r="S74" s="1" t="n"/>
       <c r="T74" s="1" t="n"/>
       <c r="U74" s="1" t="n"/>
@@ -24326,39 +24371,55 @@
       <c r="AA74" s="1" t="n"/>
     </row>
     <row r="75" spans="1:27">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
-      <c r="D75" s="1" t="n"/>
-      <c r="E75" s="1" t="n"/>
-      <c r="F75" s="1" t="n"/>
-      <c r="G75" s="1" t="n"/>
-      <c r="H75" s="1" t="n"/>
+      <c r="A75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>-0.343</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="I75" s="1" t="n"/>
       <c r="J75" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>0.429</v>
+        <v>-25.2</v>
       </c>
       <c r="M75" s="1" t="n">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="N75" s="1" t="n"/>
       <c r="O75" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>0</v>
+        <v>21.657</v>
       </c>
       <c r="Q75" s="1" t="n">
-        <v>-14.717</v>
+        <v>22.605</v>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>0.948</v>
       </c>
       <c r="S75" s="1" t="n"/>
       <c r="T75" s="1" t="n"/>
@@ -24381,29 +24442,29 @@
       <c r="H76" s="1" t="n"/>
       <c r="I76" s="1" t="n"/>
       <c r="J76" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1" t="n">
-        <v>7.971</v>
+        <v>-16.8</v>
       </c>
       <c r="M76" s="1" t="n">
-        <v>0.171</v>
+        <v>0</v>
       </c>
       <c r="N76" s="1" t="n"/>
       <c r="O76" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>0</v>
+        <v>17.657</v>
       </c>
       <c r="Q76" s="1" t="n">
-        <v>-23.117</v>
+        <v>18.709</v>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
+        <v>1.052</v>
       </c>
       <c r="S76" s="1" t="n"/>
       <c r="T76" s="1" t="n"/>
@@ -24426,22 +24487,30 @@
       <c r="H77" s="1" t="n"/>
       <c r="I77" s="1" t="n"/>
       <c r="J77" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>17.229</v>
+        <v>-8.4</v>
       </c>
       <c r="M77" s="1" t="n">
-        <v>1.429</v>
+        <v>0</v>
       </c>
       <c r="N77" s="1" t="n"/>
-      <c r="O77" s="1" t="n"/>
-      <c r="P77" s="1" t="n"/>
-      <c r="Q77" s="1" t="n"/>
-      <c r="R77" s="1" t="n"/>
+      <c r="O77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>13.657</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>14.205</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>0.548</v>
+      </c>
       <c r="S77" s="1" t="n"/>
       <c r="T77" s="1" t="n"/>
       <c r="U77" s="1" t="n"/>
@@ -24463,22 +24532,30 @@
       <c r="H78" s="1" t="n"/>
       <c r="I78" s="1" t="n"/>
       <c r="J78" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>24.771</v>
+        <v>0</v>
       </c>
       <c r="M78" s="1" t="n">
-        <v>0.971</v>
+        <v>0</v>
       </c>
       <c r="N78" s="1" t="n"/>
-      <c r="O78" s="1" t="n"/>
-      <c r="P78" s="1" t="n"/>
-      <c r="Q78" s="1" t="n"/>
-      <c r="R78" s="1" t="n"/>
+      <c r="O78" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>9.657</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>10.309</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>0.652</v>
+      </c>
       <c r="S78" s="1" t="n"/>
       <c r="T78" s="1" t="n"/>
       <c r="U78" s="1" t="n"/>
@@ -24499,15 +24576,31 @@
       <c r="G79" s="1" t="n"/>
       <c r="H79" s="1" t="n"/>
       <c r="I79" s="1" t="n"/>
-      <c r="J79" s="1" t="n"/>
-      <c r="K79" s="1" t="n"/>
-      <c r="L79" s="1" t="n"/>
-      <c r="M79" s="1" t="n"/>
+      <c r="J79" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N79" s="1" t="n"/>
-      <c r="O79" s="1" t="n"/>
-      <c r="P79" s="1" t="n"/>
-      <c r="Q79" s="1" t="n"/>
-      <c r="R79" s="1" t="n"/>
+      <c r="O79" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>5.657</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>5.805</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>0.148</v>
+      </c>
       <c r="S79" s="1" t="n"/>
       <c r="T79" s="1" t="n"/>
       <c r="U79" s="1" t="n"/>
@@ -24528,15 +24621,31 @@
       <c r="G80" s="1" t="n"/>
       <c r="H80" s="1" t="n"/>
       <c r="I80" s="1" t="n"/>
-      <c r="J80" s="1" t="n"/>
-      <c r="K80" s="1" t="n"/>
-      <c r="L80" s="1" t="n"/>
-      <c r="M80" s="1" t="n"/>
+      <c r="J80" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="N80" s="1" t="n"/>
-      <c r="O80" s="1" t="n"/>
-      <c r="P80" s="1" t="n"/>
-      <c r="Q80" s="1" t="n"/>
-      <c r="R80" s="1" t="n"/>
+      <c r="O80" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>0.252</v>
+      </c>
       <c r="S80" s="1" t="n"/>
       <c r="T80" s="1" t="n"/>
       <c r="U80" s="1" t="n"/>
@@ -24548,55 +24657,39 @@
       <c r="AA80" s="1" t="n"/>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>1.432</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <v>8.4</v>
-      </c>
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n"/>
       <c r="I81" s="1" t="n"/>
       <c r="J81" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>-23.8</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1" t="n">
-        <v>-24.771</v>
+        <v>25.2</v>
       </c>
       <c r="M81" s="1" t="n">
-        <v>-0.971</v>
+        <v>0</v>
       </c>
       <c r="N81" s="1" t="n"/>
       <c r="O81" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>0</v>
+        <v>-2.343</v>
       </c>
       <c r="Q81" s="1" t="n">
-        <v>22.432</v>
+        <v>-2.595</v>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-0.252</v>
       </c>
       <c r="S81" s="1" t="n"/>
       <c r="T81" s="1" t="n"/>
@@ -24618,30 +24711,22 @@
       <c r="G82" s="1" t="n"/>
       <c r="H82" s="1" t="n"/>
       <c r="I82" s="1" t="n"/>
-      <c r="J82" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K82" s="1" t="n">
-        <v>-15.8</v>
-      </c>
-      <c r="L82" s="1" t="n">
-        <v>-17.229</v>
-      </c>
-      <c r="M82" s="1" t="n">
-        <v>-1.429</v>
-      </c>
+      <c r="J82" s="1" t="n"/>
+      <c r="K82" s="1" t="n"/>
+      <c r="L82" s="1" t="n"/>
+      <c r="M82" s="1" t="n"/>
       <c r="N82" s="1" t="n"/>
       <c r="O82" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>0</v>
+        <v>-6.343</v>
       </c>
       <c r="Q82" s="1" t="n">
-        <v>14.032</v>
+        <v>-6.491</v>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
+        <v>-0.148</v>
       </c>
       <c r="S82" s="1" t="n"/>
       <c r="T82" s="1" t="n"/>
@@ -24663,30 +24748,22 @@
       <c r="G83" s="1" t="n"/>
       <c r="H83" s="1" t="n"/>
       <c r="I83" s="1" t="n"/>
-      <c r="J83" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K83" s="1" t="n">
-        <v>-7.8</v>
-      </c>
-      <c r="L83" s="1" t="n">
-        <v>-7.971</v>
-      </c>
-      <c r="M83" s="1" t="n">
-        <v>-0.171</v>
-      </c>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
       <c r="N83" s="1" t="n"/>
       <c r="O83" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>0</v>
+        <v>-10.343</v>
       </c>
       <c r="Q83" s="1" t="n">
-        <v>5.632</v>
+        <v>-10.995</v>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-0.652</v>
       </c>
       <c r="S83" s="1" t="n"/>
       <c r="T83" s="1" t="n"/>
@@ -24708,30 +24785,22 @@
       <c r="G84" s="1" t="n"/>
       <c r="H84" s="1" t="n"/>
       <c r="I84" s="1" t="n"/>
-      <c r="J84" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K84" s="1" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="L84" s="1" t="n">
-        <v>-0.429</v>
-      </c>
-      <c r="M84" s="1" t="n">
-        <v>-0.629</v>
-      </c>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
       <c r="N84" s="1" t="n"/>
       <c r="O84" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>0</v>
+        <v>-14.343</v>
       </c>
       <c r="Q84" s="1" t="n">
-        <v>-2.768</v>
+        <v>-14.891</v>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
+        <v>-0.548</v>
       </c>
       <c r="S84" s="1" t="n"/>
       <c r="T84" s="1" t="n"/>
@@ -24753,30 +24822,22 @@
       <c r="G85" s="1" t="n"/>
       <c r="H85" s="1" t="n"/>
       <c r="I85" s="1" t="n"/>
-      <c r="J85" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K85" s="1" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L85" s="1" t="n">
-        <v>8.829000000000001</v>
-      </c>
-      <c r="M85" s="1" t="n">
-        <v>0.629</v>
-      </c>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
       <c r="N85" s="1" t="n"/>
       <c r="O85" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>0</v>
+        <v>-18.343</v>
       </c>
       <c r="Q85" s="1" t="n">
-        <v>-11.168</v>
+        <v>-19.395</v>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
+        <v>-1.052</v>
       </c>
       <c r="S85" s="1" t="n"/>
       <c r="T85" s="1" t="n"/>
@@ -24798,30 +24859,22 @@
       <c r="G86" s="1" t="n"/>
       <c r="H86" s="1" t="n"/>
       <c r="I86" s="1" t="n"/>
-      <c r="J86" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K86" s="1" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="L86" s="1" t="n">
-        <v>16.371</v>
-      </c>
-      <c r="M86" s="1" t="n">
-        <v>0.171</v>
-      </c>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
       <c r="N86" s="1" t="n"/>
       <c r="O86" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>0</v>
+        <v>-22.343</v>
       </c>
       <c r="Q86" s="1" t="n">
-        <v>-19.568</v>
+        <v>-23.291</v>
       </c>
       <c r="R86" s="1" t="n">
-        <v>0</v>
+        <v>-0.948</v>
       </c>
       <c r="S86" s="1" t="n"/>
       <c r="T86" s="1" t="n"/>
@@ -24843,18 +24896,10 @@
       <c r="G87" s="1" t="n"/>
       <c r="H87" s="1" t="n"/>
       <c r="I87" s="1" t="n"/>
-      <c r="J87" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K87" s="1" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="L87" s="1" t="n">
-        <v>25.629</v>
-      </c>
-      <c r="M87" s="1" t="n">
-        <v>1.429</v>
-      </c>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="n"/>
+      <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
       <c r="O87" s="1" t="n"/>
       <c r="P87" s="1" t="n"/>
@@ -24880,18 +24925,10 @@
       <c r="G88" s="1" t="n"/>
       <c r="H88" s="1" t="n"/>
       <c r="I88" s="1" t="n"/>
-      <c r="J88" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K88" s="1" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="L88" s="1" t="n">
-        <v>33.171</v>
-      </c>
-      <c r="M88" s="1" t="n">
-        <v>0.971</v>
-      </c>
+      <c r="J88" s="1" t="n"/>
+      <c r="K88" s="1" t="n"/>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
       <c r="O88" s="1" t="n"/>
       <c r="P88" s="1" t="n"/>
@@ -24908,24 +24945,56 @@
       <c r="AA88" s="1" t="n"/>
     </row>
     <row r="89" spans="1:27">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="n"/>
-      <c r="D89" s="1" t="n"/>
-      <c r="E89" s="1" t="n"/>
-      <c r="F89" s="1" t="n"/>
-      <c r="G89" s="1" t="n"/>
-      <c r="H89" s="1" t="n"/>
+      <c r="A89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>-2.117</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>8.4</v>
+      </c>
       <c r="I89" s="1" t="n"/>
-      <c r="J89" s="1" t="n"/>
-      <c r="K89" s="1" t="n"/>
-      <c r="L89" s="1" t="n"/>
-      <c r="M89" s="1" t="n"/>
+      <c r="J89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="L89" s="1" t="n">
+        <v>-33.171</v>
+      </c>
+      <c r="M89" s="1" t="n">
+        <v>-0.971</v>
+      </c>
       <c r="N89" s="1" t="n"/>
-      <c r="O89" s="1" t="n"/>
-      <c r="P89" s="1" t="n"/>
-      <c r="Q89" s="1" t="n"/>
-      <c r="R89" s="1" t="n"/>
+      <c r="O89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1" t="n">
+        <v>18.883</v>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S89" s="1" t="n"/>
       <c r="T89" s="1" t="n"/>
       <c r="U89" s="1" t="n"/>
@@ -24946,15 +25015,31 @@
       <c r="G90" s="1" t="n"/>
       <c r="H90" s="1" t="n"/>
       <c r="I90" s="1" t="n"/>
-      <c r="J90" s="1" t="n"/>
-      <c r="K90" s="1" t="n"/>
-      <c r="L90" s="1" t="n"/>
-      <c r="M90" s="1" t="n"/>
+      <c r="J90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <v>-25.629</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <v>-1.429</v>
+      </c>
       <c r="N90" s="1" t="n"/>
-      <c r="O90" s="1" t="n"/>
-      <c r="P90" s="1" t="n"/>
-      <c r="Q90" s="1" t="n"/>
-      <c r="R90" s="1" t="n"/>
+      <c r="O90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1" t="n">
+        <v>10.483</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S90" s="1" t="n"/>
       <c r="T90" s="1" t="n"/>
       <c r="U90" s="1" t="n"/>
@@ -24975,15 +25060,31 @@
       <c r="G91" s="1" t="n"/>
       <c r="H91" s="1" t="n"/>
       <c r="I91" s="1" t="n"/>
-      <c r="J91" s="1" t="n"/>
-      <c r="K91" s="1" t="n"/>
-      <c r="L91" s="1" t="n"/>
-      <c r="M91" s="1" t="n"/>
+      <c r="J91" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="L91" s="1" t="n">
+        <v>-16.371</v>
+      </c>
+      <c r="M91" s="1" t="n">
+        <v>-0.171</v>
+      </c>
       <c r="N91" s="1" t="n"/>
-      <c r="O91" s="1" t="n"/>
-      <c r="P91" s="1" t="n"/>
-      <c r="Q91" s="1" t="n"/>
-      <c r="R91" s="1" t="n"/>
+      <c r="O91" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S91" s="1" t="n"/>
       <c r="T91" s="1" t="n"/>
       <c r="U91" s="1" t="n"/>
@@ -25004,15 +25105,31 @@
       <c r="G92" s="1" t="n"/>
       <c r="H92" s="1" t="n"/>
       <c r="I92" s="1" t="n"/>
-      <c r="J92" s="1" t="n"/>
-      <c r="K92" s="1" t="n"/>
-      <c r="L92" s="1" t="n"/>
-      <c r="M92" s="1" t="n"/>
+      <c r="J92" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="L92" s="1" t="n">
+        <v>-8.829000000000001</v>
+      </c>
+      <c r="M92" s="1" t="n">
+        <v>-0.629</v>
+      </c>
       <c r="N92" s="1" t="n"/>
-      <c r="O92" s="1" t="n"/>
-      <c r="P92" s="1" t="n"/>
-      <c r="Q92" s="1" t="n"/>
-      <c r="R92" s="1" t="n"/>
+      <c r="O92" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1" t="n">
+        <v>-6.317</v>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S92" s="1" t="n"/>
       <c r="T92" s="1" t="n"/>
       <c r="U92" s="1" t="n"/>
@@ -25033,15 +25150,31 @@
       <c r="G93" s="1" t="n"/>
       <c r="H93" s="1" t="n"/>
       <c r="I93" s="1" t="n"/>
-      <c r="J93" s="1" t="n"/>
-      <c r="K93" s="1" t="n"/>
-      <c r="L93" s="1" t="n"/>
-      <c r="M93" s="1" t="n"/>
+      <c r="J93" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="L93" s="1" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="M93" s="1" t="n">
+        <v>0.629</v>
+      </c>
       <c r="N93" s="1" t="n"/>
-      <c r="O93" s="1" t="n"/>
-      <c r="P93" s="1" t="n"/>
-      <c r="Q93" s="1" t="n"/>
-      <c r="R93" s="1" t="n"/>
+      <c r="O93" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1" t="n">
+        <v>-14.717</v>
+      </c>
+      <c r="R93" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S93" s="1" t="n"/>
       <c r="T93" s="1" t="n"/>
       <c r="U93" s="1" t="n"/>
@@ -25062,15 +25195,31 @@
       <c r="G94" s="1" t="n"/>
       <c r="H94" s="1" t="n"/>
       <c r="I94" s="1" t="n"/>
-      <c r="J94" s="1" t="n"/>
-      <c r="K94" s="1" t="n"/>
-      <c r="L94" s="1" t="n"/>
-      <c r="M94" s="1" t="n"/>
+      <c r="J94" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L94" s="1" t="n">
+        <v>7.971</v>
+      </c>
+      <c r="M94" s="1" t="n">
+        <v>0.171</v>
+      </c>
       <c r="N94" s="1" t="n"/>
-      <c r="O94" s="1" t="n"/>
-      <c r="P94" s="1" t="n"/>
-      <c r="Q94" s="1" t="n"/>
-      <c r="R94" s="1" t="n"/>
+      <c r="O94" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1" t="n">
+        <v>-23.117</v>
+      </c>
+      <c r="R94" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S94" s="1" t="n"/>
       <c r="T94" s="1" t="n"/>
       <c r="U94" s="1" t="n"/>
@@ -25091,10 +25240,18 @@
       <c r="G95" s="1" t="n"/>
       <c r="H95" s="1" t="n"/>
       <c r="I95" s="1" t="n"/>
-      <c r="J95" s="1" t="n"/>
-      <c r="K95" s="1" t="n"/>
-      <c r="L95" s="1" t="n"/>
-      <c r="M95" s="1" t="n"/>
+      <c r="J95" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L95" s="1" t="n">
+        <v>17.229</v>
+      </c>
+      <c r="M95" s="1" t="n">
+        <v>1.429</v>
+      </c>
       <c r="N95" s="1" t="n"/>
       <c r="O95" s="1" t="n"/>
       <c r="P95" s="1" t="n"/>
@@ -25120,10 +25277,18 @@
       <c r="G96" s="1" t="n"/>
       <c r="H96" s="1" t="n"/>
       <c r="I96" s="1" t="n"/>
-      <c r="J96" s="1" t="n"/>
-      <c r="K96" s="1" t="n"/>
-      <c r="L96" s="1" t="n"/>
-      <c r="M96" s="1" t="n"/>
+      <c r="J96" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="L96" s="1" t="n">
+        <v>24.771</v>
+      </c>
+      <c r="M96" s="1" t="n">
+        <v>0.971</v>
+      </c>
       <c r="N96" s="1" t="n"/>
       <c r="O96" s="1" t="n"/>
       <c r="P96" s="1" t="n"/>
@@ -25198,24 +25363,56 @@
       <c r="AA98" s="1" t="n"/>
     </row>
     <row r="99" spans="1:27">
-      <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="n"/>
-      <c r="D99" s="1" t="n"/>
-      <c r="E99" s="1" t="n"/>
-      <c r="F99" s="1" t="n"/>
-      <c r="G99" s="1" t="n"/>
-      <c r="H99" s="1" t="n"/>
+      <c r="A99" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>8.4</v>
+      </c>
       <c r="I99" s="1" t="n"/>
-      <c r="J99" s="1" t="n"/>
-      <c r="K99" s="1" t="n"/>
-      <c r="L99" s="1" t="n"/>
-      <c r="M99" s="1" t="n"/>
+      <c r="J99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="L99" s="1" t="n">
+        <v>-24.771</v>
+      </c>
+      <c r="M99" s="1" t="n">
+        <v>-0.971</v>
+      </c>
       <c r="N99" s="1" t="n"/>
-      <c r="O99" s="1" t="n"/>
-      <c r="P99" s="1" t="n"/>
-      <c r="Q99" s="1" t="n"/>
-      <c r="R99" s="1" t="n"/>
+      <c r="O99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1" t="n">
+        <v>22.432</v>
+      </c>
+      <c r="R99" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S99" s="1" t="n"/>
       <c r="T99" s="1" t="n"/>
       <c r="U99" s="1" t="n"/>
@@ -25236,15 +25433,31 @@
       <c r="G100" s="1" t="n"/>
       <c r="H100" s="1" t="n"/>
       <c r="I100" s="1" t="n"/>
-      <c r="J100" s="1" t="n"/>
-      <c r="K100" s="1" t="n"/>
-      <c r="L100" s="1" t="n"/>
-      <c r="M100" s="1" t="n"/>
+      <c r="J100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>-15.8</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <v>-17.229</v>
+      </c>
+      <c r="M100" s="1" t="n">
+        <v>-1.429</v>
+      </c>
       <c r="N100" s="1" t="n"/>
-      <c r="O100" s="1" t="n"/>
-      <c r="P100" s="1" t="n"/>
-      <c r="Q100" s="1" t="n"/>
-      <c r="R100" s="1" t="n"/>
+      <c r="O100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1" t="n">
+        <v>14.032</v>
+      </c>
+      <c r="R100" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S100" s="1" t="n"/>
       <c r="T100" s="1" t="n"/>
       <c r="U100" s="1" t="n"/>
@@ -25265,15 +25478,31 @@
       <c r="G101" s="1" t="n"/>
       <c r="H101" s="1" t="n"/>
       <c r="I101" s="1" t="n"/>
-      <c r="J101" s="1" t="n"/>
-      <c r="K101" s="1" t="n"/>
-      <c r="L101" s="1" t="n"/>
-      <c r="M101" s="1" t="n"/>
+      <c r="J101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="L101" s="1" t="n">
+        <v>-7.971</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <v>-0.171</v>
+      </c>
       <c r="N101" s="1" t="n"/>
-      <c r="O101" s="1" t="n"/>
-      <c r="P101" s="1" t="n"/>
-      <c r="Q101" s="1" t="n"/>
-      <c r="R101" s="1" t="n"/>
+      <c r="O101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1" t="n">
+        <v>5.632</v>
+      </c>
+      <c r="R101" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S101" s="1" t="n"/>
       <c r="T101" s="1" t="n"/>
       <c r="U101" s="1" t="n"/>
@@ -25294,15 +25523,31 @@
       <c r="G102" s="1" t="n"/>
       <c r="H102" s="1" t="n"/>
       <c r="I102" s="1" t="n"/>
-      <c r="J102" s="1" t="n"/>
-      <c r="K102" s="1" t="n"/>
-      <c r="L102" s="1" t="n"/>
-      <c r="M102" s="1" t="n"/>
+      <c r="J102" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <v>-0.429</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>-0.629</v>
+      </c>
       <c r="N102" s="1" t="n"/>
-      <c r="O102" s="1" t="n"/>
-      <c r="P102" s="1" t="n"/>
-      <c r="Q102" s="1" t="n"/>
-      <c r="R102" s="1" t="n"/>
+      <c r="O102" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1" t="n">
+        <v>-2.768</v>
+      </c>
+      <c r="R102" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S102" s="1" t="n"/>
       <c r="T102" s="1" t="n"/>
       <c r="U102" s="1" t="n"/>
@@ -25323,15 +25568,31 @@
       <c r="G103" s="1" t="n"/>
       <c r="H103" s="1" t="n"/>
       <c r="I103" s="1" t="n"/>
-      <c r="J103" s="1" t="n"/>
-      <c r="K103" s="1" t="n"/>
-      <c r="L103" s="1" t="n"/>
-      <c r="M103" s="1" t="n"/>
+      <c r="J103" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L103" s="1" t="n">
+        <v>8.829000000000001</v>
+      </c>
+      <c r="M103" s="1" t="n">
+        <v>0.629</v>
+      </c>
       <c r="N103" s="1" t="n"/>
-      <c r="O103" s="1" t="n"/>
-      <c r="P103" s="1" t="n"/>
-      <c r="Q103" s="1" t="n"/>
-      <c r="R103" s="1" t="n"/>
+      <c r="O103" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1" t="n">
+        <v>-11.168</v>
+      </c>
+      <c r="R103" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S103" s="1" t="n"/>
       <c r="T103" s="1" t="n"/>
       <c r="U103" s="1" t="n"/>
@@ -25352,15 +25613,31 @@
       <c r="G104" s="1" t="n"/>
       <c r="H104" s="1" t="n"/>
       <c r="I104" s="1" t="n"/>
-      <c r="J104" s="1" t="n"/>
-      <c r="K104" s="1" t="n"/>
-      <c r="L104" s="1" t="n"/>
-      <c r="M104" s="1" t="n"/>
+      <c r="J104" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L104" s="1" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="M104" s="1" t="n">
+        <v>0.171</v>
+      </c>
       <c r="N104" s="1" t="n"/>
-      <c r="O104" s="1" t="n"/>
-      <c r="P104" s="1" t="n"/>
-      <c r="Q104" s="1" t="n"/>
-      <c r="R104" s="1" t="n"/>
+      <c r="O104" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <v>-19.568</v>
+      </c>
+      <c r="R104" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S104" s="1" t="n"/>
       <c r="T104" s="1" t="n"/>
       <c r="U104" s="1" t="n"/>
@@ -25381,10 +25658,18 @@
       <c r="G105" s="1" t="n"/>
       <c r="H105" s="1" t="n"/>
       <c r="I105" s="1" t="n"/>
-      <c r="J105" s="1" t="n"/>
-      <c r="K105" s="1" t="n"/>
-      <c r="L105" s="1" t="n"/>
-      <c r="M105" s="1" t="n"/>
+      <c r="J105" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="L105" s="1" t="n">
+        <v>25.629</v>
+      </c>
+      <c r="M105" s="1" t="n">
+        <v>1.429</v>
+      </c>
       <c r="N105" s="1" t="n"/>
       <c r="O105" s="1" t="n"/>
       <c r="P105" s="1" t="n"/>
@@ -25410,10 +25695,18 @@
       <c r="G106" s="1" t="n"/>
       <c r="H106" s="1" t="n"/>
       <c r="I106" s="1" t="n"/>
-      <c r="J106" s="1" t="n"/>
-      <c r="K106" s="1" t="n"/>
-      <c r="L106" s="1" t="n"/>
-      <c r="M106" s="1" t="n"/>
+      <c r="J106" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="L106" s="1" t="n">
+        <v>33.171</v>
+      </c>
+      <c r="M106" s="1" t="n">
+        <v>0.971</v>
+      </c>
       <c r="N106" s="1" t="n"/>
       <c r="O106" s="1" t="n"/>
       <c r="P106" s="1" t="n"/>
